--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>3_Heinzmann.pdf</t>
+  </si>
+  <si>
+    <t>BBS/BES Causal inference course by Prof. Miguel Hernan</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,9 +662,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="str">
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -87,7 +87,16 @@
     <t>3_Heinzmann.pdf</t>
   </si>
   <si>
-    <t>BBS/BES Causal inference course by Prof. Miguel Hernan</t>
+    <t>BBS Course: Group-Sequential and Adaptive Designs</t>
+  </si>
+  <si>
+    <t>BBS/BES Causal inference course</t>
+  </si>
+  <si>
+    <t>Miguel Hernan</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach, Daniel Sabanés Bové, Marc Vandemeulebroecke, Marcel Wolbers</t>
   </si>
 </sst>
 </file>
@@ -119,6 +128,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,27 +672,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="str">
         <f>"19.08.2019"</f>
         <v>19.08.2019</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Kaspar Rufibach, Daniel Sabanés Bové, Marc Vandemeulebroecke, Marcel Wolbers</t>
+  </si>
+  <si>
+    <t>Workshop Adaptive Designs and Multiple Testing Procedures</t>
   </si>
 </sst>
 </file>
@@ -710,11 +713,18 @@
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="str">
+        <f>"05.06.2014"</f>
+        <v>05.06.2014</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>recording</t>
-  </si>
-  <si>
-    <t>https://streamingmedia.roche.com/media/BBS+virtual+seminarA+COVID-19+pandemic+%26+how+we+deal+with+data/1_lguf3l7i</t>
   </si>
   <si>
     <t>seminar_title</t>
@@ -560,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -602,31 +599,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
@@ -640,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
@@ -663,16 +658,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,14 +676,14 @@
         <v>19.08.2019</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -700,14 +695,14 @@
         <v>01.03.2018</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -719,7 +714,7 @@
         <v>05.06.2014</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4">

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -158,6 +158,18 @@
   <si>
     <t>summary</t>
   </si>
+  <si>
+    <t>Advanced group-sequential and adaptive confirmatory clinical trial designs, with R practicals using rpact</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach, Marc Vandemeulebroecke, Gernot Wassmer, Marcel Wolbers</t>
+  </si>
+  <si>
+    <t>Roche, Novartis, rpact, Roche</t>
+  </si>
+  <si>
+    <t>trainings/20220913/20220913_gsd_adaptive.html</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +306,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -322,7 +334,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L951"/>
+  <dimension ref="A1:L952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -668,106 +680,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
+        <f>"13.09.2022"</f>
+        <v>13.09.2022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="str">
+      <c r="K4" s="18"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
-        <f t="shared" ref="A5:A7" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>36</v>
@@ -776,17 +786,17 @@
         <v>9</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A6:A8" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B6" s="4"/>
@@ -794,7 +804,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>36</v>
@@ -803,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="3"/>
@@ -821,7 +831,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
@@ -830,67 +840,69 @@
         <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4">
-        <v>1</v>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>11</v>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
+      <c r="J8" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -900,49 +912,53 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
@@ -951,38 +967,47 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1061,11 +1086,11 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1076,8 +1101,8 @@
       <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1093,6 +1118,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1104,7 +1130,6 @@
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1127,8 +1152,8 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,7 +1164,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="16"/>
     </row>
@@ -1150,9 +1175,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,8 +1187,8 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="16"/>
     </row>
@@ -1176,7 +1201,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,9 +1223,9 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1237,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="17"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1222,34 +1247,34 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -1309,7 +1334,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
@@ -1329,7 +1354,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
@@ -1361,8 +1386,8 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="2"/>
@@ -1409,8 +1434,8 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="2"/>
@@ -1421,8 +1446,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2"/>
@@ -1517,8 +1542,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
@@ -2884,16 +2909,16 @@
       <c r="J172" s="1"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="3"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
@@ -12231,6 +12256,18 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A952" s="14"/>
+      <c r="B952" s="9"/>
+      <c r="C952" s="9"/>
+      <c r="D952" s="5"/>
+      <c r="E952" s="5"/>
+      <c r="F952" s="3"/>
+      <c r="G952" s="5"/>
+      <c r="H952" s="5"/>
+      <c r="I952" s="3"/>
+      <c r="J952" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -168,7 +168,10 @@
     <t>Roche, Novartis, rpact, Roche</t>
   </si>
   <si>
-    <t>trainings/20220913/20220913_gsd_adaptive.html</t>
+    <t>Collection of all materials</t>
+  </si>
+  <si>
+    <t>20220913_gsd_adaptive.html</t>
   </si>
 </sst>
 </file>
@@ -630,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L952"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,9 +693,6 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -702,8 +702,12 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>date</t>
   </si>
@@ -173,6 +173,18 @@
   <si>
     <t>20220913_gsd_adaptive.html</t>
   </si>
+  <si>
+    <t>Good Software Engineering Practice for R Packages</t>
+  </si>
+  <si>
+    <t>Kevin Kunzmann, Friedrich Pahlke, Daniel Sabanés Bové</t>
+  </si>
+  <si>
+    <t>forward.html</t>
+  </si>
+  <si>
+    <t>Boehringer Ingelheim, rpact, Roche</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +321,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -337,7 +349,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -631,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L952"/>
+  <dimension ref="A1:L953"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,132 +695,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
+        <f>"10.02.2023"</f>
+        <v>10.02.2023</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
+      <c r="K5" s="18"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
-        <f t="shared" ref="A6:A8" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>36</v>
@@ -817,17 +828,17 @@
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A9" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B7" s="4"/>
@@ -835,7 +846,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
@@ -844,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="3"/>
@@ -862,7 +873,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>36</v>
@@ -871,67 +882,69 @@
         <v>9</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4">
-        <v>1</v>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
+      <c r="G10" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -941,49 +954,53 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
@@ -992,38 +1009,47 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1102,11 +1128,11 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1117,8 +1143,8 @@
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1134,6 +1160,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,7 +1172,6 @@
       <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,8 +1194,8 @@
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1180,7 +1206,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="16"/>
     </row>
@@ -1191,9 +1217,9 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,8 +1229,8 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="16"/>
     </row>
@@ -1217,7 +1243,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1239,9 +1265,9 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1253,7 +1279,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="17"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1263,34 +1289,34 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
@@ -1350,7 +1376,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -1370,7 +1396,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="1"/>
@@ -1402,8 +1428,8 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="2"/>
@@ -1450,8 +1476,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2"/>
@@ -1462,8 +1488,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="2"/>
@@ -1558,8 +1584,8 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
@@ -2925,16 +2951,16 @@
       <c r="J173" s="1"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="3"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
@@ -12272,6 +12298,18 @@
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
     </row>
+    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A953" s="14"/>
+      <c r="B953" s="9"/>
+      <c r="C953" s="9"/>
+      <c r="D953" s="5"/>
+      <c r="E953" s="5"/>
+      <c r="F953" s="3"/>
+      <c r="G953" s="5"/>
+      <c r="H953" s="5"/>
+      <c r="I953" s="3"/>
+      <c r="J953" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -185,6 +185,9 @@
   <si>
     <t>Boehringer Ingelheim, rpact, Roche</t>
   </si>
+  <si>
+    <t>20230903_gsd_adaptive.html</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +324,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -349,7 +352,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -643,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L953"/>
+  <dimension ref="A1:L954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,158 +698,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
+        <f>"03.09.2023"</f>
+        <v>03.09.2023</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10">
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
+      <c r="I4" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
+      <c r="K6" s="18"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
-        <f t="shared" ref="A7:A9" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
@@ -855,17 +857,17 @@
         <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A10" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B8" s="4"/>
@@ -873,7 +875,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>36</v>
@@ -882,10 +884,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="3"/>
@@ -900,7 +902,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>36</v>
@@ -909,67 +911,69 @@
         <v>9</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4">
-        <v>1</v>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>11</v>
+      <c r="I10" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>14</v>
+      <c r="J10" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -979,49 +983,53 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -1030,38 +1038,47 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1140,11 +1157,11 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1155,8 +1172,8 @@
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1172,6 +1189,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,7 +1201,6 @@
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1206,8 +1223,8 @@
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1218,7 +1235,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="16"/>
     </row>
@@ -1229,9 +1246,9 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,8 +1258,8 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="16"/>
     </row>
@@ -1255,7 +1272,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,9 +1294,9 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,7 +1308,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="17"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1301,34 +1318,34 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="4"/>
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -1388,7 +1405,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -1408,7 +1425,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="1"/>
@@ -1440,8 +1457,8 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="2"/>
@@ -1488,8 +1505,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="2"/>
@@ -1500,8 +1517,8 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="2"/>
@@ -1596,8 +1613,8 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
@@ -2963,16 +2980,16 @@
       <c r="J174" s="1"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="3"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
@@ -12310,6 +12327,18 @@
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
     </row>
+    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A954" s="14"/>
+      <c r="B954" s="9"/>
+      <c r="C954" s="9"/>
+      <c r="D954" s="5"/>
+      <c r="E954" s="5"/>
+      <c r="F954" s="3"/>
+      <c r="G954" s="5"/>
+      <c r="H954" s="5"/>
+      <c r="I954" s="3"/>
+      <c r="J954" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E2D262-2C65-449F-A980-EFB0056532BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="13185"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -188,11 +202,38 @@
   <si>
     <t>20230903_gsd_adaptive.html</t>
   </si>
+  <si>
+    <t>Next Generation BBS Training Day</t>
+  </si>
+  <si>
+    <t>Do you speak statistics? How do you work as a statistician in a cross-functional team?</t>
+  </si>
+  <si>
+    <t>Julie Jones, Achim Guettner</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Do you speak statistics - BBS Next Gen 2023-12-06.pdf</t>
+  </si>
+  <si>
+    <t>Lukas A. Widmer, Michael Mayer</t>
+  </si>
+  <si>
+    <t>Novartis &amp; Posit</t>
+  </si>
+  <si>
+    <t>BBS Next Gen fastR course.pdf</t>
+  </si>
+  <si>
+    <t>Go fastRfastR – how to make R code how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
@@ -248,8 +289,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -295,7 +336,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,13 +364,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif"/>
+        <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -352,13 +398,19 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif"/>
+        <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -645,28 +697,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L954"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="35.28515625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="40.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="10"/>
+    <col min="1" max="1" width="13.7265625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="35.26953125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="40.81640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.54296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="35.81640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="14.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -698,62 +750,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="str">
-        <f>"03.09.2023"</f>
-        <v>03.09.2023</v>
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>55</v>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="str">
-        <f>"10.02.2023"</f>
-        <v>10.02.2023</v>
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10">
-        <v>1</v>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>52</v>
+      <c r="G3" s="5" t="s">
+        <v>61</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>54</v>
+      <c r="H3" s="5" t="s">
+        <v>62</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>49</v>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="str">
-        <f>"13.09.2022"</f>
-        <v>13.09.2022</v>
+        <f>"03.09.2023"</f>
+        <v>03.09.2023</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>46</v>
@@ -773,102 +827,96 @@
         <v>49</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="str">
+        <f>"10.02.2023"</f>
+        <v>10.02.2023</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="str">
+        <f>"13.09.2022"</f>
+        <v>13.09.2022</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
+    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
-        <f>"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>34</v>
+      <c r="I7" t="s">
+        <v>30</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="18"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
-        <f t="shared" ref="A8:A10" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -878,31 +926,35 @@
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>36</v>
@@ -911,17 +963,17 @@
         <v>9</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A12" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B10" s="4"/>
@@ -929,7 +981,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>36</v>
@@ -938,177 +990,207 @@
         <v>9</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="K12" s="17"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>20</v>
+      <c r="J13" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="str">
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="str">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1118,9 +1200,9 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1130,9 +1212,9 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1142,9 +1224,9 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1154,9 +1236,9 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1166,22 +1248,22 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
@@ -1190,20 +1272,21 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1213,9 +1296,9 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1224,10 +1307,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1235,11 +1317,11 @@
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1248,22 +1330,22 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="6"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="6"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1271,23 +1353,23 @@
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+      <c r="I32" s="16"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="16"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1295,83 +1377,83 @@
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="16"/>
+      <c r="I34" s="6"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="6"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="4"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="4"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1381,9 +1463,9 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1393,9 +1475,9 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1405,9 +1487,9 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1417,9 +1499,9 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1429,33 +1511,33 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1467,10 +1549,10 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="2"/>
@@ -1479,10 +1561,10 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="2"/>
@@ -1491,7 +1573,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1503,7 +1585,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1515,10 +1597,10 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="13"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="2"/>
@@ -1527,7 +1609,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1539,10 +1621,10 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
@@ -1551,7 +1633,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1563,7 +1645,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1575,7 +1657,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1587,7 +1669,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1599,7 +1681,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1611,7 +1693,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1623,10 +1705,10 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
@@ -1635,10 +1717,10 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
@@ -1647,7 +1729,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="13"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1659,7 +1741,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1671,7 +1753,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="13"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1683,7 +1765,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="13"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1695,7 +1777,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="13"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1707,7 +1789,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1719,7 +1801,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1731,7 +1813,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1743,7 +1825,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="13"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1755,7 +1837,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1767,7 +1849,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1779,7 +1861,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="13"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1791,7 +1873,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1803,7 +1885,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="13"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1815,7 +1897,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="13"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1827,7 +1909,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1839,7 +1921,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1851,7 +1933,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="13"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1863,7 +1945,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="13"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1875,7 +1957,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1887,7 +1969,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="13"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1899,7 +1981,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="13"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1911,7 +1993,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -1923,7 +2005,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="13"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1935,7 +2017,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="13"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -1947,7 +2029,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -1959,7 +2041,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="13"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -1971,7 +2053,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="13"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1983,7 +2065,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -1995,7 +2077,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="13"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2007,7 +2089,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2019,7 +2101,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="13"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2031,7 +2113,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="13"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2043,7 +2125,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2055,7 +2137,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="13"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2067,7 +2149,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="13"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2079,7 +2161,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="13"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2091,7 +2173,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="13"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2103,7 +2185,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2115,7 +2197,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2127,7 +2209,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2139,7 +2221,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="13"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2151,7 +2233,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="13"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2163,7 +2245,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="13"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2175,7 +2257,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="13"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2187,7 +2269,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="13"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2199,7 +2281,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="13"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2211,7 +2293,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="13"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2223,7 +2305,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="13"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2235,7 +2317,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="13"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2247,7 +2329,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2259,7 +2341,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2271,7 +2353,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2283,7 +2365,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2295,7 +2377,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2307,7 +2389,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2319,7 +2401,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="13"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2331,7 +2413,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="13"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2343,7 +2425,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="13"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2355,7 +2437,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="13"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2367,7 +2449,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="13"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2379,7 +2461,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="13"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2391,7 +2473,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="13"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2403,7 +2485,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="13"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2415,7 +2497,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="13"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2427,7 +2509,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="13"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2439,7 +2521,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2451,7 +2533,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2463,7 +2545,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="13"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2475,7 +2557,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="13"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2487,7 +2569,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2499,7 +2581,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2511,7 +2593,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="13"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2523,7 +2605,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2535,7 +2617,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2547,7 +2629,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2559,7 +2641,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="13"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2571,7 +2653,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="13"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2583,7 +2665,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2595,7 +2677,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2607,7 +2689,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="13"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2619,7 +2701,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="13"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2631,7 +2713,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="13"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2643,7 +2725,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="13"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2655,7 +2737,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="13"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2667,7 +2749,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2679,7 +2761,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="13"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2691,7 +2773,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="13"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2703,7 +2785,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="13"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2715,7 +2797,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="13"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2727,7 +2809,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="13"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2739,7 +2821,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="13"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2751,7 +2833,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="13"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2763,7 +2845,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="13"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2775,7 +2857,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="13"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2787,7 +2869,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2799,7 +2881,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2811,7 +2893,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2823,7 +2905,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="13"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2835,7 +2917,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="13"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2847,7 +2929,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="13"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2859,7 +2941,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2871,7 +2953,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="13"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2883,7 +2965,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="13"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2895,7 +2977,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="13"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -2907,7 +2989,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="13"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -2919,7 +3001,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="13"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -2931,7 +3013,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="13"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -2943,7 +3025,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="13"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -2955,7 +3037,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="13"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -2967,7 +3049,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -2979,7 +3061,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -2991,31 +3073,31 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="3"/>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" s="13"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="2"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="3"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" s="13"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -3027,7 +3109,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -3039,7 +3121,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -3051,7 +3133,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -3063,7 +3145,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3075,7 +3157,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -3087,7 +3169,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -3099,7 +3181,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -3111,7 +3193,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3123,7 +3205,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -3135,7 +3217,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -3147,7 +3229,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3159,7 +3241,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -3171,7 +3253,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3183,7 +3265,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -3195,7 +3277,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -3207,7 +3289,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -3219,7 +3301,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -3231,7 +3313,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3243,7 +3325,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3255,7 +3337,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -3267,7 +3349,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3279,7 +3361,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -3291,7 +3373,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -3303,7 +3385,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -3315,7 +3397,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -3327,7 +3409,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -3339,7 +3421,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -3351,7 +3433,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -3363,7 +3445,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -3375,7 +3457,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -3387,7 +3469,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -3399,7 +3481,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -3411,7 +3493,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -3423,7 +3505,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -3435,7 +3517,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -3447,7 +3529,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -3459,7 +3541,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -3471,7 +3553,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -3483,7 +3565,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -3495,7 +3577,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -3507,7 +3589,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -3519,7 +3601,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -3531,7 +3613,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -3543,7 +3625,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -3555,7 +3637,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -3567,7 +3649,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -3579,7 +3661,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -3591,7 +3673,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -3603,7 +3685,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -3615,7 +3697,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -3627,7 +3709,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -3639,7 +3721,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -3651,7 +3733,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -3663,7 +3745,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -3675,7 +3757,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -3687,7 +3769,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -3699,7 +3781,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -3711,7 +3793,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -3723,7 +3805,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -3735,7 +3817,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -3747,7 +3829,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -3759,7 +3841,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -3771,7 +3853,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -3783,7 +3865,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -3795,7 +3877,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -3807,7 +3889,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -3819,7 +3901,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -3831,7 +3913,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -3843,7 +3925,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -3855,7 +3937,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -3867,7 +3949,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -3879,7 +3961,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -3891,7 +3973,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -3903,7 +3985,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="14"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -3915,7 +3997,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -3927,7 +4009,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -3939,7 +4021,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -3951,7 +4033,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -3963,7 +4045,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" s="14"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -3975,7 +4057,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="14"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -3987,7 +4069,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="14"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -3999,7 +4081,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -4011,7 +4093,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="14"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -4023,7 +4105,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="14"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -4035,7 +4117,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="14"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -4047,7 +4129,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="14"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -4059,7 +4141,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -4071,7 +4153,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="14"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -4083,7 +4165,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -4095,7 +4177,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="14"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -4107,7 +4189,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -4119,7 +4201,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="14"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -4131,7 +4213,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -4143,7 +4225,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -4155,7 +4237,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="14"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -4167,7 +4249,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -4179,7 +4261,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="14"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -4191,7 +4273,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="14"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -4203,7 +4285,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="14"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -4215,7 +4297,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="14"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -4227,7 +4309,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="14"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -4239,7 +4321,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="14"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -4251,7 +4333,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="14"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -4263,7 +4345,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="14"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -4275,7 +4357,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="14"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -4287,7 +4369,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="14"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -4299,7 +4381,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="14"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -4311,7 +4393,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -4323,7 +4405,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="14"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -4335,7 +4417,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -4347,7 +4429,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="14"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -4359,7 +4441,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="14"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -4371,7 +4453,7 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="14"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -4383,7 +4465,7 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="14"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -4395,7 +4477,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -4407,7 +4489,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -4419,7 +4501,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -4431,7 +4513,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -4443,7 +4525,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="14"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -4455,7 +4537,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="14"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -4467,7 +4549,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="14"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -4479,7 +4561,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="14"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -4491,7 +4573,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="14"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -4503,7 +4585,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="14"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -4515,7 +4597,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="14"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -4527,7 +4609,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -4539,7 +4621,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="14"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -4551,7 +4633,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -4563,7 +4645,7 @@
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="14"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -4575,7 +4657,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="14"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -4587,7 +4669,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="14"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -4599,7 +4681,7 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="14"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -4611,7 +4693,7 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="14"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -4623,7 +4705,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" s="14"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -4635,7 +4717,7 @@
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="14"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -4647,7 +4729,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="14"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -4659,7 +4741,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="14"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -4671,7 +4753,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="14"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -4683,7 +4765,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" s="14"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -4695,7 +4777,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="14"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -4707,7 +4789,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="14"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -4719,7 +4801,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="14"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -4731,7 +4813,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" s="14"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -4743,7 +4825,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="14"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -4755,7 +4837,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" s="14"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -4767,7 +4849,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" s="14"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -4779,7 +4861,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="14"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -4791,7 +4873,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="14"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -4803,7 +4885,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="14"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -4815,7 +4897,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" s="14"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -4827,7 +4909,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="14"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -4839,7 +4921,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="14"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -4851,7 +4933,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="14"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -4863,7 +4945,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="14"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -4875,7 +4957,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="14"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -4887,7 +4969,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="14"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -4899,7 +4981,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="14"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -4911,7 +4993,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="14"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -4923,7 +5005,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="14"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -4935,7 +5017,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="14"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -4947,7 +5029,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="14"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -4959,7 +5041,7 @@
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="14"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -4971,7 +5053,7 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="14"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -4983,7 +5065,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="14"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -4995,7 +5077,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="14"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -5007,7 +5089,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="14"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -5019,7 +5101,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="14"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -5031,7 +5113,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="14"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -5043,7 +5125,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="14"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -5055,7 +5137,7 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="14"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -5067,7 +5149,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="14"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -5079,7 +5161,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="14"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -5091,7 +5173,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="14"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -5103,7 +5185,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="14"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -5115,7 +5197,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="14"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -5127,7 +5209,7 @@
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="14"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -5139,7 +5221,7 @@
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="14"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -5151,7 +5233,7 @@
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="14"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -5163,7 +5245,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="14"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -5175,7 +5257,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="14"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -5187,7 +5269,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="14"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -5199,7 +5281,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="14"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -5211,7 +5293,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="14"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -5223,7 +5305,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="14"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -5235,7 +5317,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="14"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -5247,7 +5329,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="14"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -5259,7 +5341,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="14"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -5271,7 +5353,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="14"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -5283,7 +5365,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="14"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -5295,7 +5377,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="14"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -5307,7 +5389,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="14"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -5319,7 +5401,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="14"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -5331,7 +5413,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="14"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -5343,7 +5425,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" s="14"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -5355,7 +5437,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" s="14"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -5367,7 +5449,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" s="14"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -5379,7 +5461,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" s="14"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -5391,7 +5473,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" s="14"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -5403,7 +5485,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" s="14"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -5415,7 +5497,7 @@
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" s="14"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -5427,7 +5509,7 @@
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" s="14"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -5439,7 +5521,7 @@
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" s="14"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -5451,7 +5533,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="14"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -5463,7 +5545,7 @@
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" s="14"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -5475,7 +5557,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" s="14"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -5487,7 +5569,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" s="14"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -5499,7 +5581,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="14"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -5511,7 +5593,7 @@
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="14"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -5523,7 +5605,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="14"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -5535,7 +5617,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="14"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -5547,7 +5629,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="14"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -5559,7 +5641,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="14"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -5571,7 +5653,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="14"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -5583,7 +5665,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="14"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -5595,7 +5677,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="14"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -5607,7 +5689,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="14"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -5619,7 +5701,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="14"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -5631,7 +5713,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="14"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -5643,7 +5725,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="14"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -5655,7 +5737,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="14"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -5667,7 +5749,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="14"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -5679,7 +5761,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="14"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -5691,7 +5773,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="14"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -5703,7 +5785,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="14"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -5715,7 +5797,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="14"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -5727,7 +5809,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="14"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -5739,7 +5821,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="14"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -5751,7 +5833,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="14"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -5763,7 +5845,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="14"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -5775,7 +5857,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="14"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -5787,7 +5869,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="14"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -5799,7 +5881,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="14"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -5811,7 +5893,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="14"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -5823,7 +5905,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="14"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -5835,7 +5917,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="14"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -5847,7 +5929,7 @@
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="14"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -5859,7 +5941,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="14"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -5871,7 +5953,7 @@
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="14"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -5883,7 +5965,7 @@
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="14"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -5895,7 +5977,7 @@
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="14"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -5907,7 +5989,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="14"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -5919,7 +6001,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="14"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -5931,7 +6013,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="14"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -5943,7 +6025,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="14"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -5955,7 +6037,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="14"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -5967,7 +6049,7 @@
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="14"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -5979,7 +6061,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="14"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -5991,7 +6073,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="14"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -6003,7 +6085,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="14"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -6015,7 +6097,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="14"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -6027,7 +6109,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="14"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -6039,7 +6121,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="14"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -6051,7 +6133,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="14"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -6063,7 +6145,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="14"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -6075,7 +6157,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="14"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -6087,7 +6169,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="14"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -6099,7 +6181,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="14"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -6111,7 +6193,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="14"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -6123,7 +6205,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="14"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -6135,7 +6217,7 @@
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="14"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -6147,7 +6229,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="14"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -6159,7 +6241,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="14"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -6171,7 +6253,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="14"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -6183,7 +6265,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="14"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -6195,7 +6277,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="14"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -6207,7 +6289,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="14"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -6219,7 +6301,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="14"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -6231,7 +6313,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="14"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -6243,7 +6325,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="14"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -6255,7 +6337,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="14"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -6267,7 +6349,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="14"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -6279,7 +6361,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="14"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -6291,7 +6373,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="14"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -6303,7 +6385,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="14"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -6315,7 +6397,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="14"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -6327,7 +6409,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="14"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -6339,7 +6421,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="14"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -6351,7 +6433,7 @@
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="14"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -6363,7 +6445,7 @@
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="14"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -6375,7 +6457,7 @@
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="14"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -6387,7 +6469,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="14"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -6399,7 +6481,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="14"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -6411,7 +6493,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="14"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -6423,7 +6505,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="14"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -6435,7 +6517,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="14"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -6447,7 +6529,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="14"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -6459,7 +6541,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="14"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -6471,7 +6553,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="14"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -6483,7 +6565,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="14"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -6495,7 +6577,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="14"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -6507,7 +6589,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="14"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -6519,7 +6601,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" s="14"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -6531,7 +6613,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" s="14"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -6543,7 +6625,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" s="14"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -6555,7 +6637,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" s="14"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -6567,7 +6649,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" s="14"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -6579,7 +6661,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" s="14"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -6591,7 +6673,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" s="14"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -6603,7 +6685,7 @@
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" s="14"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -6615,7 +6697,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" s="14"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -6627,7 +6709,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" s="14"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -6639,7 +6721,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="14"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -6651,7 +6733,7 @@
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" s="14"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -6663,7 +6745,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" s="14"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -6675,7 +6757,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" s="14"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -6687,7 +6769,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" s="14"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -6699,7 +6781,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" s="14"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -6711,7 +6793,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" s="14"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -6723,7 +6805,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" s="14"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -6735,7 +6817,7 @@
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" s="14"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -6747,7 +6829,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" s="14"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -6759,7 +6841,7 @@
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" s="14"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -6771,7 +6853,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" s="14"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -6783,7 +6865,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" s="14"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -6795,7 +6877,7 @@
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" s="14"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -6807,7 +6889,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" s="14"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -6819,7 +6901,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" s="14"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -6831,7 +6913,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" s="14"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -6843,7 +6925,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" s="14"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -6855,7 +6937,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" s="14"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -6867,7 +6949,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" s="14"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -6879,7 +6961,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" s="14"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -6891,7 +6973,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" s="14"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -6903,7 +6985,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" s="14"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -6915,7 +6997,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" s="14"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -6927,7 +7009,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" s="14"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -6939,7 +7021,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" s="14"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -6951,7 +7033,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" s="14"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -6963,7 +7045,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="14"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -6975,7 +7057,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="14"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -6987,7 +7069,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" s="14"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -6999,7 +7081,7 @@
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" s="14"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -7011,7 +7093,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="14"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -7023,7 +7105,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="14"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -7035,7 +7117,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" s="14"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -7047,7 +7129,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" s="14"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -7059,7 +7141,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" s="14"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -7071,7 +7153,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" s="14"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -7083,7 +7165,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" s="14"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -7095,7 +7177,7 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" s="14"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -7107,7 +7189,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" s="14"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -7119,7 +7201,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" s="14"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -7131,7 +7213,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" s="14"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -7143,7 +7225,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" s="14"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -7155,7 +7237,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="14"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -7167,7 +7249,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="14"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -7179,7 +7261,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" s="14"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -7191,7 +7273,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" s="14"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -7203,7 +7285,7 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" s="14"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -7215,7 +7297,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" s="14"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -7227,7 +7309,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="14"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -7239,7 +7321,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" s="14"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -7251,7 +7333,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" s="14"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -7263,7 +7345,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" s="14"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -7275,7 +7357,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" s="14"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -7287,7 +7369,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" s="14"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -7299,7 +7381,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" s="14"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -7311,7 +7393,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="14"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -7323,7 +7405,7 @@
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="14"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -7335,7 +7417,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="14"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -7347,7 +7429,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="14"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -7359,7 +7441,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="14"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -7371,7 +7453,7 @@
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="14"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -7383,7 +7465,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="14"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -7395,7 +7477,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="14"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -7407,7 +7489,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="14"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -7419,7 +7501,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" s="14"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -7431,7 +7513,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" s="14"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -7443,7 +7525,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" s="14"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -7455,7 +7537,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" s="14"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -7467,7 +7549,7 @@
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" s="14"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -7479,7 +7561,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" s="14"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -7491,7 +7573,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" s="14"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -7503,7 +7585,7 @@
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" s="14"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -7515,7 +7597,7 @@
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" s="14"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -7527,7 +7609,7 @@
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" s="14"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -7539,7 +7621,7 @@
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" s="14"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -7551,7 +7633,7 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" s="14"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -7563,7 +7645,7 @@
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" s="14"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -7575,7 +7657,7 @@
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" s="14"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -7587,7 +7669,7 @@
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" s="14"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -7599,7 +7681,7 @@
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" s="14"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -7611,7 +7693,7 @@
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="14"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -7623,7 +7705,7 @@
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" s="14"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -7635,7 +7717,7 @@
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" s="14"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -7647,7 +7729,7 @@
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" s="14"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -7659,7 +7741,7 @@
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" s="14"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -7671,7 +7753,7 @@
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" s="14"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -7683,7 +7765,7 @@
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" s="14"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -7695,7 +7777,7 @@
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" s="14"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -7707,7 +7789,7 @@
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" s="14"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -7719,7 +7801,7 @@
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" s="14"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -7731,7 +7813,7 @@
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" s="14"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -7743,7 +7825,7 @@
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" s="14"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -7755,7 +7837,7 @@
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" s="14"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -7767,7 +7849,7 @@
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" s="14"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -7779,7 +7861,7 @@
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" s="14"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -7791,7 +7873,7 @@
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" s="14"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -7803,7 +7885,7 @@
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" s="14"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -7815,7 +7897,7 @@
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" s="14"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -7827,7 +7909,7 @@
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" s="14"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -7839,7 +7921,7 @@
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" s="14"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -7851,7 +7933,7 @@
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" s="14"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -7863,7 +7945,7 @@
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" s="14"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -7875,7 +7957,7 @@
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" s="14"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -7887,7 +7969,7 @@
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" s="14"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -7899,7 +7981,7 @@
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" s="14"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -7911,7 +7993,7 @@
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" s="14"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -7923,7 +8005,7 @@
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" s="14"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -7935,7 +8017,7 @@
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" s="14"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -7947,7 +8029,7 @@
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" s="14"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -7959,7 +8041,7 @@
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" s="14"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -7971,7 +8053,7 @@
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" s="14"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -7983,7 +8065,7 @@
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A592" s="14"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -7995,7 +8077,7 @@
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A593" s="14"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -8007,7 +8089,7 @@
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A594" s="14"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -8019,7 +8101,7 @@
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A595" s="14"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -8031,7 +8113,7 @@
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A596" s="14"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -8043,7 +8125,7 @@
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A597" s="14"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -8055,7 +8137,7 @@
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A598" s="14"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -8067,7 +8149,7 @@
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A599" s="14"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -8079,7 +8161,7 @@
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A600" s="14"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -8091,7 +8173,7 @@
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A601" s="14"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -8103,7 +8185,7 @@
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A602" s="14"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -8115,7 +8197,7 @@
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A603" s="14"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -8127,7 +8209,7 @@
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A604" s="14"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -8139,7 +8221,7 @@
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A605" s="14"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -8151,7 +8233,7 @@
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A606" s="14"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -8163,7 +8245,7 @@
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A607" s="14"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -8175,7 +8257,7 @@
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A608" s="14"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -8187,7 +8269,7 @@
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A609" s="14"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -8199,7 +8281,7 @@
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A610" s="14"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -8211,7 +8293,7 @@
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A611" s="14"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -8223,7 +8305,7 @@
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612" s="14"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -8235,7 +8317,7 @@
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A613" s="14"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -8247,7 +8329,7 @@
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A614" s="14"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -8259,7 +8341,7 @@
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A615" s="14"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -8271,7 +8353,7 @@
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A616" s="14"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -8283,7 +8365,7 @@
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A617" s="14"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -8295,7 +8377,7 @@
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A618" s="14"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -8307,7 +8389,7 @@
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A619" s="14"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -8319,7 +8401,7 @@
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A620" s="14"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -8331,7 +8413,7 @@
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A621" s="14"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -8343,7 +8425,7 @@
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A622" s="14"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -8355,7 +8437,7 @@
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A623" s="14"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -8367,7 +8449,7 @@
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A624" s="14"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -8379,7 +8461,7 @@
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" s="14"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -8391,7 +8473,7 @@
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" s="14"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -8403,7 +8485,7 @@
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" s="14"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -8415,7 +8497,7 @@
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" s="14"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -8427,7 +8509,7 @@
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" s="14"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -8439,7 +8521,7 @@
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" s="14"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -8451,7 +8533,7 @@
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" s="14"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -8463,7 +8545,7 @@
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" s="14"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -8475,7 +8557,7 @@
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" s="14"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -8487,7 +8569,7 @@
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" s="14"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -8499,7 +8581,7 @@
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" s="14"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -8511,7 +8593,7 @@
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" s="14"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -8523,7 +8605,7 @@
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" s="14"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -8535,7 +8617,7 @@
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" s="14"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -8547,7 +8629,7 @@
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" s="14"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -8559,7 +8641,7 @@
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" s="14"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -8571,7 +8653,7 @@
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A641" s="14"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -8583,7 +8665,7 @@
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A642" s="14"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -8595,7 +8677,7 @@
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A643" s="14"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -8607,7 +8689,7 @@
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A644" s="14"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -8619,7 +8701,7 @@
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A645" s="14"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -8631,7 +8713,7 @@
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A646" s="14"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -8643,7 +8725,7 @@
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A647" s="14"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -8655,7 +8737,7 @@
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A648" s="14"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -8667,7 +8749,7 @@
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A649" s="14"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -8679,7 +8761,7 @@
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A650" s="14"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -8691,7 +8773,7 @@
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A651" s="14"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -8703,7 +8785,7 @@
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A652" s="14"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -8715,7 +8797,7 @@
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A653" s="14"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -8727,7 +8809,7 @@
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A654" s="14"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -8739,7 +8821,7 @@
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A655" s="14"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -8751,7 +8833,7 @@
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A656" s="14"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -8763,7 +8845,7 @@
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A657" s="14"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -8775,7 +8857,7 @@
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A658" s="14"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -8787,7 +8869,7 @@
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A659" s="14"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -8799,7 +8881,7 @@
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A660" s="14"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -8811,7 +8893,7 @@
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A661" s="14"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -8823,7 +8905,7 @@
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A662" s="14"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -8835,7 +8917,7 @@
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A663" s="14"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -8847,7 +8929,7 @@
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A664" s="14"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -8859,7 +8941,7 @@
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A665" s="14"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -8871,7 +8953,7 @@
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A666" s="14"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -8883,7 +8965,7 @@
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A667" s="14"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -8895,7 +8977,7 @@
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A668" s="14"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -8907,7 +8989,7 @@
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A669" s="14"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -8919,7 +9001,7 @@
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A670" s="14"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -8931,7 +9013,7 @@
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A671" s="14"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -8943,7 +9025,7 @@
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A672" s="14"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -8955,7 +9037,7 @@
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A673" s="14"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -8967,7 +9049,7 @@
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A674" s="14"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -8979,7 +9061,7 @@
       <c r="I674" s="3"/>
       <c r="J674" s="3"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A675" s="14"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -8991,7 +9073,7 @@
       <c r="I675" s="3"/>
       <c r="J675" s="3"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A676" s="14"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -9003,7 +9085,7 @@
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A677" s="14"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -9015,7 +9097,7 @@
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A678" s="14"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -9027,7 +9109,7 @@
       <c r="I678" s="3"/>
       <c r="J678" s="3"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A679" s="14"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -9039,7 +9121,7 @@
       <c r="I679" s="3"/>
       <c r="J679" s="3"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A680" s="14"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -9051,7 +9133,7 @@
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A681" s="14"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -9063,7 +9145,7 @@
       <c r="I681" s="3"/>
       <c r="J681" s="3"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A682" s="14"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -9075,7 +9157,7 @@
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A683" s="14"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -9087,7 +9169,7 @@
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A684" s="14"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -9099,7 +9181,7 @@
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A685" s="14"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -9111,7 +9193,7 @@
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A686" s="14"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -9123,7 +9205,7 @@
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A687" s="14"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -9135,7 +9217,7 @@
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A688" s="14"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -9147,7 +9229,7 @@
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A689" s="14"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -9159,7 +9241,7 @@
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A690" s="14"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -9171,7 +9253,7 @@
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A691" s="14"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -9183,7 +9265,7 @@
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A692" s="14"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -9195,7 +9277,7 @@
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A693" s="14"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -9207,7 +9289,7 @@
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A694" s="14"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -9219,7 +9301,7 @@
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A695" s="14"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -9231,7 +9313,7 @@
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A696" s="14"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -9243,7 +9325,7 @@
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A697" s="14"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -9255,7 +9337,7 @@
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A698" s="14"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -9267,7 +9349,7 @@
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A699" s="14"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -9279,7 +9361,7 @@
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A700" s="14"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -9291,7 +9373,7 @@
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A701" s="14"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -9303,7 +9385,7 @@
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A702" s="14"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -9315,7 +9397,7 @@
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A703" s="14"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -9327,7 +9409,7 @@
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A704" s="14"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -9339,7 +9421,7 @@
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A705" s="14"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -9351,7 +9433,7 @@
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A706" s="14"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -9363,7 +9445,7 @@
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A707" s="14"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -9375,7 +9457,7 @@
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A708" s="14"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -9387,7 +9469,7 @@
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A709" s="14"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -9399,7 +9481,7 @@
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A710" s="14"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -9411,7 +9493,7 @@
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A711" s="14"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -9423,7 +9505,7 @@
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A712" s="14"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -9435,7 +9517,7 @@
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A713" s="14"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -9447,7 +9529,7 @@
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A714" s="14"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -9459,7 +9541,7 @@
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A715" s="14"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -9471,7 +9553,7 @@
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A716" s="14"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -9483,7 +9565,7 @@
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A717" s="14"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -9495,7 +9577,7 @@
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A718" s="14"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -9507,7 +9589,7 @@
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A719" s="14"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -9519,7 +9601,7 @@
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A720" s="14"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -9531,7 +9613,7 @@
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A721" s="14"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -9543,7 +9625,7 @@
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A722" s="14"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -9555,7 +9637,7 @@
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A723" s="14"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -9567,7 +9649,7 @@
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A724" s="14"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -9579,7 +9661,7 @@
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A725" s="14"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -9591,7 +9673,7 @@
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A726" s="14"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -9603,7 +9685,7 @@
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A727" s="14"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -9615,7 +9697,7 @@
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A728" s="14"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -9627,7 +9709,7 @@
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A729" s="14"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -9639,7 +9721,7 @@
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A730" s="14"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -9651,7 +9733,7 @@
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A731" s="14"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -9663,7 +9745,7 @@
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A732" s="14"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -9675,7 +9757,7 @@
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A733" s="14"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -9687,7 +9769,7 @@
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A734" s="14"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -9699,7 +9781,7 @@
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A735" s="14"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -9711,7 +9793,7 @@
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A736" s="14"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -9723,7 +9805,7 @@
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A737" s="14"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -9735,7 +9817,7 @@
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A738" s="14"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -9747,7 +9829,7 @@
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A739" s="14"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -9759,7 +9841,7 @@
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A740" s="14"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -9771,7 +9853,7 @@
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A741" s="14"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -9783,7 +9865,7 @@
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A742" s="14"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -9795,7 +9877,7 @@
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A743" s="14"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -9807,7 +9889,7 @@
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A744" s="14"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -9819,7 +9901,7 @@
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A745" s="14"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -9831,7 +9913,7 @@
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A746" s="14"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -9843,7 +9925,7 @@
       <c r="I746" s="3"/>
       <c r="J746" s="3"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A747" s="14"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -9855,7 +9937,7 @@
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A748" s="14"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -9867,7 +9949,7 @@
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A749" s="14"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -9879,7 +9961,7 @@
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A750" s="14"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -9891,7 +9973,7 @@
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A751" s="14"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -9903,7 +9985,7 @@
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A752" s="14"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -9915,7 +9997,7 @@
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A753" s="14"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -9927,7 +10009,7 @@
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A754" s="14"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -9939,7 +10021,7 @@
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A755" s="14"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -9951,7 +10033,7 @@
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A756" s="14"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -9963,7 +10045,7 @@
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A757" s="14"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -9975,7 +10057,7 @@
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A758" s="14"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -9987,7 +10069,7 @@
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A759" s="14"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -9999,7 +10081,7 @@
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A760" s="14"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -10011,7 +10093,7 @@
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A761" s="14"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -10023,7 +10105,7 @@
       <c r="I761" s="3"/>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A762" s="14"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -10035,7 +10117,7 @@
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A763" s="14"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -10047,7 +10129,7 @@
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A764" s="14"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -10059,7 +10141,7 @@
       <c r="I764" s="3"/>
       <c r="J764" s="3"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A765" s="14"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -10071,7 +10153,7 @@
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A766" s="14"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -10083,7 +10165,7 @@
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A767" s="14"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -10095,7 +10177,7 @@
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A768" s="14"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -10107,7 +10189,7 @@
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A769" s="14"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -10119,7 +10201,7 @@
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A770" s="14"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -10131,7 +10213,7 @@
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A771" s="14"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -10143,7 +10225,7 @@
       <c r="I771" s="3"/>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A772" s="14"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -10155,7 +10237,7 @@
       <c r="I772" s="3"/>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A773" s="14"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -10167,7 +10249,7 @@
       <c r="I773" s="3"/>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A774" s="14"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -10179,7 +10261,7 @@
       <c r="I774" s="3"/>
       <c r="J774" s="3"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A775" s="14"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -10191,7 +10273,7 @@
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A776" s="14"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -10203,7 +10285,7 @@
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A777" s="14"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -10215,7 +10297,7 @@
       <c r="I777" s="3"/>
       <c r="J777" s="3"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A778" s="14"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -10227,7 +10309,7 @@
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A779" s="14"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -10239,7 +10321,7 @@
       <c r="I779" s="3"/>
       <c r="J779" s="3"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A780" s="14"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -10251,7 +10333,7 @@
       <c r="I780" s="3"/>
       <c r="J780" s="3"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A781" s="14"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -10263,7 +10345,7 @@
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A782" s="14"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -10275,7 +10357,7 @@
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A783" s="14"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -10287,7 +10369,7 @@
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A784" s="14"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -10299,7 +10381,7 @@
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A785" s="14"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -10311,7 +10393,7 @@
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A786" s="14"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -10323,7 +10405,7 @@
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A787" s="14"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -10335,7 +10417,7 @@
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A788" s="14"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -10347,7 +10429,7 @@
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A789" s="14"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -10359,7 +10441,7 @@
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A790" s="14"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -10371,7 +10453,7 @@
       <c r="I790" s="3"/>
       <c r="J790" s="3"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A791" s="14"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -10383,7 +10465,7 @@
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A792" s="14"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -10395,7 +10477,7 @@
       <c r="I792" s="3"/>
       <c r="J792" s="3"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A793" s="14"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -10407,7 +10489,7 @@
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A794" s="14"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -10419,7 +10501,7 @@
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A795" s="14"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -10431,7 +10513,7 @@
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A796" s="14"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -10443,7 +10525,7 @@
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A797" s="14"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -10455,7 +10537,7 @@
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A798" s="14"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -10467,7 +10549,7 @@
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A799" s="14"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -10479,7 +10561,7 @@
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A800" s="14"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -10491,7 +10573,7 @@
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A801" s="14"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -10503,7 +10585,7 @@
       <c r="I801" s="3"/>
       <c r="J801" s="3"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A802" s="14"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -10515,7 +10597,7 @@
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A803" s="14"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -10527,7 +10609,7 @@
       <c r="I803" s="3"/>
       <c r="J803" s="3"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A804" s="14"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -10539,7 +10621,7 @@
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A805" s="14"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -10551,7 +10633,7 @@
       <c r="I805" s="3"/>
       <c r="J805" s="3"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A806" s="14"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -10563,7 +10645,7 @@
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A807" s="14"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -10575,7 +10657,7 @@
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A808" s="14"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -10587,7 +10669,7 @@
       <c r="I808" s="3"/>
       <c r="J808" s="3"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A809" s="14"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -10599,7 +10681,7 @@
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A810" s="14"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -10611,7 +10693,7 @@
       <c r="I810" s="3"/>
       <c r="J810" s="3"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A811" s="14"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -10623,7 +10705,7 @@
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A812" s="14"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -10635,7 +10717,7 @@
       <c r="I812" s="3"/>
       <c r="J812" s="3"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A813" s="14"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -10647,7 +10729,7 @@
       <c r="I813" s="3"/>
       <c r="J813" s="3"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A814" s="14"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -10659,7 +10741,7 @@
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A815" s="14"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -10671,7 +10753,7 @@
       <c r="I815" s="3"/>
       <c r="J815" s="3"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A816" s="14"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -10683,7 +10765,7 @@
       <c r="I816" s="3"/>
       <c r="J816" s="3"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A817" s="14"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -10695,7 +10777,7 @@
       <c r="I817" s="3"/>
       <c r="J817" s="3"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A818" s="14"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -10707,7 +10789,7 @@
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A819" s="14"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -10719,7 +10801,7 @@
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A820" s="14"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -10731,7 +10813,7 @@
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A821" s="14"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -10743,7 +10825,7 @@
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A822" s="14"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -10755,7 +10837,7 @@
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A823" s="14"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -10767,7 +10849,7 @@
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A824" s="14"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -10779,7 +10861,7 @@
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A825" s="14"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -10791,7 +10873,7 @@
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A826" s="14"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -10803,7 +10885,7 @@
       <c r="I826" s="3"/>
       <c r="J826" s="3"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A827" s="14"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -10815,7 +10897,7 @@
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A828" s="14"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -10827,7 +10909,7 @@
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A829" s="14"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -10839,7 +10921,7 @@
       <c r="I829" s="3"/>
       <c r="J829" s="3"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A830" s="14"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -10851,7 +10933,7 @@
       <c r="I830" s="3"/>
       <c r="J830" s="3"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A831" s="14"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -10863,7 +10945,7 @@
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A832" s="14"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -10875,7 +10957,7 @@
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A833" s="14"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -10887,7 +10969,7 @@
       <c r="I833" s="3"/>
       <c r="J833" s="3"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A834" s="14"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -10899,7 +10981,7 @@
       <c r="I834" s="3"/>
       <c r="J834" s="3"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A835" s="14"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -10911,7 +10993,7 @@
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A836" s="14"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -10923,7 +11005,7 @@
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A837" s="14"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -10935,7 +11017,7 @@
       <c r="I837" s="3"/>
       <c r="J837" s="3"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A838" s="14"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -10947,7 +11029,7 @@
       <c r="I838" s="3"/>
       <c r="J838" s="3"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A839" s="14"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -10959,7 +11041,7 @@
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A840" s="14"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -10971,7 +11053,7 @@
       <c r="I840" s="3"/>
       <c r="J840" s="3"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A841" s="14"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -10983,7 +11065,7 @@
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A842" s="14"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -10995,7 +11077,7 @@
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A843" s="14"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -11007,7 +11089,7 @@
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A844" s="14"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -11019,7 +11101,7 @@
       <c r="I844" s="3"/>
       <c r="J844" s="3"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A845" s="14"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -11031,7 +11113,7 @@
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A846" s="14"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -11043,7 +11125,7 @@
       <c r="I846" s="3"/>
       <c r="J846" s="3"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A847" s="14"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -11055,7 +11137,7 @@
       <c r="I847" s="3"/>
       <c r="J847" s="3"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A848" s="14"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -11067,7 +11149,7 @@
       <c r="I848" s="3"/>
       <c r="J848" s="3"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A849" s="14"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -11079,7 +11161,7 @@
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A850" s="14"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -11091,7 +11173,7 @@
       <c r="I850" s="3"/>
       <c r="J850" s="3"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A851" s="14"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -11103,7 +11185,7 @@
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A852" s="14"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -11115,7 +11197,7 @@
       <c r="I852" s="3"/>
       <c r="J852" s="3"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A853" s="14"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -11127,7 +11209,7 @@
       <c r="I853" s="3"/>
       <c r="J853" s="3"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A854" s="14"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -11139,7 +11221,7 @@
       <c r="I854" s="3"/>
       <c r="J854" s="3"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A855" s="14"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -11151,7 +11233,7 @@
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A856" s="14"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -11163,7 +11245,7 @@
       <c r="I856" s="3"/>
       <c r="J856" s="3"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A857" s="14"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -11175,7 +11257,7 @@
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A858" s="14"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -11187,7 +11269,7 @@
       <c r="I858" s="3"/>
       <c r="J858" s="3"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A859" s="14"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -11199,7 +11281,7 @@
       <c r="I859" s="3"/>
       <c r="J859" s="3"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A860" s="14"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -11211,7 +11293,7 @@
       <c r="I860" s="3"/>
       <c r="J860" s="3"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A861" s="14"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -11223,7 +11305,7 @@
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A862" s="14"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -11235,7 +11317,7 @@
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A863" s="14"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -11247,7 +11329,7 @@
       <c r="I863" s="3"/>
       <c r="J863" s="3"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A864" s="14"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -11259,7 +11341,7 @@
       <c r="I864" s="3"/>
       <c r="J864" s="3"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A865" s="14"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -11271,7 +11353,7 @@
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A866" s="14"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -11283,7 +11365,7 @@
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A867" s="14"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -11295,7 +11377,7 @@
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A868" s="14"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -11307,7 +11389,7 @@
       <c r="I868" s="3"/>
       <c r="J868" s="3"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A869" s="14"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -11319,7 +11401,7 @@
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A870" s="14"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -11331,7 +11413,7 @@
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A871" s="14"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -11343,7 +11425,7 @@
       <c r="I871" s="3"/>
       <c r="J871" s="3"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A872" s="14"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -11355,7 +11437,7 @@
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A873" s="14"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -11367,7 +11449,7 @@
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A874" s="14"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -11379,7 +11461,7 @@
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A875" s="14"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -11391,7 +11473,7 @@
       <c r="I875" s="3"/>
       <c r="J875" s="3"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A876" s="14"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -11403,7 +11485,7 @@
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A877" s="14"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -11415,7 +11497,7 @@
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A878" s="14"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -11427,7 +11509,7 @@
       <c r="I878" s="3"/>
       <c r="J878" s="3"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A879" s="14"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -11439,7 +11521,7 @@
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A880" s="14"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -11451,7 +11533,7 @@
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A881" s="14"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -11463,7 +11545,7 @@
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A882" s="14"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -11475,7 +11557,7 @@
       <c r="I882" s="3"/>
       <c r="J882" s="3"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A883" s="14"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -11487,7 +11569,7 @@
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A884" s="14"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -11499,7 +11581,7 @@
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A885" s="14"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -11511,7 +11593,7 @@
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A886" s="14"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -11523,7 +11605,7 @@
       <c r="I886" s="3"/>
       <c r="J886" s="3"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A887" s="14"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -11535,7 +11617,7 @@
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A888" s="14"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -11547,7 +11629,7 @@
       <c r="I888" s="3"/>
       <c r="J888" s="3"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A889" s="14"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -11559,7 +11641,7 @@
       <c r="I889" s="3"/>
       <c r="J889" s="3"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A890" s="14"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -11571,7 +11653,7 @@
       <c r="I890" s="3"/>
       <c r="J890" s="3"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A891" s="14"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -11583,7 +11665,7 @@
       <c r="I891" s="3"/>
       <c r="J891" s="3"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A892" s="14"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -11595,7 +11677,7 @@
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A893" s="14"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -11607,7 +11689,7 @@
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A894" s="14"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -11619,7 +11701,7 @@
       <c r="I894" s="3"/>
       <c r="J894" s="3"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A895" s="14"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -11631,7 +11713,7 @@
       <c r="I895" s="3"/>
       <c r="J895" s="3"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A896" s="14"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -11643,7 +11725,7 @@
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A897" s="14"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -11655,7 +11737,7 @@
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A898" s="14"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -11667,7 +11749,7 @@
       <c r="I898" s="3"/>
       <c r="J898" s="3"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A899" s="14"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -11679,7 +11761,7 @@
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A900" s="14"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -11691,7 +11773,7 @@
       <c r="I900" s="3"/>
       <c r="J900" s="3"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A901" s="14"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -11703,7 +11785,7 @@
       <c r="I901" s="3"/>
       <c r="J901" s="3"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A902" s="14"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -11715,7 +11797,7 @@
       <c r="I902" s="3"/>
       <c r="J902" s="3"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A903" s="14"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -11727,7 +11809,7 @@
       <c r="I903" s="3"/>
       <c r="J903" s="3"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A904" s="14"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -11739,7 +11821,7 @@
       <c r="I904" s="3"/>
       <c r="J904" s="3"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A905" s="14"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -11751,7 +11833,7 @@
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A906" s="14"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -11763,7 +11845,7 @@
       <c r="I906" s="3"/>
       <c r="J906" s="3"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A907" s="14"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -11775,7 +11857,7 @@
       <c r="I907" s="3"/>
       <c r="J907" s="3"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A908" s="14"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -11787,7 +11869,7 @@
       <c r="I908" s="3"/>
       <c r="J908" s="3"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A909" s="14"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -11799,7 +11881,7 @@
       <c r="I909" s="3"/>
       <c r="J909" s="3"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A910" s="14"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -11811,7 +11893,7 @@
       <c r="I910" s="3"/>
       <c r="J910" s="3"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A911" s="14"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -11823,7 +11905,7 @@
       <c r="I911" s="3"/>
       <c r="J911" s="3"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A912" s="14"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -11835,7 +11917,7 @@
       <c r="I912" s="3"/>
       <c r="J912" s="3"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A913" s="14"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -11847,7 +11929,7 @@
       <c r="I913" s="3"/>
       <c r="J913" s="3"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A914" s="14"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -11859,7 +11941,7 @@
       <c r="I914" s="3"/>
       <c r="J914" s="3"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A915" s="14"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -11871,7 +11953,7 @@
       <c r="I915" s="3"/>
       <c r="J915" s="3"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A916" s="14"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -11883,7 +11965,7 @@
       <c r="I916" s="3"/>
       <c r="J916" s="3"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A917" s="14"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -11895,7 +11977,7 @@
       <c r="I917" s="3"/>
       <c r="J917" s="3"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A918" s="14"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -11907,7 +11989,7 @@
       <c r="I918" s="3"/>
       <c r="J918" s="3"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A919" s="14"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -11919,7 +12001,7 @@
       <c r="I919" s="3"/>
       <c r="J919" s="3"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A920" s="14"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -11931,7 +12013,7 @@
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A921" s="14"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -11943,7 +12025,7 @@
       <c r="I921" s="3"/>
       <c r="J921" s="3"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A922" s="14"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -11955,7 +12037,7 @@
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A923" s="14"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -11967,7 +12049,7 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A924" s="14"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -11979,7 +12061,7 @@
       <c r="I924" s="3"/>
       <c r="J924" s="3"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A925" s="14"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -11991,7 +12073,7 @@
       <c r="I925" s="3"/>
       <c r="J925" s="3"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A926" s="14"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -12003,7 +12085,7 @@
       <c r="I926" s="3"/>
       <c r="J926" s="3"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A927" s="14"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -12015,7 +12097,7 @@
       <c r="I927" s="3"/>
       <c r="J927" s="3"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A928" s="14"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -12027,7 +12109,7 @@
       <c r="I928" s="3"/>
       <c r="J928" s="3"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A929" s="14"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -12039,7 +12121,7 @@
       <c r="I929" s="3"/>
       <c r="J929" s="3"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A930" s="14"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -12051,7 +12133,7 @@
       <c r="I930" s="3"/>
       <c r="J930" s="3"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A931" s="14"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -12063,7 +12145,7 @@
       <c r="I931" s="3"/>
       <c r="J931" s="3"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A932" s="14"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -12075,7 +12157,7 @@
       <c r="I932" s="3"/>
       <c r="J932" s="3"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A933" s="14"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -12087,7 +12169,7 @@
       <c r="I933" s="3"/>
       <c r="J933" s="3"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A934" s="14"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -12099,7 +12181,7 @@
       <c r="I934" s="3"/>
       <c r="J934" s="3"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A935" s="14"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -12111,7 +12193,7 @@
       <c r="I935" s="3"/>
       <c r="J935" s="3"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A936" s="14"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -12123,7 +12205,7 @@
       <c r="I936" s="3"/>
       <c r="J936" s="3"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A937" s="14"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -12135,7 +12217,7 @@
       <c r="I937" s="3"/>
       <c r="J937" s="3"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A938" s="14"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -12147,7 +12229,7 @@
       <c r="I938" s="3"/>
       <c r="J938" s="3"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A939" s="14"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -12159,7 +12241,7 @@
       <c r="I939" s="3"/>
       <c r="J939" s="3"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A940" s="14"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -12171,7 +12253,7 @@
       <c r="I940" s="3"/>
       <c r="J940" s="3"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A941" s="14"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -12183,7 +12265,7 @@
       <c r="I941" s="3"/>
       <c r="J941" s="3"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A942" s="14"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -12195,7 +12277,7 @@
       <c r="I942" s="3"/>
       <c r="J942" s="3"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A943" s="14"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -12207,7 +12289,7 @@
       <c r="I943" s="3"/>
       <c r="J943" s="3"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A944" s="14"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -12219,7 +12301,7 @@
       <c r="I944" s="3"/>
       <c r="J944" s="3"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A945" s="14"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -12231,7 +12313,7 @@
       <c r="I945" s="3"/>
       <c r="J945" s="3"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A946" s="14"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -12243,7 +12325,7 @@
       <c r="I946" s="3"/>
       <c r="J946" s="3"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A947" s="14"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -12255,7 +12337,7 @@
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A948" s="14"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -12267,7 +12349,7 @@
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A949" s="14"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -12279,7 +12361,7 @@
       <c r="I949" s="3"/>
       <c r="J949" s="3"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A950" s="14"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -12291,7 +12373,7 @@
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A951" s="14"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -12303,7 +12385,7 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A952" s="14"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -12315,7 +12397,7 @@
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A953" s="14"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -12327,7 +12409,7 @@
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A954" s="14"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -12339,6 +12421,30 @@
       <c r="I954" s="3"/>
       <c r="J954" s="3"/>
     </row>
+    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A955" s="14"/>
+      <c r="B955" s="9"/>
+      <c r="C955" s="9"/>
+      <c r="D955" s="5"/>
+      <c r="E955" s="5"/>
+      <c r="F955" s="3"/>
+      <c r="G955" s="5"/>
+      <c r="H955" s="5"/>
+      <c r="I955" s="3"/>
+      <c r="J955" s="3"/>
+    </row>
+    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A956" s="14"/>
+      <c r="B956" s="9"/>
+      <c r="C956" s="9"/>
+      <c r="D956" s="5"/>
+      <c r="E956" s="5"/>
+      <c r="F956" s="3"/>
+      <c r="G956" s="5"/>
+      <c r="H956" s="5"/>
+      <c r="I956" s="3"/>
+      <c r="J956" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E2D262-2C65-449F-A980-EFB0056532BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9D6F9-7821-44ED-ADD2-2D8B29A8D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,10 +224,10 @@
     <t>Novartis &amp; Posit</t>
   </si>
   <si>
-    <t>BBS Next Gen fastR course.pdf</t>
+    <t>Go fastRfastR – how to make R code how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
   </si>
   <si>
-    <t>Go fastRfastR – how to make R code how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
+    <t>BBS Next Gen fastR course.pdf</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -339,6 +339,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,9 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,11 +801,12 @@
         <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="str">

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9D6F9-7821-44ED-ADD2-2D8B29A8D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDA0F7-249E-4010-BA0D-766CB784DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Novartis</t>
-  </si>
-  <si>
-    <t>Do you speak statistics - BBS Next Gen 2023-12-06.pdf</t>
   </si>
   <si>
     <t>Lukas A. Widmer, Michael Mayer</t>
@@ -705,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,9 +773,7 @@
       <c r="I2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="str">
@@ -795,16 +790,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="K3" s="18"/>
     </row>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDA0F7-249E-4010-BA0D-766CB784DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>date</t>
   </si>
@@ -223,14 +222,11 @@
   <si>
     <t>Go fastRfastR – how to make R code how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
   </si>
-  <si>
-    <t>BBS Next Gen fastR course.pdf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
@@ -697,28 +693,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="35.26953125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="40.81640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="38.54296875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="35.81640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="14.453125" style="10"/>
+    <col min="1" max="1" width="13.7109375" style="12" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="40.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="118.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -750,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>"06.12.2023"</f>
         <v>06.12.2023</v>
@@ -775,7 +771,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>"06.12.2023"</f>
         <v>06.12.2023</v>
@@ -799,11 +795,11 @@
         <v>62</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
@@ -829,7 +825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
@@ -855,7 +851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
@@ -881,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
@@ -912,7 +908,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
@@ -939,7 +935,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -970,7 +966,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f t="shared" ref="A10:A12" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -997,7 +993,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -1024,7 +1020,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -1051,7 +1047,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1078,7 +1074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1103,7 +1099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1128,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="str">
         <f>"19.08.2019"</f>
         <v>19.08.2019</v>
@@ -1149,7 +1145,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="str">
         <f>"01.03.2018"</f>
         <v>01.03.2018</v>
@@ -1170,7 +1166,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
@@ -1189,7 +1185,7 @@
       <c r="I18" s="6"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1201,7 +1197,7 @@
       <c r="I19" s="6"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1213,7 +1209,7 @@
       <c r="I20" s="6"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1225,7 +1221,7 @@
       <c r="I21" s="6"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1237,7 +1233,7 @@
       <c r="I22" s="6"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1249,7 +1245,7 @@
       <c r="I23" s="6"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1261,7 +1257,7 @@
       <c r="I24" s="6"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1273,7 +1269,7 @@
       <c r="I25" s="6"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1285,7 +1281,7 @@
       <c r="I26" s="6"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1297,7 +1293,7 @@
       <c r="I27" s="6"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1308,7 +1304,7 @@
       <c r="H28" s="6"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1320,7 +1316,7 @@
       <c r="I29" s="6"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1332,7 +1328,7 @@
       <c r="I30" s="6"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1344,7 +1340,7 @@
       <c r="I31" s="16"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1356,7 +1352,7 @@
       <c r="I32" s="16"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1368,7 +1364,7 @@
       <c r="I33" s="6"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1380,7 +1376,7 @@
       <c r="I34" s="6"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1392,7 +1388,7 @@
       <c r="I35" s="16"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1404,7 +1400,7 @@
       <c r="I36" s="16"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1416,7 +1412,7 @@
       <c r="I37" s="6"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1428,7 +1424,7 @@
       <c r="I38" s="4"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1440,7 +1436,7 @@
       <c r="I39" s="4"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1452,7 +1448,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1464,7 +1460,7 @@
       <c r="I41" s="1"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1476,7 +1472,7 @@
       <c r="I42" s="1"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1488,7 +1484,7 @@
       <c r="I43" s="1"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1500,7 +1496,7 @@
       <c r="I44" s="1"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1512,7 +1508,7 @@
       <c r="I45" s="1"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1524,7 +1520,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1536,7 +1532,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1548,7 +1544,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1560,7 +1556,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1572,7 +1568,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1584,7 +1580,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1596,7 +1592,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1608,7 +1604,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1620,7 +1616,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1632,7 +1628,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1644,7 +1640,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1656,7 +1652,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1668,7 +1664,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1680,7 +1676,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1692,7 +1688,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1704,7 +1700,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1716,7 +1712,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1728,7 +1724,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1740,7 +1736,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1752,7 +1748,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1764,7 +1760,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1776,7 +1772,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1788,7 +1784,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1800,7 +1796,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1812,7 +1808,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1824,7 +1820,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1836,7 +1832,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1848,7 +1844,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1860,7 +1856,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1872,7 +1868,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1884,7 +1880,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1896,7 +1892,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1908,7 +1904,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1920,7 +1916,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1932,7 +1928,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1944,7 +1940,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1956,7 +1952,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1968,7 +1964,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1980,7 +1976,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1992,7 +1988,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2004,7 +2000,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2016,7 +2012,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2028,7 +2024,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2040,7 +2036,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2052,7 +2048,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2064,7 +2060,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2076,7 +2072,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2088,7 +2084,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2100,7 +2096,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2112,7 +2108,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2124,7 +2120,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2136,7 +2132,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2148,7 +2144,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2160,7 +2156,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2172,7 +2168,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2184,7 +2180,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2196,7 +2192,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2208,7 +2204,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2220,7 +2216,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2232,7 +2228,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2244,7 +2240,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2256,7 +2252,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2268,7 +2264,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2280,7 +2276,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2292,7 +2288,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2304,7 +2300,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2316,7 +2312,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2328,7 +2324,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2340,7 +2336,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2352,7 +2348,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2364,7 +2360,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2376,7 +2372,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2388,7 +2384,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2400,7 +2396,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2412,7 +2408,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2424,7 +2420,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2436,7 +2432,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2448,7 +2444,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2460,7 +2456,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2472,7 +2468,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2484,7 +2480,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2496,7 +2492,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2508,7 +2504,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2520,7 +2516,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2532,7 +2528,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2544,7 +2540,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2556,7 +2552,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2568,7 +2564,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2580,7 +2576,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2592,7 +2588,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2604,7 +2600,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2616,7 +2612,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2628,7 +2624,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2640,7 +2636,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2652,7 +2648,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2664,7 +2660,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2676,7 +2672,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2688,7 +2684,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2700,7 +2696,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2712,7 +2708,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2724,7 +2720,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2736,7 +2732,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2748,7 +2744,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2760,7 +2756,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2772,7 +2768,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2784,7 +2780,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2796,7 +2792,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2808,7 +2804,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2820,7 +2816,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2832,7 +2828,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2844,7 +2840,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2856,7 +2852,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2868,7 +2864,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2880,7 +2876,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2892,7 +2888,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2904,7 +2900,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2916,7 +2912,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2928,7 +2924,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2940,7 +2936,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2952,7 +2948,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2964,7 +2960,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2976,7 +2972,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -2988,7 +2984,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -3000,7 +2996,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -3012,7 +3008,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3024,7 +3020,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -3036,7 +3032,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -3048,7 +3044,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -3060,7 +3056,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -3072,7 +3068,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -3084,7 +3080,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -3096,7 +3092,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -3108,7 +3104,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -3120,7 +3116,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -3132,7 +3128,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -3144,7 +3140,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3156,7 +3152,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -3168,7 +3164,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -3180,7 +3176,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -3192,7 +3188,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3204,7 +3200,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -3216,7 +3212,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -3228,7 +3224,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3240,7 +3236,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -3252,7 +3248,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3264,7 +3260,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -3276,7 +3272,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -3288,7 +3284,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -3300,7 +3296,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -3312,7 +3308,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3324,7 +3320,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3336,7 +3332,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -3348,7 +3344,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3360,7 +3356,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -3372,7 +3368,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -3384,7 +3380,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -3396,7 +3392,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -3408,7 +3404,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -3420,7 +3416,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -3432,7 +3428,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -3444,7 +3440,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -3456,7 +3452,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -3468,7 +3464,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -3480,7 +3476,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -3492,7 +3488,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -3504,7 +3500,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -3516,7 +3512,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -3528,7 +3524,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -3540,7 +3536,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -3552,7 +3548,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -3564,7 +3560,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -3576,7 +3572,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -3588,7 +3584,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -3600,7 +3596,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -3612,7 +3608,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -3624,7 +3620,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -3636,7 +3632,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -3648,7 +3644,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -3660,7 +3656,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -3672,7 +3668,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -3684,7 +3680,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -3696,7 +3692,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -3708,7 +3704,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -3720,7 +3716,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -3732,7 +3728,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -3744,7 +3740,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -3756,7 +3752,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -3768,7 +3764,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -3780,7 +3776,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -3792,7 +3788,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -3804,7 +3800,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -3816,7 +3812,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -3828,7 +3824,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="14"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -3840,7 +3836,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -3852,7 +3848,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -3864,7 +3860,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -3876,7 +3872,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -3888,7 +3884,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -3900,7 +3896,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -3912,7 +3908,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -3924,7 +3920,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -3936,7 +3932,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -3948,7 +3944,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -3960,7 +3956,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -3972,7 +3968,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -3984,7 +3980,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -3996,7 +3992,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -4008,7 +4004,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -4020,7 +4016,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -4032,7 +4028,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -4044,7 +4040,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -4056,7 +4052,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -4068,7 +4064,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -4080,7 +4076,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -4092,7 +4088,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -4104,7 +4100,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -4116,7 +4112,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -4128,7 +4124,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -4140,7 +4136,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -4152,7 +4148,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -4164,7 +4160,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -4176,7 +4172,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -4188,7 +4184,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -4200,7 +4196,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -4212,7 +4208,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -4224,7 +4220,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -4236,7 +4232,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -4248,7 +4244,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -4260,7 +4256,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -4272,7 +4268,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -4284,7 +4280,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -4296,7 +4292,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -4308,7 +4304,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -4320,7 +4316,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -4332,7 +4328,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -4344,7 +4340,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -4356,7 +4352,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -4368,7 +4364,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -4380,7 +4376,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -4392,7 +4388,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -4404,7 +4400,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -4416,7 +4412,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -4428,7 +4424,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -4440,7 +4436,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -4452,7 +4448,7 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -4464,7 +4460,7 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -4476,7 +4472,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -4488,7 +4484,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -4500,7 +4496,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -4512,7 +4508,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -4524,7 +4520,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -4536,7 +4532,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -4548,7 +4544,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -4560,7 +4556,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -4572,7 +4568,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -4584,7 +4580,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -4596,7 +4592,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -4608,7 +4604,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -4620,7 +4616,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -4632,7 +4628,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -4644,7 +4640,7 @@
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -4656,7 +4652,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -4668,7 +4664,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -4680,7 +4676,7 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -4692,7 +4688,7 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -4704,7 +4700,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -4716,7 +4712,7 @@
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -4728,7 +4724,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -4740,7 +4736,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -4752,7 +4748,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -4764,7 +4760,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -4776,7 +4772,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -4788,7 +4784,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -4800,7 +4796,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -4812,7 +4808,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -4824,7 +4820,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -4836,7 +4832,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -4848,7 +4844,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -4860,7 +4856,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -4872,7 +4868,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -4884,7 +4880,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -4896,7 +4892,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -4908,7 +4904,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -4920,7 +4916,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -4932,7 +4928,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -4944,7 +4940,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -4956,7 +4952,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -4968,7 +4964,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -4980,7 +4976,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -4992,7 +4988,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -5004,7 +5000,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -5016,7 +5012,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -5028,7 +5024,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -5040,7 +5036,7 @@
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -5052,7 +5048,7 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -5064,7 +5060,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -5076,7 +5072,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -5088,7 +5084,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -5100,7 +5096,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -5112,7 +5108,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -5124,7 +5120,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -5136,7 +5132,7 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -5148,7 +5144,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -5160,7 +5156,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -5172,7 +5168,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -5184,7 +5180,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -5196,7 +5192,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -5208,7 +5204,7 @@
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -5220,7 +5216,7 @@
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -5232,7 +5228,7 @@
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -5244,7 +5240,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -5256,7 +5252,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -5268,7 +5264,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -5280,7 +5276,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -5292,7 +5288,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -5304,7 +5300,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -5316,7 +5312,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -5328,7 +5324,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -5340,7 +5336,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -5352,7 +5348,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -5364,7 +5360,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -5376,7 +5372,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -5388,7 +5384,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -5400,7 +5396,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -5412,7 +5408,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -5424,7 +5420,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -5436,7 +5432,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -5448,7 +5444,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="14"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -5460,7 +5456,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -5472,7 +5468,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -5484,7 +5480,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -5496,7 +5492,7 @@
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -5508,7 +5504,7 @@
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -5520,7 +5516,7 @@
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -5532,7 +5528,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -5544,7 +5540,7 @@
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -5556,7 +5552,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -5568,7 +5564,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -5580,7 +5576,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -5592,7 +5588,7 @@
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -5604,7 +5600,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -5616,7 +5612,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -5628,7 +5624,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -5640,7 +5636,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -5652,7 +5648,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -5664,7 +5660,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -5676,7 +5672,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -5688,7 +5684,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -5700,7 +5696,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -5712,7 +5708,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -5724,7 +5720,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -5736,7 +5732,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -5748,7 +5744,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -5760,7 +5756,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -5772,7 +5768,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -5784,7 +5780,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -5796,7 +5792,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -5808,7 +5804,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -5820,7 +5816,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -5832,7 +5828,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -5844,7 +5840,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -5856,7 +5852,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -5868,7 +5864,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -5880,7 +5876,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -5892,7 +5888,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -5904,7 +5900,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -5916,7 +5912,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -5928,7 +5924,7 @@
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="14"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -5940,7 +5936,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="14"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -5952,7 +5948,7 @@
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="14"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -5964,7 +5960,7 @@
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="14"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -5976,7 +5972,7 @@
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="14"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -5988,7 +5984,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="14"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -6000,7 +5996,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="14"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -6012,7 +6008,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="14"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -6024,7 +6020,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="14"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -6036,7 +6032,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="14"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -6048,7 +6044,7 @@
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="14"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -6060,7 +6056,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="14"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -6072,7 +6068,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="14"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -6084,7 +6080,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="14"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -6096,7 +6092,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="14"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -6108,7 +6104,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="14"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -6120,7 +6116,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="14"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -6132,7 +6128,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="14"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -6144,7 +6140,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="14"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -6156,7 +6152,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="14"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -6168,7 +6164,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="14"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -6180,7 +6176,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="14"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -6192,7 +6188,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="14"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -6204,7 +6200,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="14"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -6216,7 +6212,7 @@
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="14"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -6228,7 +6224,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="14"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -6240,7 +6236,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="14"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -6252,7 +6248,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="14"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -6264,7 +6260,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="14"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -6276,7 +6272,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="14"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -6288,7 +6284,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="14"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -6300,7 +6296,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="14"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -6312,7 +6308,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="14"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -6324,7 +6320,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="14"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -6336,7 +6332,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="14"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -6348,7 +6344,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="14"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -6360,7 +6356,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="14"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -6372,7 +6368,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="14"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -6384,7 +6380,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="14"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -6396,7 +6392,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="14"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -6408,7 +6404,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="14"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -6420,7 +6416,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="14"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -6432,7 +6428,7 @@
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="14"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -6444,7 +6440,7 @@
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="14"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -6456,7 +6452,7 @@
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="14"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -6468,7 +6464,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="14"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -6480,7 +6476,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="14"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -6492,7 +6488,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="14"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -6504,7 +6500,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="14"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -6516,7 +6512,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="14"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -6528,7 +6524,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="14"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -6540,7 +6536,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="14"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -6552,7 +6548,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="14"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -6564,7 +6560,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="14"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -6576,7 +6572,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="14"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -6588,7 +6584,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="14"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -6600,7 +6596,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="14"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -6612,7 +6608,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="14"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -6624,7 +6620,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="14"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -6636,7 +6632,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="14"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -6648,7 +6644,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="14"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -6660,7 +6656,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="14"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -6672,7 +6668,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="14"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -6684,7 +6680,7 @@
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="14"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -6696,7 +6692,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="14"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -6708,7 +6704,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="14"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -6720,7 +6716,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="14"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -6732,7 +6728,7 @@
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="14"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -6744,7 +6740,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="14"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -6756,7 +6752,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="14"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -6768,7 +6764,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="14"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -6780,7 +6776,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="14"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -6792,7 +6788,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="14"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -6804,7 +6800,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="14"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -6816,7 +6812,7 @@
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="14"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -6828,7 +6824,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="14"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -6840,7 +6836,7 @@
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="14"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -6852,7 +6848,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="14"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -6864,7 +6860,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="14"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -6876,7 +6872,7 @@
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="14"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -6888,7 +6884,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="14"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -6900,7 +6896,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="14"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -6912,7 +6908,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="14"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -6924,7 +6920,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="14"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -6936,7 +6932,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="14"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -6948,7 +6944,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="14"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -6960,7 +6956,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="14"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -6972,7 +6968,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="14"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -6984,7 +6980,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -6996,7 +6992,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="14"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -7008,7 +7004,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="14"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -7020,7 +7016,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="14"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -7032,7 +7028,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="14"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -7044,7 +7040,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="14"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -7056,7 +7052,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="14"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -7068,7 +7064,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="14"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -7080,7 +7076,7 @@
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="14"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -7092,7 +7088,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="14"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -7104,7 +7100,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="14"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -7116,7 +7112,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="14"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -7128,7 +7124,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="14"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -7140,7 +7136,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="14"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -7152,7 +7148,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="14"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -7164,7 +7160,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="14"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -7176,7 +7172,7 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="14"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -7188,7 +7184,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="14"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -7200,7 +7196,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="14"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -7212,7 +7208,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="14"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -7224,7 +7220,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="14"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -7236,7 +7232,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="14"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -7248,7 +7244,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="14"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -7260,7 +7256,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="14"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -7272,7 +7268,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="14"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -7284,7 +7280,7 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="14"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -7296,7 +7292,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="14"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -7308,7 +7304,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="14"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -7320,7 +7316,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="14"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -7332,7 +7328,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="14"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -7344,7 +7340,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="14"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -7356,7 +7352,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="14"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -7368,7 +7364,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="14"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -7380,7 +7376,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="14"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -7392,7 +7388,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="14"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -7404,7 +7400,7 @@
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="14"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -7416,7 +7412,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="14"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -7428,7 +7424,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="14"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -7440,7 +7436,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -7452,7 +7448,7 @@
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="14"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -7464,7 +7460,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="14"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -7476,7 +7472,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="14"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -7488,7 +7484,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="14"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -7500,7 +7496,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="14"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -7512,7 +7508,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="14"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -7524,7 +7520,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="14"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -7536,7 +7532,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="14"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -7548,7 +7544,7 @@
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="14"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -7560,7 +7556,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="14"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -7572,7 +7568,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="14"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -7584,7 +7580,7 @@
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="14"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -7596,7 +7592,7 @@
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="14"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -7608,7 +7604,7 @@
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="14"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -7620,7 +7616,7 @@
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="14"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -7632,7 +7628,7 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="14"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -7644,7 +7640,7 @@
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="14"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -7656,7 +7652,7 @@
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="14"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -7668,7 +7664,7 @@
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="14"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -7680,7 +7676,7 @@
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="14"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -7692,7 +7688,7 @@
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="14"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -7704,7 +7700,7 @@
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="14"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -7716,7 +7712,7 @@
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="14"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -7728,7 +7724,7 @@
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="14"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -7740,7 +7736,7 @@
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="14"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -7752,7 +7748,7 @@
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="14"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -7764,7 +7760,7 @@
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="14"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -7776,7 +7772,7 @@
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="14"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -7788,7 +7784,7 @@
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="14"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -7800,7 +7796,7 @@
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="14"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -7812,7 +7808,7 @@
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="14"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -7824,7 +7820,7 @@
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="14"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -7836,7 +7832,7 @@
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="14"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -7848,7 +7844,7 @@
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="14"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -7860,7 +7856,7 @@
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="14"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -7872,7 +7868,7 @@
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="14"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -7884,7 +7880,7 @@
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="14"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -7896,7 +7892,7 @@
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="14"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -7908,7 +7904,7 @@
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="14"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -7920,7 +7916,7 @@
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="14"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -7932,7 +7928,7 @@
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="14"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -7944,7 +7940,7 @@
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="14"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -7956,7 +7952,7 @@
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="14"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -7968,7 +7964,7 @@
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="14"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -7980,7 +7976,7 @@
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="14"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -7992,7 +7988,7 @@
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="14"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -8004,7 +8000,7 @@
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="14"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -8016,7 +8012,7 @@
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="14"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -8028,7 +8024,7 @@
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="14"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -8040,7 +8036,7 @@
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="14"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -8052,7 +8048,7 @@
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="14"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -8064,7 +8060,7 @@
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="14"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -8076,7 +8072,7 @@
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="14"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -8088,7 +8084,7 @@
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="14"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -8100,7 +8096,7 @@
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="14"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -8112,7 +8108,7 @@
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="14"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -8124,7 +8120,7 @@
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="14"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -8136,7 +8132,7 @@
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="14"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -8148,7 +8144,7 @@
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="14"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -8160,7 +8156,7 @@
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="14"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -8172,7 +8168,7 @@
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="14"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -8184,7 +8180,7 @@
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="14"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -8196,7 +8192,7 @@
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="14"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -8208,7 +8204,7 @@
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="14"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -8220,7 +8216,7 @@
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="14"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -8232,7 +8228,7 @@
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="14"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -8244,7 +8240,7 @@
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="14"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -8256,7 +8252,7 @@
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="14"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -8268,7 +8264,7 @@
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="14"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -8280,7 +8276,7 @@
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="14"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -8292,7 +8288,7 @@
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="14"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -8304,7 +8300,7 @@
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="14"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -8316,7 +8312,7 @@
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="14"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -8328,7 +8324,7 @@
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="14"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -8340,7 +8336,7 @@
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="14"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -8352,7 +8348,7 @@
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="14"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -8364,7 +8360,7 @@
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="14"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -8376,7 +8372,7 @@
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="14"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -8388,7 +8384,7 @@
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="14"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -8400,7 +8396,7 @@
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="14"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -8412,7 +8408,7 @@
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="14"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -8424,7 +8420,7 @@
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="14"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -8436,7 +8432,7 @@
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="14"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -8448,7 +8444,7 @@
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="14"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -8460,7 +8456,7 @@
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="14"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -8472,7 +8468,7 @@
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="14"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -8484,7 +8480,7 @@
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="14"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -8496,7 +8492,7 @@
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="14"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -8508,7 +8504,7 @@
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="14"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -8520,7 +8516,7 @@
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="14"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -8532,7 +8528,7 @@
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="14"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -8544,7 +8540,7 @@
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="14"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -8556,7 +8552,7 @@
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="14"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -8568,7 +8564,7 @@
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="14"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -8580,7 +8576,7 @@
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="14"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -8592,7 +8588,7 @@
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="14"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -8604,7 +8600,7 @@
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="14"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -8616,7 +8612,7 @@
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="14"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -8628,7 +8624,7 @@
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="14"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -8640,7 +8636,7 @@
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="14"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -8652,7 +8648,7 @@
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="14"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -8664,7 +8660,7 @@
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="14"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -8676,7 +8672,7 @@
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="14"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -8688,7 +8684,7 @@
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="14"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -8700,7 +8696,7 @@
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="14"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -8712,7 +8708,7 @@
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="14"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -8724,7 +8720,7 @@
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="14"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -8736,7 +8732,7 @@
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="14"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -8748,7 +8744,7 @@
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="14"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -8760,7 +8756,7 @@
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="14"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -8772,7 +8768,7 @@
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="14"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -8784,7 +8780,7 @@
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="14"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -8796,7 +8792,7 @@
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="14"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -8808,7 +8804,7 @@
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="14"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -8820,7 +8816,7 @@
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="14"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -8832,7 +8828,7 @@
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="14"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -8844,7 +8840,7 @@
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="14"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -8856,7 +8852,7 @@
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="14"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -8868,7 +8864,7 @@
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="14"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -8880,7 +8876,7 @@
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="14"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -8892,7 +8888,7 @@
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="14"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -8904,7 +8900,7 @@
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="14"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -8916,7 +8912,7 @@
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="14"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -8928,7 +8924,7 @@
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="14"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -8940,7 +8936,7 @@
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="14"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -8952,7 +8948,7 @@
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="14"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -8964,7 +8960,7 @@
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="14"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -8976,7 +8972,7 @@
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="14"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -8988,7 +8984,7 @@
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="14"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -9000,7 +8996,7 @@
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="14"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -9012,7 +9008,7 @@
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="14"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -9024,7 +9020,7 @@
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="14"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -9036,7 +9032,7 @@
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="14"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -9048,7 +9044,7 @@
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="14"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -9060,7 +9056,7 @@
       <c r="I674" s="3"/>
       <c r="J674" s="3"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="14"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -9072,7 +9068,7 @@
       <c r="I675" s="3"/>
       <c r="J675" s="3"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="14"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -9084,7 +9080,7 @@
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="14"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -9096,7 +9092,7 @@
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="14"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -9108,7 +9104,7 @@
       <c r="I678" s="3"/>
       <c r="J678" s="3"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="14"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -9120,7 +9116,7 @@
       <c r="I679" s="3"/>
       <c r="J679" s="3"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="14"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -9132,7 +9128,7 @@
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="14"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -9144,7 +9140,7 @@
       <c r="I681" s="3"/>
       <c r="J681" s="3"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="14"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -9156,7 +9152,7 @@
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="14"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -9168,7 +9164,7 @@
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="14"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -9180,7 +9176,7 @@
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="14"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -9192,7 +9188,7 @@
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="14"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -9204,7 +9200,7 @@
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="14"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -9216,7 +9212,7 @@
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" s="14"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -9228,7 +9224,7 @@
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" s="14"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -9240,7 +9236,7 @@
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="14"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -9252,7 +9248,7 @@
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" s="14"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -9264,7 +9260,7 @@
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" s="14"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -9276,7 +9272,7 @@
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="14"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -9288,7 +9284,7 @@
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" s="14"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -9300,7 +9296,7 @@
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" s="14"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -9312,7 +9308,7 @@
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" s="14"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -9324,7 +9320,7 @@
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" s="14"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -9336,7 +9332,7 @@
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" s="14"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -9348,7 +9344,7 @@
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" s="14"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -9360,7 +9356,7 @@
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="14"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -9372,7 +9368,7 @@
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" s="14"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -9384,7 +9380,7 @@
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" s="14"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -9396,7 +9392,7 @@
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" s="14"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -9408,7 +9404,7 @@
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" s="14"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -9420,7 +9416,7 @@
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" s="14"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -9432,7 +9428,7 @@
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" s="14"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -9444,7 +9440,7 @@
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" s="14"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -9456,7 +9452,7 @@
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="14"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -9468,7 +9464,7 @@
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" s="14"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -9480,7 +9476,7 @@
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" s="14"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -9492,7 +9488,7 @@
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" s="14"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -9504,7 +9500,7 @@
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" s="14"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -9516,7 +9512,7 @@
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" s="14"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -9528,7 +9524,7 @@
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" s="14"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -9540,7 +9536,7 @@
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="14"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -9552,7 +9548,7 @@
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" s="14"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -9564,7 +9560,7 @@
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" s="14"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -9576,7 +9572,7 @@
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" s="14"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -9588,7 +9584,7 @@
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" s="14"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -9600,7 +9596,7 @@
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="14"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -9612,7 +9608,7 @@
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" s="14"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -9624,7 +9620,7 @@
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" s="14"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -9636,7 +9632,7 @@
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="14"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -9648,7 +9644,7 @@
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" s="14"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -9660,7 +9656,7 @@
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" s="14"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -9672,7 +9668,7 @@
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" s="14"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -9684,7 +9680,7 @@
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="14"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -9696,7 +9692,7 @@
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" s="14"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -9708,7 +9704,7 @@
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" s="14"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -9720,7 +9716,7 @@
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" s="14"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -9732,7 +9728,7 @@
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" s="14"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -9744,7 +9740,7 @@
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" s="14"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -9756,7 +9752,7 @@
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="14"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -9768,7 +9764,7 @@
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" s="14"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -9780,7 +9776,7 @@
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" s="14"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -9792,7 +9788,7 @@
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" s="14"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -9804,7 +9800,7 @@
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737" s="14"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -9816,7 +9812,7 @@
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="14"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -9828,7 +9824,7 @@
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" s="14"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -9840,7 +9836,7 @@
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" s="14"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -9852,7 +9848,7 @@
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" s="14"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -9864,7 +9860,7 @@
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" s="14"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -9876,7 +9872,7 @@
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" s="14"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -9888,7 +9884,7 @@
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" s="14"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -9900,7 +9896,7 @@
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" s="14"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -9912,7 +9908,7 @@
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" s="14"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -9924,7 +9920,7 @@
       <c r="I746" s="3"/>
       <c r="J746" s="3"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" s="14"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -9936,7 +9932,7 @@
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" s="14"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -9948,7 +9944,7 @@
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" s="14"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -9960,7 +9956,7 @@
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" s="14"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -9972,7 +9968,7 @@
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751" s="14"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -9984,7 +9980,7 @@
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" s="14"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -9996,7 +9992,7 @@
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" s="14"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -10008,7 +10004,7 @@
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" s="14"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -10020,7 +10016,7 @@
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" s="14"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -10032,7 +10028,7 @@
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" s="14"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -10044,7 +10040,7 @@
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" s="14"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -10056,7 +10052,7 @@
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" s="14"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -10068,7 +10064,7 @@
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" s="14"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -10080,7 +10076,7 @@
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" s="14"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -10092,7 +10088,7 @@
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" s="14"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -10104,7 +10100,7 @@
       <c r="I761" s="3"/>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" s="14"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -10116,7 +10112,7 @@
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" s="14"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -10128,7 +10124,7 @@
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" s="14"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -10140,7 +10136,7 @@
       <c r="I764" s="3"/>
       <c r="J764" s="3"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" s="14"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -10152,7 +10148,7 @@
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" s="14"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -10164,7 +10160,7 @@
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" s="14"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -10176,7 +10172,7 @@
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" s="14"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -10188,7 +10184,7 @@
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" s="14"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -10200,7 +10196,7 @@
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" s="14"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -10212,7 +10208,7 @@
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" s="14"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -10224,7 +10220,7 @@
       <c r="I771" s="3"/>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" s="14"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -10236,7 +10232,7 @@
       <c r="I772" s="3"/>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773" s="14"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -10248,7 +10244,7 @@
       <c r="I773" s="3"/>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" s="14"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -10260,7 +10256,7 @@
       <c r="I774" s="3"/>
       <c r="J774" s="3"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" s="14"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -10272,7 +10268,7 @@
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" s="14"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -10284,7 +10280,7 @@
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" s="14"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -10296,7 +10292,7 @@
       <c r="I777" s="3"/>
       <c r="J777" s="3"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" s="14"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -10308,7 +10304,7 @@
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" s="14"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -10320,7 +10316,7 @@
       <c r="I779" s="3"/>
       <c r="J779" s="3"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" s="14"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -10332,7 +10328,7 @@
       <c r="I780" s="3"/>
       <c r="J780" s="3"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" s="14"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -10344,7 +10340,7 @@
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A782" s="14"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -10356,7 +10352,7 @@
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" s="14"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -10368,7 +10364,7 @@
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A784" s="14"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -10380,7 +10376,7 @@
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A785" s="14"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -10392,7 +10388,7 @@
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A786" s="14"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -10404,7 +10400,7 @@
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A787" s="14"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -10416,7 +10412,7 @@
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="14"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -10428,7 +10424,7 @@
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A789" s="14"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -10440,7 +10436,7 @@
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" s="14"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -10452,7 +10448,7 @@
       <c r="I790" s="3"/>
       <c r="J790" s="3"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A791" s="14"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -10464,7 +10460,7 @@
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A792" s="14"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -10476,7 +10472,7 @@
       <c r="I792" s="3"/>
       <c r="J792" s="3"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A793" s="14"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -10488,7 +10484,7 @@
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A794" s="14"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -10500,7 +10496,7 @@
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A795" s="14"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -10512,7 +10508,7 @@
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A796" s="14"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -10524,7 +10520,7 @@
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A797" s="14"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -10536,7 +10532,7 @@
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" s="14"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -10548,7 +10544,7 @@
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A799" s="14"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -10560,7 +10556,7 @@
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" s="14"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -10572,7 +10568,7 @@
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A801" s="14"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -10584,7 +10580,7 @@
       <c r="I801" s="3"/>
       <c r="J801" s="3"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A802" s="14"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -10596,7 +10592,7 @@
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A803" s="14"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -10608,7 +10604,7 @@
       <c r="I803" s="3"/>
       <c r="J803" s="3"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A804" s="14"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -10620,7 +10616,7 @@
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" s="14"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -10632,7 +10628,7 @@
       <c r="I805" s="3"/>
       <c r="J805" s="3"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A806" s="14"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -10644,7 +10640,7 @@
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A807" s="14"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -10656,7 +10652,7 @@
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" s="14"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -10668,7 +10664,7 @@
       <c r="I808" s="3"/>
       <c r="J808" s="3"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" s="14"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -10680,7 +10676,7 @@
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" s="14"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -10692,7 +10688,7 @@
       <c r="I810" s="3"/>
       <c r="J810" s="3"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" s="14"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -10704,7 +10700,7 @@
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="14"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -10716,7 +10712,7 @@
       <c r="I812" s="3"/>
       <c r="J812" s="3"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" s="14"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -10728,7 +10724,7 @@
       <c r="I813" s="3"/>
       <c r="J813" s="3"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A814" s="14"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -10740,7 +10736,7 @@
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A815" s="14"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -10752,7 +10748,7 @@
       <c r="I815" s="3"/>
       <c r="J815" s="3"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A816" s="14"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -10764,7 +10760,7 @@
       <c r="I816" s="3"/>
       <c r="J816" s="3"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A817" s="14"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -10776,7 +10772,7 @@
       <c r="I817" s="3"/>
       <c r="J817" s="3"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A818" s="14"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -10788,7 +10784,7 @@
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" s="14"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -10800,7 +10796,7 @@
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" s="14"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -10812,7 +10808,7 @@
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" s="14"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -10824,7 +10820,7 @@
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A822" s="14"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -10836,7 +10832,7 @@
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A823" s="14"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -10848,7 +10844,7 @@
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A824" s="14"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -10860,7 +10856,7 @@
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A825" s="14"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -10872,7 +10868,7 @@
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" s="14"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -10884,7 +10880,7 @@
       <c r="I826" s="3"/>
       <c r="J826" s="3"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A827" s="14"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -10896,7 +10892,7 @@
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="14"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -10908,7 +10904,7 @@
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A829" s="14"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -10920,7 +10916,7 @@
       <c r="I829" s="3"/>
       <c r="J829" s="3"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A830" s="14"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -10932,7 +10928,7 @@
       <c r="I830" s="3"/>
       <c r="J830" s="3"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A831" s="14"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -10944,7 +10940,7 @@
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A832" s="14"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -10956,7 +10952,7 @@
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" s="14"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -10968,7 +10964,7 @@
       <c r="I833" s="3"/>
       <c r="J833" s="3"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A834" s="14"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -10980,7 +10976,7 @@
       <c r="I834" s="3"/>
       <c r="J834" s="3"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A835" s="14"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -10992,7 +10988,7 @@
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A836" s="14"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -11004,7 +11000,7 @@
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A837" s="14"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -11016,7 +11012,7 @@
       <c r="I837" s="3"/>
       <c r="J837" s="3"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A838" s="14"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -11028,7 +11024,7 @@
       <c r="I838" s="3"/>
       <c r="J838" s="3"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A839" s="14"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -11040,7 +11036,7 @@
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A840" s="14"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -11052,7 +11048,7 @@
       <c r="I840" s="3"/>
       <c r="J840" s="3"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A841" s="14"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -11064,7 +11060,7 @@
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A842" s="14"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -11076,7 +11072,7 @@
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="14"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -11088,7 +11084,7 @@
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" s="14"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -11100,7 +11096,7 @@
       <c r="I844" s="3"/>
       <c r="J844" s="3"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A845" s="14"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -11112,7 +11108,7 @@
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" s="14"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -11124,7 +11120,7 @@
       <c r="I846" s="3"/>
       <c r="J846" s="3"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" s="14"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -11136,7 +11132,7 @@
       <c r="I847" s="3"/>
       <c r="J847" s="3"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="14"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -11148,7 +11144,7 @@
       <c r="I848" s="3"/>
       <c r="J848" s="3"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A849" s="14"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -11160,7 +11156,7 @@
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A850" s="14"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -11172,7 +11168,7 @@
       <c r="I850" s="3"/>
       <c r="J850" s="3"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A851" s="14"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -11184,7 +11180,7 @@
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A852" s="14"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -11196,7 +11192,7 @@
       <c r="I852" s="3"/>
       <c r="J852" s="3"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A853" s="14"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -11208,7 +11204,7 @@
       <c r="I853" s="3"/>
       <c r="J853" s="3"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A854" s="14"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -11220,7 +11216,7 @@
       <c r="I854" s="3"/>
       <c r="J854" s="3"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A855" s="14"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -11232,7 +11228,7 @@
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A856" s="14"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -11244,7 +11240,7 @@
       <c r="I856" s="3"/>
       <c r="J856" s="3"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A857" s="14"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -11256,7 +11252,7 @@
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A858" s="14"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -11268,7 +11264,7 @@
       <c r="I858" s="3"/>
       <c r="J858" s="3"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A859" s="14"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -11280,7 +11276,7 @@
       <c r="I859" s="3"/>
       <c r="J859" s="3"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A860" s="14"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -11292,7 +11288,7 @@
       <c r="I860" s="3"/>
       <c r="J860" s="3"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A861" s="14"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -11304,7 +11300,7 @@
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A862" s="14"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -11316,7 +11312,7 @@
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A863" s="14"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -11328,7 +11324,7 @@
       <c r="I863" s="3"/>
       <c r="J863" s="3"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A864" s="14"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -11340,7 +11336,7 @@
       <c r="I864" s="3"/>
       <c r="J864" s="3"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A865" s="14"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -11352,7 +11348,7 @@
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A866" s="14"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -11364,7 +11360,7 @@
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A867" s="14"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -11376,7 +11372,7 @@
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A868" s="14"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -11388,7 +11384,7 @@
       <c r="I868" s="3"/>
       <c r="J868" s="3"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A869" s="14"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -11400,7 +11396,7 @@
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A870" s="14"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -11412,7 +11408,7 @@
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A871" s="14"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -11424,7 +11420,7 @@
       <c r="I871" s="3"/>
       <c r="J871" s="3"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A872" s="14"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -11436,7 +11432,7 @@
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A873" s="14"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -11448,7 +11444,7 @@
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A874" s="14"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -11460,7 +11456,7 @@
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A875" s="14"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -11472,7 +11468,7 @@
       <c r="I875" s="3"/>
       <c r="J875" s="3"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A876" s="14"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -11484,7 +11480,7 @@
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A877" s="14"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -11496,7 +11492,7 @@
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A878" s="14"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -11508,7 +11504,7 @@
       <c r="I878" s="3"/>
       <c r="J878" s="3"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A879" s="14"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -11520,7 +11516,7 @@
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A880" s="14"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -11532,7 +11528,7 @@
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A881" s="14"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -11544,7 +11540,7 @@
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A882" s="14"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -11556,7 +11552,7 @@
       <c r="I882" s="3"/>
       <c r="J882" s="3"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A883" s="14"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -11568,7 +11564,7 @@
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A884" s="14"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -11580,7 +11576,7 @@
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A885" s="14"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -11592,7 +11588,7 @@
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A886" s="14"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -11604,7 +11600,7 @@
       <c r="I886" s="3"/>
       <c r="J886" s="3"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A887" s="14"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -11616,7 +11612,7 @@
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A888" s="14"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -11628,7 +11624,7 @@
       <c r="I888" s="3"/>
       <c r="J888" s="3"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A889" s="14"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -11640,7 +11636,7 @@
       <c r="I889" s="3"/>
       <c r="J889" s="3"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A890" s="14"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -11652,7 +11648,7 @@
       <c r="I890" s="3"/>
       <c r="J890" s="3"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A891" s="14"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -11664,7 +11660,7 @@
       <c r="I891" s="3"/>
       <c r="J891" s="3"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A892" s="14"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -11676,7 +11672,7 @@
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A893" s="14"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -11688,7 +11684,7 @@
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A894" s="14"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -11700,7 +11696,7 @@
       <c r="I894" s="3"/>
       <c r="J894" s="3"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A895" s="14"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -11712,7 +11708,7 @@
       <c r="I895" s="3"/>
       <c r="J895" s="3"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A896" s="14"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -11724,7 +11720,7 @@
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A897" s="14"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -11736,7 +11732,7 @@
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A898" s="14"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -11748,7 +11744,7 @@
       <c r="I898" s="3"/>
       <c r="J898" s="3"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A899" s="14"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -11760,7 +11756,7 @@
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A900" s="14"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -11772,7 +11768,7 @@
       <c r="I900" s="3"/>
       <c r="J900" s="3"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A901" s="14"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -11784,7 +11780,7 @@
       <c r="I901" s="3"/>
       <c r="J901" s="3"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A902" s="14"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -11796,7 +11792,7 @@
       <c r="I902" s="3"/>
       <c r="J902" s="3"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A903" s="14"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -11808,7 +11804,7 @@
       <c r="I903" s="3"/>
       <c r="J903" s="3"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A904" s="14"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -11820,7 +11816,7 @@
       <c r="I904" s="3"/>
       <c r="J904" s="3"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A905" s="14"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -11832,7 +11828,7 @@
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A906" s="14"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -11844,7 +11840,7 @@
       <c r="I906" s="3"/>
       <c r="J906" s="3"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A907" s="14"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -11856,7 +11852,7 @@
       <c r="I907" s="3"/>
       <c r="J907" s="3"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A908" s="14"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -11868,7 +11864,7 @@
       <c r="I908" s="3"/>
       <c r="J908" s="3"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A909" s="14"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -11880,7 +11876,7 @@
       <c r="I909" s="3"/>
       <c r="J909" s="3"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A910" s="14"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -11892,7 +11888,7 @@
       <c r="I910" s="3"/>
       <c r="J910" s="3"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A911" s="14"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -11904,7 +11900,7 @@
       <c r="I911" s="3"/>
       <c r="J911" s="3"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A912" s="14"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -11916,7 +11912,7 @@
       <c r="I912" s="3"/>
       <c r="J912" s="3"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A913" s="14"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -11928,7 +11924,7 @@
       <c r="I913" s="3"/>
       <c r="J913" s="3"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A914" s="14"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -11940,7 +11936,7 @@
       <c r="I914" s="3"/>
       <c r="J914" s="3"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A915" s="14"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -11952,7 +11948,7 @@
       <c r="I915" s="3"/>
       <c r="J915" s="3"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A916" s="14"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -11964,7 +11960,7 @@
       <c r="I916" s="3"/>
       <c r="J916" s="3"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A917" s="14"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -11976,7 +11972,7 @@
       <c r="I917" s="3"/>
       <c r="J917" s="3"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A918" s="14"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -11988,7 +11984,7 @@
       <c r="I918" s="3"/>
       <c r="J918" s="3"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A919" s="14"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -12000,7 +11996,7 @@
       <c r="I919" s="3"/>
       <c r="J919" s="3"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A920" s="14"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -12012,7 +12008,7 @@
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A921" s="14"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -12024,7 +12020,7 @@
       <c r="I921" s="3"/>
       <c r="J921" s="3"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A922" s="14"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -12036,7 +12032,7 @@
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A923" s="14"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -12048,7 +12044,7 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A924" s="14"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -12060,7 +12056,7 @@
       <c r="I924" s="3"/>
       <c r="J924" s="3"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A925" s="14"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -12072,7 +12068,7 @@
       <c r="I925" s="3"/>
       <c r="J925" s="3"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A926" s="14"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -12084,7 +12080,7 @@
       <c r="I926" s="3"/>
       <c r="J926" s="3"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A927" s="14"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -12096,7 +12092,7 @@
       <c r="I927" s="3"/>
       <c r="J927" s="3"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A928" s="14"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -12108,7 +12104,7 @@
       <c r="I928" s="3"/>
       <c r="J928" s="3"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A929" s="14"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -12120,7 +12116,7 @@
       <c r="I929" s="3"/>
       <c r="J929" s="3"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A930" s="14"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -12132,7 +12128,7 @@
       <c r="I930" s="3"/>
       <c r="J930" s="3"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A931" s="14"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -12144,7 +12140,7 @@
       <c r="I931" s="3"/>
       <c r="J931" s="3"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A932" s="14"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -12156,7 +12152,7 @@
       <c r="I932" s="3"/>
       <c r="J932" s="3"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A933" s="14"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -12168,7 +12164,7 @@
       <c r="I933" s="3"/>
       <c r="J933" s="3"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A934" s="14"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -12180,7 +12176,7 @@
       <c r="I934" s="3"/>
       <c r="J934" s="3"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A935" s="14"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -12192,7 +12188,7 @@
       <c r="I935" s="3"/>
       <c r="J935" s="3"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A936" s="14"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -12204,7 +12200,7 @@
       <c r="I936" s="3"/>
       <c r="J936" s="3"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A937" s="14"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -12216,7 +12212,7 @@
       <c r="I937" s="3"/>
       <c r="J937" s="3"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A938" s="14"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -12228,7 +12224,7 @@
       <c r="I938" s="3"/>
       <c r="J938" s="3"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A939" s="14"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -12240,7 +12236,7 @@
       <c r="I939" s="3"/>
       <c r="J939" s="3"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A940" s="14"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -12252,7 +12248,7 @@
       <c r="I940" s="3"/>
       <c r="J940" s="3"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A941" s="14"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -12264,7 +12260,7 @@
       <c r="I941" s="3"/>
       <c r="J941" s="3"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A942" s="14"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -12276,7 +12272,7 @@
       <c r="I942" s="3"/>
       <c r="J942" s="3"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A943" s="14"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -12288,7 +12284,7 @@
       <c r="I943" s="3"/>
       <c r="J943" s="3"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A944" s="14"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -12300,7 +12296,7 @@
       <c r="I944" s="3"/>
       <c r="J944" s="3"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A945" s="14"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -12312,7 +12308,7 @@
       <c r="I945" s="3"/>
       <c r="J945" s="3"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A946" s="14"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -12324,7 +12320,7 @@
       <c r="I946" s="3"/>
       <c r="J946" s="3"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A947" s="14"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -12336,7 +12332,7 @@
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A948" s="14"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -12348,7 +12344,7 @@
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A949" s="14"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -12360,7 +12356,7 @@
       <c r="I949" s="3"/>
       <c r="J949" s="3"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A950" s="14"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -12372,7 +12368,7 @@
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A951" s="14"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -12384,7 +12380,7 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A952" s="14"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -12396,7 +12392,7 @@
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A953" s="14"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -12408,7 +12404,7 @@
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A954" s="14"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -12420,7 +12416,7 @@
       <c r="I954" s="3"/>
       <c r="J954" s="3"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A955" s="14"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -12432,7 +12428,7 @@
       <c r="I955" s="3"/>
       <c r="J955" s="3"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A956" s="14"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5AA3E-8760-40D3-96C0-C89FFA2D31A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -220,13 +221,13 @@
     <t>Novartis &amp; Posit</t>
   </si>
   <si>
-    <t>Go fastRfastR – how to make R code how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
+    <t>Go fastR – how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
@@ -693,28 +694,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="35.28515625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="40.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="118.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="35.26953125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="40.81640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.54296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="118.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="10"/>
+    <col min="11" max="16384" width="14.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -746,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="str">
         <f>"06.12.2023"</f>
         <v>06.12.2023</v>
@@ -771,7 +772,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="str">
         <f>"06.12.2023"</f>
         <v>06.12.2023</v>
@@ -799,7 +800,7 @@
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
@@ -825,7 +826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
@@ -851,7 +852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
@@ -877,7 +878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
@@ -908,7 +909,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
@@ -935,7 +936,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -966,7 +967,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="str">
         <f t="shared" ref="A10:A12" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -993,7 +994,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -1020,7 +1021,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -1047,7 +1048,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1074,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1099,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1124,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>"19.08.2019"</f>
         <v>19.08.2019</v>
@@ -1145,7 +1146,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <f>"01.03.2018"</f>
         <v>01.03.2018</v>
@@ -1166,7 +1167,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
@@ -1185,7 +1186,7 @@
       <c r="I18" s="6"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1197,7 +1198,7 @@
       <c r="I19" s="6"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1209,7 +1210,7 @@
       <c r="I20" s="6"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1221,7 +1222,7 @@
       <c r="I21" s="6"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1233,7 +1234,7 @@
       <c r="I22" s="6"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1245,7 +1246,7 @@
       <c r="I23" s="6"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1257,7 +1258,7 @@
       <c r="I24" s="6"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1269,7 +1270,7 @@
       <c r="I25" s="6"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1281,7 +1282,7 @@
       <c r="I26" s="6"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1293,7 +1294,7 @@
       <c r="I27" s="6"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1304,7 +1305,7 @@
       <c r="H28" s="6"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1316,7 +1317,7 @@
       <c r="I29" s="6"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1328,7 +1329,7 @@
       <c r="I30" s="6"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1340,7 +1341,7 @@
       <c r="I31" s="16"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1352,7 +1353,7 @@
       <c r="I32" s="16"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1364,7 +1365,7 @@
       <c r="I33" s="6"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1376,7 +1377,7 @@
       <c r="I34" s="6"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1388,7 +1389,7 @@
       <c r="I35" s="16"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1400,7 +1401,7 @@
       <c r="I36" s="16"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1412,7 +1413,7 @@
       <c r="I37" s="6"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1424,7 +1425,7 @@
       <c r="I38" s="4"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1436,7 +1437,7 @@
       <c r="I39" s="4"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1448,7 +1449,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1460,7 +1461,7 @@
       <c r="I41" s="1"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1472,7 +1473,7 @@
       <c r="I42" s="1"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1484,7 +1485,7 @@
       <c r="I43" s="1"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1496,7 +1497,7 @@
       <c r="I44" s="1"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1508,7 +1509,7 @@
       <c r="I45" s="1"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1520,7 +1521,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1532,7 +1533,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1544,7 +1545,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1556,7 +1557,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1568,7 +1569,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1580,7 +1581,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1592,7 +1593,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1604,7 +1605,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1616,7 +1617,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1628,7 +1629,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1640,7 +1641,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1652,7 +1653,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1664,7 +1665,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1676,7 +1677,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1688,7 +1689,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1700,7 +1701,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1712,7 +1713,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1724,7 +1725,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="13"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1736,7 +1737,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1748,7 +1749,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="13"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1760,7 +1761,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="13"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1772,7 +1773,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="13"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1784,7 +1785,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1796,7 +1797,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1808,7 +1809,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1820,7 +1821,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="13"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1832,7 +1833,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1844,7 +1845,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1856,7 +1857,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="13"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1868,7 +1869,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1880,7 +1881,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="13"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1892,7 +1893,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="13"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1904,7 +1905,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1916,7 +1917,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1928,7 +1929,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="13"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1940,7 +1941,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="13"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1952,7 +1953,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1964,7 +1965,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="13"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1976,7 +1977,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="13"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1988,7 +1989,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2000,7 +2001,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="13"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2012,7 +2013,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="13"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2024,7 +2025,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2036,7 +2037,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="13"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2048,7 +2049,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="13"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2060,7 +2061,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2072,7 +2073,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="13"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2084,7 +2085,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2096,7 +2097,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="13"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2108,7 +2109,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="13"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2120,7 +2121,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2132,7 +2133,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="13"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2144,7 +2145,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="13"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2156,7 +2157,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="13"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2168,7 +2169,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="13"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2180,7 +2181,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2192,7 +2193,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2204,7 +2205,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2216,7 +2217,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="13"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2228,7 +2229,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="13"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2240,7 +2241,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="13"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2252,7 +2253,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="13"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2264,7 +2265,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="13"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2276,7 +2277,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="13"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2288,7 +2289,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="13"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2300,7 +2301,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="13"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2312,7 +2313,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="13"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2324,7 +2325,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2336,7 +2337,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2348,7 +2349,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2360,7 +2361,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2372,7 +2373,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2384,7 +2385,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2396,7 +2397,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="13"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2408,7 +2409,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="13"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2420,7 +2421,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="13"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2432,7 +2433,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="13"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2444,7 +2445,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="13"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2456,7 +2457,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="13"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2468,7 +2469,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="13"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2480,7 +2481,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="13"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2492,7 +2493,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="13"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2504,7 +2505,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="13"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2516,7 +2517,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2528,7 +2529,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2540,7 +2541,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="13"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2552,7 +2553,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="13"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2564,7 +2565,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2576,7 +2577,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2588,7 +2589,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="13"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2600,7 +2601,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2612,7 +2613,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2624,7 +2625,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2636,7 +2637,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="13"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2648,7 +2649,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="13"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2660,7 +2661,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2672,7 +2673,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2684,7 +2685,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="13"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2696,7 +2697,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="13"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2708,7 +2709,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="13"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2720,7 +2721,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="13"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2732,7 +2733,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="13"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2744,7 +2745,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2756,7 +2757,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="13"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2768,7 +2769,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="13"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2780,7 +2781,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="13"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2792,7 +2793,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="13"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2804,7 +2805,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="13"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2816,7 +2817,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="13"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2828,7 +2829,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="13"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2840,7 +2841,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="13"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2852,7 +2853,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="13"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2864,7 +2865,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2876,7 +2877,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2888,7 +2889,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2900,7 +2901,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="13"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2912,7 +2913,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="13"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2924,7 +2925,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="13"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2936,7 +2937,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2948,7 +2949,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="13"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2960,7 +2961,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="13"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2972,7 +2973,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="13"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -2984,7 +2985,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="13"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -2996,7 +2997,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="13"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -3008,7 +3009,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="13"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3020,7 +3021,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="13"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -3032,7 +3033,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="13"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -3044,7 +3045,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -3056,7 +3057,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -3068,7 +3069,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="13"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -3080,7 +3081,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="13"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -3092,7 +3093,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -3104,7 +3105,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -3116,7 +3117,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -3128,7 +3129,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -3140,7 +3141,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3152,7 +3153,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -3164,7 +3165,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -3176,7 +3177,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -3188,7 +3189,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3200,7 +3201,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -3212,7 +3213,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -3224,7 +3225,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3236,7 +3237,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -3248,7 +3249,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3260,7 +3261,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -3272,7 +3273,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -3284,7 +3285,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -3296,7 +3297,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -3308,7 +3309,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3320,7 +3321,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3332,7 +3333,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -3344,7 +3345,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3356,7 +3357,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -3368,7 +3369,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -3380,7 +3381,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -3392,7 +3393,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -3404,7 +3405,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -3416,7 +3417,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -3428,7 +3429,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -3440,7 +3441,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -3452,7 +3453,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -3464,7 +3465,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -3476,7 +3477,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -3488,7 +3489,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -3500,7 +3501,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -3512,7 +3513,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -3524,7 +3525,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -3536,7 +3537,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -3548,7 +3549,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -3560,7 +3561,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -3572,7 +3573,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -3584,7 +3585,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -3596,7 +3597,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -3608,7 +3609,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -3620,7 +3621,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -3632,7 +3633,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -3644,7 +3645,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -3656,7 +3657,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -3668,7 +3669,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -3680,7 +3681,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -3692,7 +3693,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -3704,7 +3705,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -3716,7 +3717,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -3728,7 +3729,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -3740,7 +3741,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -3752,7 +3753,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -3764,7 +3765,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -3776,7 +3777,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -3788,7 +3789,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -3800,7 +3801,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -3812,7 +3813,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -3824,7 +3825,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -3836,7 +3837,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -3848,7 +3849,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -3860,7 +3861,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -3872,7 +3873,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -3884,7 +3885,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -3896,7 +3897,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -3908,7 +3909,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -3920,7 +3921,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -3932,7 +3933,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -3944,7 +3945,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -3956,7 +3957,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -3968,7 +3969,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -3980,7 +3981,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="14"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -3992,7 +3993,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -4004,7 +4005,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -4016,7 +4017,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -4028,7 +4029,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -4040,7 +4041,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" s="14"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -4052,7 +4053,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="14"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -4064,7 +4065,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="14"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -4076,7 +4077,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -4088,7 +4089,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="14"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -4100,7 +4101,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="14"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -4112,7 +4113,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="14"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -4124,7 +4125,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="14"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -4136,7 +4137,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -4148,7 +4149,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="14"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -4160,7 +4161,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -4172,7 +4173,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="14"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -4184,7 +4185,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -4196,7 +4197,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="14"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -4208,7 +4209,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -4220,7 +4221,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -4232,7 +4233,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="14"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -4244,7 +4245,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -4256,7 +4257,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="14"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -4268,7 +4269,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="14"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -4280,7 +4281,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="14"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -4292,7 +4293,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="14"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -4304,7 +4305,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="14"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -4316,7 +4317,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="14"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -4328,7 +4329,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="14"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -4340,7 +4341,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="14"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -4352,7 +4353,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="14"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -4364,7 +4365,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="14"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -4376,7 +4377,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="14"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -4388,7 +4389,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -4400,7 +4401,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="14"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -4412,7 +4413,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -4424,7 +4425,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="14"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -4436,7 +4437,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="14"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -4448,7 +4449,7 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="14"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -4460,7 +4461,7 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="14"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -4472,7 +4473,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -4484,7 +4485,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -4496,7 +4497,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -4508,7 +4509,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -4520,7 +4521,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="14"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -4532,7 +4533,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="14"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -4544,7 +4545,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="14"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -4556,7 +4557,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="14"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -4568,7 +4569,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="14"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -4580,7 +4581,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="14"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -4592,7 +4593,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="14"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -4604,7 +4605,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -4616,7 +4617,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="14"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -4628,7 +4629,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -4640,7 +4641,7 @@
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="14"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -4652,7 +4653,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="14"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -4664,7 +4665,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="14"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -4676,7 +4677,7 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="14"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -4688,7 +4689,7 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="14"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -4700,7 +4701,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" s="14"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -4712,7 +4713,7 @@
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="14"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -4724,7 +4725,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="14"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -4736,7 +4737,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="14"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -4748,7 +4749,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="14"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -4760,7 +4761,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" s="14"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -4772,7 +4773,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="14"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -4784,7 +4785,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="14"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -4796,7 +4797,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="14"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -4808,7 +4809,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" s="14"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -4820,7 +4821,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="14"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -4832,7 +4833,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" s="14"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -4844,7 +4845,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" s="14"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -4856,7 +4857,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="14"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -4868,7 +4869,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="14"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -4880,7 +4881,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="14"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -4892,7 +4893,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" s="14"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -4904,7 +4905,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="14"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -4916,7 +4917,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="14"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -4928,7 +4929,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="14"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -4940,7 +4941,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="14"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -4952,7 +4953,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="14"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -4964,7 +4965,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="14"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -4976,7 +4977,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="14"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -4988,7 +4989,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="14"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -5000,7 +5001,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="14"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -5012,7 +5013,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="14"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -5024,7 +5025,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="14"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -5036,7 +5037,7 @@
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="14"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -5048,7 +5049,7 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="14"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -5060,7 +5061,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="14"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -5072,7 +5073,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="14"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -5084,7 +5085,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="14"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -5096,7 +5097,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="14"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -5108,7 +5109,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="14"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -5120,7 +5121,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="14"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -5132,7 +5133,7 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="14"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -5144,7 +5145,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="14"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -5156,7 +5157,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="14"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -5168,7 +5169,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="14"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -5180,7 +5181,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="14"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -5192,7 +5193,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="14"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -5204,7 +5205,7 @@
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="14"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -5216,7 +5217,7 @@
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="14"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -5228,7 +5229,7 @@
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="14"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -5240,7 +5241,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="14"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -5252,7 +5253,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="14"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -5264,7 +5265,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="14"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -5276,7 +5277,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="14"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -5288,7 +5289,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="14"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -5300,7 +5301,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="14"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -5312,7 +5313,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="14"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -5324,7 +5325,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="14"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -5336,7 +5337,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="14"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -5348,7 +5349,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="14"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -5360,7 +5361,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="14"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -5372,7 +5373,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="14"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -5384,7 +5385,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="14"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -5396,7 +5397,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="14"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -5408,7 +5409,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="14"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -5420,7 +5421,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" s="14"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -5432,7 +5433,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" s="14"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -5444,7 +5445,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" s="14"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -5456,7 +5457,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" s="14"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -5468,7 +5469,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" s="14"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -5480,7 +5481,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" s="14"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -5492,7 +5493,7 @@
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" s="14"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -5504,7 +5505,7 @@
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" s="14"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -5516,7 +5517,7 @@
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" s="14"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -5528,7 +5529,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="14"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -5540,7 +5541,7 @@
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" s="14"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -5552,7 +5553,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" s="14"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -5564,7 +5565,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" s="14"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -5576,7 +5577,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="14"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -5588,7 +5589,7 @@
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="14"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -5600,7 +5601,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="14"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -5612,7 +5613,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="14"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -5624,7 +5625,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="14"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -5636,7 +5637,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="14"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -5648,7 +5649,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="14"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -5660,7 +5661,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="14"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -5672,7 +5673,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="14"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -5684,7 +5685,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="14"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -5696,7 +5697,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="14"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -5708,7 +5709,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="14"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -5720,7 +5721,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="14"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -5732,7 +5733,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="14"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -5744,7 +5745,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="14"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -5756,7 +5757,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="14"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -5768,7 +5769,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="14"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -5780,7 +5781,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="14"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -5792,7 +5793,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="14"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -5804,7 +5805,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="14"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -5816,7 +5817,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="14"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -5828,7 +5829,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="14"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -5840,7 +5841,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="14"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -5852,7 +5853,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="14"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -5864,7 +5865,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="14"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -5876,7 +5877,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="14"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -5888,7 +5889,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="14"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -5900,7 +5901,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="14"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -5912,7 +5913,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="14"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -5924,7 +5925,7 @@
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="14"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -5936,7 +5937,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="14"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -5948,7 +5949,7 @@
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="14"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -5960,7 +5961,7 @@
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="14"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -5972,7 +5973,7 @@
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="14"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -5984,7 +5985,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="14"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -5996,7 +5997,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="14"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -6008,7 +6009,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="14"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -6020,7 +6021,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="14"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -6032,7 +6033,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="14"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -6044,7 +6045,7 @@
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="14"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -6056,7 +6057,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="14"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -6068,7 +6069,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="14"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -6080,7 +6081,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="14"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -6092,7 +6093,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="14"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -6104,7 +6105,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="14"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -6116,7 +6117,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="14"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -6128,7 +6129,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="14"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -6140,7 +6141,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="14"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -6152,7 +6153,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="14"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -6164,7 +6165,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="14"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -6176,7 +6177,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="14"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -6188,7 +6189,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="14"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -6200,7 +6201,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="14"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -6212,7 +6213,7 @@
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="14"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -6224,7 +6225,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="14"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -6236,7 +6237,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="14"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -6248,7 +6249,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="14"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -6260,7 +6261,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="14"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -6272,7 +6273,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="14"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -6284,7 +6285,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="14"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -6296,7 +6297,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="14"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -6308,7 +6309,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="14"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -6320,7 +6321,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="14"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -6332,7 +6333,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="14"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -6344,7 +6345,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="14"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -6356,7 +6357,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="14"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -6368,7 +6369,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="14"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -6380,7 +6381,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="14"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -6392,7 +6393,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="14"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -6404,7 +6405,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="14"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -6416,7 +6417,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="14"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -6428,7 +6429,7 @@
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="14"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -6440,7 +6441,7 @@
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="14"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -6452,7 +6453,7 @@
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="14"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -6464,7 +6465,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="14"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -6476,7 +6477,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="14"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -6488,7 +6489,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="14"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -6500,7 +6501,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="14"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -6512,7 +6513,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="14"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -6524,7 +6525,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="14"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -6536,7 +6537,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="14"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -6548,7 +6549,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="14"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -6560,7 +6561,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="14"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -6572,7 +6573,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="14"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -6584,7 +6585,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="14"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -6596,7 +6597,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" s="14"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -6608,7 +6609,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" s="14"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -6620,7 +6621,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" s="14"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -6632,7 +6633,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" s="14"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -6644,7 +6645,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" s="14"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -6656,7 +6657,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" s="14"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -6668,7 +6669,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" s="14"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -6680,7 +6681,7 @@
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" s="14"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -6692,7 +6693,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" s="14"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -6704,7 +6705,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" s="14"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -6716,7 +6717,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="14"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -6728,7 +6729,7 @@
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" s="14"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -6740,7 +6741,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" s="14"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -6752,7 +6753,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" s="14"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -6764,7 +6765,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" s="14"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -6776,7 +6777,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" s="14"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -6788,7 +6789,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" s="14"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -6800,7 +6801,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" s="14"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -6812,7 +6813,7 @@
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" s="14"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -6824,7 +6825,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" s="14"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -6836,7 +6837,7 @@
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" s="14"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -6848,7 +6849,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" s="14"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -6860,7 +6861,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" s="14"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -6872,7 +6873,7 @@
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" s="14"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -6884,7 +6885,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" s="14"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -6896,7 +6897,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" s="14"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -6908,7 +6909,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" s="14"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -6920,7 +6921,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" s="14"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -6932,7 +6933,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" s="14"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -6944,7 +6945,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" s="14"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -6956,7 +6957,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" s="14"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -6968,7 +6969,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" s="14"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -6980,7 +6981,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" s="14"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -6992,7 +6993,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" s="14"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -7004,7 +7005,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" s="14"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -7016,7 +7017,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" s="14"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -7028,7 +7029,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" s="14"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -7040,7 +7041,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="14"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -7052,7 +7053,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="14"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -7064,7 +7065,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" s="14"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -7076,7 +7077,7 @@
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" s="14"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -7088,7 +7089,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="14"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -7100,7 +7101,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="14"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -7112,7 +7113,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" s="14"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -7124,7 +7125,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" s="14"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -7136,7 +7137,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" s="14"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -7148,7 +7149,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" s="14"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -7160,7 +7161,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" s="14"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -7172,7 +7173,7 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" s="14"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -7184,7 +7185,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" s="14"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -7196,7 +7197,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" s="14"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -7208,7 +7209,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" s="14"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -7220,7 +7221,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" s="14"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -7232,7 +7233,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="14"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -7244,7 +7245,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="14"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -7256,7 +7257,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" s="14"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -7268,7 +7269,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" s="14"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -7280,7 +7281,7 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" s="14"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -7292,7 +7293,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" s="14"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -7304,7 +7305,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="14"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -7316,7 +7317,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" s="14"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -7328,7 +7329,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" s="14"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -7340,7 +7341,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" s="14"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -7352,7 +7353,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" s="14"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -7364,7 +7365,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" s="14"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -7376,7 +7377,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" s="14"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -7388,7 +7389,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="14"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -7400,7 +7401,7 @@
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="14"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -7412,7 +7413,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="14"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -7424,7 +7425,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="14"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -7436,7 +7437,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="14"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -7448,7 +7449,7 @@
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="14"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -7460,7 +7461,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="14"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -7472,7 +7473,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="14"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -7484,7 +7485,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="14"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -7496,7 +7497,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" s="14"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -7508,7 +7509,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" s="14"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -7520,7 +7521,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" s="14"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -7532,7 +7533,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" s="14"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -7544,7 +7545,7 @@
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" s="14"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -7556,7 +7557,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" s="14"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -7568,7 +7569,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" s="14"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -7580,7 +7581,7 @@
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" s="14"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -7592,7 +7593,7 @@
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" s="14"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -7604,7 +7605,7 @@
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" s="14"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -7616,7 +7617,7 @@
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" s="14"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -7628,7 +7629,7 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" s="14"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -7640,7 +7641,7 @@
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" s="14"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -7652,7 +7653,7 @@
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" s="14"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -7664,7 +7665,7 @@
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" s="14"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -7676,7 +7677,7 @@
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" s="14"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -7688,7 +7689,7 @@
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="14"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -7700,7 +7701,7 @@
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" s="14"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -7712,7 +7713,7 @@
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" s="14"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -7724,7 +7725,7 @@
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" s="14"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -7736,7 +7737,7 @@
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" s="14"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -7748,7 +7749,7 @@
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" s="14"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -7760,7 +7761,7 @@
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" s="14"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -7772,7 +7773,7 @@
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" s="14"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -7784,7 +7785,7 @@
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" s="14"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -7796,7 +7797,7 @@
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" s="14"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -7808,7 +7809,7 @@
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" s="14"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -7820,7 +7821,7 @@
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" s="14"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -7832,7 +7833,7 @@
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" s="14"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -7844,7 +7845,7 @@
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" s="14"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -7856,7 +7857,7 @@
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" s="14"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -7868,7 +7869,7 @@
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" s="14"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -7880,7 +7881,7 @@
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" s="14"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -7892,7 +7893,7 @@
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" s="14"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -7904,7 +7905,7 @@
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" s="14"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -7916,7 +7917,7 @@
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" s="14"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -7928,7 +7929,7 @@
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" s="14"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -7940,7 +7941,7 @@
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" s="14"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -7952,7 +7953,7 @@
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" s="14"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -7964,7 +7965,7 @@
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" s="14"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -7976,7 +7977,7 @@
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" s="14"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -7988,7 +7989,7 @@
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" s="14"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -8000,7 +8001,7 @@
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" s="14"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -8012,7 +8013,7 @@
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" s="14"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -8024,7 +8025,7 @@
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" s="14"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -8036,7 +8037,7 @@
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" s="14"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -8048,7 +8049,7 @@
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" s="14"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -8060,7 +8061,7 @@
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A592" s="14"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -8072,7 +8073,7 @@
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A593" s="14"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -8084,7 +8085,7 @@
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A594" s="14"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -8096,7 +8097,7 @@
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A595" s="14"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -8108,7 +8109,7 @@
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A596" s="14"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -8120,7 +8121,7 @@
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A597" s="14"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -8132,7 +8133,7 @@
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A598" s="14"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -8144,7 +8145,7 @@
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A599" s="14"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -8156,7 +8157,7 @@
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A600" s="14"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -8168,7 +8169,7 @@
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A601" s="14"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -8180,7 +8181,7 @@
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A602" s="14"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -8192,7 +8193,7 @@
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A603" s="14"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -8204,7 +8205,7 @@
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A604" s="14"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -8216,7 +8217,7 @@
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A605" s="14"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -8228,7 +8229,7 @@
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A606" s="14"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -8240,7 +8241,7 @@
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A607" s="14"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -8252,7 +8253,7 @@
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A608" s="14"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -8264,7 +8265,7 @@
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A609" s="14"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -8276,7 +8277,7 @@
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A610" s="14"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -8288,7 +8289,7 @@
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A611" s="14"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -8300,7 +8301,7 @@
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612" s="14"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -8312,7 +8313,7 @@
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A613" s="14"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -8324,7 +8325,7 @@
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A614" s="14"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -8336,7 +8337,7 @@
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A615" s="14"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -8348,7 +8349,7 @@
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A616" s="14"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -8360,7 +8361,7 @@
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A617" s="14"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -8372,7 +8373,7 @@
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A618" s="14"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -8384,7 +8385,7 @@
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A619" s="14"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -8396,7 +8397,7 @@
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A620" s="14"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -8408,7 +8409,7 @@
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A621" s="14"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -8420,7 +8421,7 @@
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A622" s="14"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -8432,7 +8433,7 @@
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A623" s="14"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -8444,7 +8445,7 @@
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A624" s="14"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -8456,7 +8457,7 @@
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" s="14"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -8468,7 +8469,7 @@
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" s="14"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -8480,7 +8481,7 @@
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" s="14"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -8492,7 +8493,7 @@
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" s="14"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -8504,7 +8505,7 @@
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" s="14"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -8516,7 +8517,7 @@
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" s="14"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -8528,7 +8529,7 @@
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" s="14"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -8540,7 +8541,7 @@
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" s="14"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -8552,7 +8553,7 @@
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" s="14"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -8564,7 +8565,7 @@
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" s="14"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -8576,7 +8577,7 @@
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" s="14"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -8588,7 +8589,7 @@
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" s="14"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -8600,7 +8601,7 @@
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" s="14"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -8612,7 +8613,7 @@
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" s="14"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -8624,7 +8625,7 @@
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" s="14"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -8636,7 +8637,7 @@
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" s="14"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -8648,7 +8649,7 @@
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A641" s="14"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -8660,7 +8661,7 @@
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A642" s="14"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -8672,7 +8673,7 @@
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A643" s="14"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -8684,7 +8685,7 @@
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A644" s="14"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -8696,7 +8697,7 @@
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A645" s="14"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -8708,7 +8709,7 @@
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A646" s="14"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -8720,7 +8721,7 @@
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A647" s="14"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -8732,7 +8733,7 @@
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A648" s="14"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -8744,7 +8745,7 @@
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A649" s="14"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -8756,7 +8757,7 @@
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A650" s="14"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -8768,7 +8769,7 @@
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A651" s="14"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -8780,7 +8781,7 @@
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A652" s="14"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -8792,7 +8793,7 @@
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A653" s="14"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -8804,7 +8805,7 @@
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A654" s="14"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -8816,7 +8817,7 @@
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A655" s="14"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -8828,7 +8829,7 @@
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A656" s="14"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -8840,7 +8841,7 @@
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A657" s="14"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -8852,7 +8853,7 @@
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A658" s="14"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -8864,7 +8865,7 @@
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A659" s="14"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -8876,7 +8877,7 @@
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A660" s="14"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -8888,7 +8889,7 @@
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A661" s="14"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -8900,7 +8901,7 @@
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A662" s="14"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -8912,7 +8913,7 @@
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A663" s="14"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -8924,7 +8925,7 @@
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A664" s="14"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -8936,7 +8937,7 @@
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A665" s="14"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -8948,7 +8949,7 @@
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A666" s="14"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -8960,7 +8961,7 @@
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A667" s="14"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -8972,7 +8973,7 @@
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A668" s="14"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -8984,7 +8985,7 @@
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A669" s="14"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -8996,7 +8997,7 @@
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A670" s="14"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -9008,7 +9009,7 @@
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A671" s="14"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -9020,7 +9021,7 @@
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A672" s="14"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -9032,7 +9033,7 @@
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A673" s="14"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -9044,7 +9045,7 @@
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A674" s="14"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -9056,7 +9057,7 @@
       <c r="I674" s="3"/>
       <c r="J674" s="3"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A675" s="14"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -9068,7 +9069,7 @@
       <c r="I675" s="3"/>
       <c r="J675" s="3"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A676" s="14"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -9080,7 +9081,7 @@
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A677" s="14"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -9092,7 +9093,7 @@
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A678" s="14"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -9104,7 +9105,7 @@
       <c r="I678" s="3"/>
       <c r="J678" s="3"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A679" s="14"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -9116,7 +9117,7 @@
       <c r="I679" s="3"/>
       <c r="J679" s="3"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A680" s="14"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -9128,7 +9129,7 @@
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A681" s="14"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -9140,7 +9141,7 @@
       <c r="I681" s="3"/>
       <c r="J681" s="3"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A682" s="14"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -9152,7 +9153,7 @@
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A683" s="14"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -9164,7 +9165,7 @@
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A684" s="14"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -9176,7 +9177,7 @@
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A685" s="14"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -9188,7 +9189,7 @@
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A686" s="14"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -9200,7 +9201,7 @@
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A687" s="14"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -9212,7 +9213,7 @@
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A688" s="14"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -9224,7 +9225,7 @@
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A689" s="14"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -9236,7 +9237,7 @@
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A690" s="14"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -9248,7 +9249,7 @@
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A691" s="14"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -9260,7 +9261,7 @@
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A692" s="14"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -9272,7 +9273,7 @@
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A693" s="14"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -9284,7 +9285,7 @@
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A694" s="14"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -9296,7 +9297,7 @@
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A695" s="14"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -9308,7 +9309,7 @@
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A696" s="14"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -9320,7 +9321,7 @@
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A697" s="14"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -9332,7 +9333,7 @@
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A698" s="14"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -9344,7 +9345,7 @@
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A699" s="14"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -9356,7 +9357,7 @@
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A700" s="14"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -9368,7 +9369,7 @@
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A701" s="14"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -9380,7 +9381,7 @@
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A702" s="14"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -9392,7 +9393,7 @@
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A703" s="14"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -9404,7 +9405,7 @@
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A704" s="14"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -9416,7 +9417,7 @@
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A705" s="14"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -9428,7 +9429,7 @@
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A706" s="14"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -9440,7 +9441,7 @@
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A707" s="14"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -9452,7 +9453,7 @@
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A708" s="14"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -9464,7 +9465,7 @@
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A709" s="14"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -9476,7 +9477,7 @@
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A710" s="14"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -9488,7 +9489,7 @@
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A711" s="14"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -9500,7 +9501,7 @@
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A712" s="14"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -9512,7 +9513,7 @@
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A713" s="14"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -9524,7 +9525,7 @@
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A714" s="14"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -9536,7 +9537,7 @@
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A715" s="14"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -9548,7 +9549,7 @@
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A716" s="14"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -9560,7 +9561,7 @@
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A717" s="14"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -9572,7 +9573,7 @@
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A718" s="14"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -9584,7 +9585,7 @@
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A719" s="14"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -9596,7 +9597,7 @@
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A720" s="14"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -9608,7 +9609,7 @@
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A721" s="14"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -9620,7 +9621,7 @@
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A722" s="14"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -9632,7 +9633,7 @@
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A723" s="14"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -9644,7 +9645,7 @@
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A724" s="14"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -9656,7 +9657,7 @@
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A725" s="14"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -9668,7 +9669,7 @@
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A726" s="14"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -9680,7 +9681,7 @@
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A727" s="14"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -9692,7 +9693,7 @@
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A728" s="14"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -9704,7 +9705,7 @@
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A729" s="14"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -9716,7 +9717,7 @@
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A730" s="14"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -9728,7 +9729,7 @@
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A731" s="14"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -9740,7 +9741,7 @@
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A732" s="14"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -9752,7 +9753,7 @@
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A733" s="14"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -9764,7 +9765,7 @@
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A734" s="14"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -9776,7 +9777,7 @@
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A735" s="14"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -9788,7 +9789,7 @@
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A736" s="14"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -9800,7 +9801,7 @@
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A737" s="14"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -9812,7 +9813,7 @@
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A738" s="14"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -9824,7 +9825,7 @@
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A739" s="14"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -9836,7 +9837,7 @@
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A740" s="14"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -9848,7 +9849,7 @@
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A741" s="14"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -9860,7 +9861,7 @@
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A742" s="14"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -9872,7 +9873,7 @@
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A743" s="14"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -9884,7 +9885,7 @@
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A744" s="14"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -9896,7 +9897,7 @@
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A745" s="14"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -9908,7 +9909,7 @@
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A746" s="14"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -9920,7 +9921,7 @@
       <c r="I746" s="3"/>
       <c r="J746" s="3"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A747" s="14"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -9932,7 +9933,7 @@
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A748" s="14"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -9944,7 +9945,7 @@
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A749" s="14"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -9956,7 +9957,7 @@
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A750" s="14"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -9968,7 +9969,7 @@
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A751" s="14"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -9980,7 +9981,7 @@
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A752" s="14"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -9992,7 +9993,7 @@
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A753" s="14"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -10004,7 +10005,7 @@
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A754" s="14"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -10016,7 +10017,7 @@
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A755" s="14"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -10028,7 +10029,7 @@
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A756" s="14"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -10040,7 +10041,7 @@
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A757" s="14"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -10052,7 +10053,7 @@
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A758" s="14"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -10064,7 +10065,7 @@
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A759" s="14"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -10076,7 +10077,7 @@
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A760" s="14"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -10088,7 +10089,7 @@
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A761" s="14"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -10100,7 +10101,7 @@
       <c r="I761" s="3"/>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A762" s="14"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -10112,7 +10113,7 @@
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A763" s="14"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -10124,7 +10125,7 @@
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A764" s="14"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -10136,7 +10137,7 @@
       <c r="I764" s="3"/>
       <c r="J764" s="3"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A765" s="14"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -10148,7 +10149,7 @@
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A766" s="14"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -10160,7 +10161,7 @@
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A767" s="14"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -10172,7 +10173,7 @@
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A768" s="14"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -10184,7 +10185,7 @@
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A769" s="14"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -10196,7 +10197,7 @@
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A770" s="14"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -10208,7 +10209,7 @@
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A771" s="14"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -10220,7 +10221,7 @@
       <c r="I771" s="3"/>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A772" s="14"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -10232,7 +10233,7 @@
       <c r="I772" s="3"/>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A773" s="14"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -10244,7 +10245,7 @@
       <c r="I773" s="3"/>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A774" s="14"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -10256,7 +10257,7 @@
       <c r="I774" s="3"/>
       <c r="J774" s="3"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A775" s="14"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -10268,7 +10269,7 @@
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A776" s="14"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -10280,7 +10281,7 @@
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A777" s="14"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -10292,7 +10293,7 @@
       <c r="I777" s="3"/>
       <c r="J777" s="3"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A778" s="14"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -10304,7 +10305,7 @@
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A779" s="14"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -10316,7 +10317,7 @@
       <c r="I779" s="3"/>
       <c r="J779" s="3"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A780" s="14"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -10328,7 +10329,7 @@
       <c r="I780" s="3"/>
       <c r="J780" s="3"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A781" s="14"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -10340,7 +10341,7 @@
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A782" s="14"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -10352,7 +10353,7 @@
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A783" s="14"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -10364,7 +10365,7 @@
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A784" s="14"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -10376,7 +10377,7 @@
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A785" s="14"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -10388,7 +10389,7 @@
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A786" s="14"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -10400,7 +10401,7 @@
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A787" s="14"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -10412,7 +10413,7 @@
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A788" s="14"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -10424,7 +10425,7 @@
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A789" s="14"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -10436,7 +10437,7 @@
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A790" s="14"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -10448,7 +10449,7 @@
       <c r="I790" s="3"/>
       <c r="J790" s="3"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A791" s="14"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -10460,7 +10461,7 @@
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A792" s="14"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -10472,7 +10473,7 @@
       <c r="I792" s="3"/>
       <c r="J792" s="3"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A793" s="14"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -10484,7 +10485,7 @@
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A794" s="14"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -10496,7 +10497,7 @@
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A795" s="14"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -10508,7 +10509,7 @@
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A796" s="14"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -10520,7 +10521,7 @@
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A797" s="14"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -10532,7 +10533,7 @@
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A798" s="14"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -10544,7 +10545,7 @@
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A799" s="14"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -10556,7 +10557,7 @@
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A800" s="14"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -10568,7 +10569,7 @@
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A801" s="14"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -10580,7 +10581,7 @@
       <c r="I801" s="3"/>
       <c r="J801" s="3"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A802" s="14"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -10592,7 +10593,7 @@
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A803" s="14"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -10604,7 +10605,7 @@
       <c r="I803" s="3"/>
       <c r="J803" s="3"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A804" s="14"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -10616,7 +10617,7 @@
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A805" s="14"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -10628,7 +10629,7 @@
       <c r="I805" s="3"/>
       <c r="J805" s="3"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A806" s="14"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -10640,7 +10641,7 @@
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A807" s="14"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -10652,7 +10653,7 @@
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A808" s="14"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -10664,7 +10665,7 @@
       <c r="I808" s="3"/>
       <c r="J808" s="3"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A809" s="14"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -10676,7 +10677,7 @@
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A810" s="14"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -10688,7 +10689,7 @@
       <c r="I810" s="3"/>
       <c r="J810" s="3"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A811" s="14"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -10700,7 +10701,7 @@
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A812" s="14"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -10712,7 +10713,7 @@
       <c r="I812" s="3"/>
       <c r="J812" s="3"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A813" s="14"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -10724,7 +10725,7 @@
       <c r="I813" s="3"/>
       <c r="J813" s="3"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A814" s="14"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -10736,7 +10737,7 @@
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A815" s="14"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -10748,7 +10749,7 @@
       <c r="I815" s="3"/>
       <c r="J815" s="3"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A816" s="14"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -10760,7 +10761,7 @@
       <c r="I816" s="3"/>
       <c r="J816" s="3"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A817" s="14"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -10772,7 +10773,7 @@
       <c r="I817" s="3"/>
       <c r="J817" s="3"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A818" s="14"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -10784,7 +10785,7 @@
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A819" s="14"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -10796,7 +10797,7 @@
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A820" s="14"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -10808,7 +10809,7 @@
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A821" s="14"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -10820,7 +10821,7 @@
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A822" s="14"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -10832,7 +10833,7 @@
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A823" s="14"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -10844,7 +10845,7 @@
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A824" s="14"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -10856,7 +10857,7 @@
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A825" s="14"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -10868,7 +10869,7 @@
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A826" s="14"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -10880,7 +10881,7 @@
       <c r="I826" s="3"/>
       <c r="J826" s="3"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A827" s="14"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -10892,7 +10893,7 @@
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A828" s="14"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -10904,7 +10905,7 @@
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A829" s="14"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -10916,7 +10917,7 @@
       <c r="I829" s="3"/>
       <c r="J829" s="3"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A830" s="14"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -10928,7 +10929,7 @@
       <c r="I830" s="3"/>
       <c r="J830" s="3"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A831" s="14"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -10940,7 +10941,7 @@
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A832" s="14"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -10952,7 +10953,7 @@
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A833" s="14"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -10964,7 +10965,7 @@
       <c r="I833" s="3"/>
       <c r="J833" s="3"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A834" s="14"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -10976,7 +10977,7 @@
       <c r="I834" s="3"/>
       <c r="J834" s="3"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A835" s="14"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -10988,7 +10989,7 @@
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A836" s="14"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -11000,7 +11001,7 @@
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A837" s="14"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -11012,7 +11013,7 @@
       <c r="I837" s="3"/>
       <c r="J837" s="3"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A838" s="14"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -11024,7 +11025,7 @@
       <c r="I838" s="3"/>
       <c r="J838" s="3"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A839" s="14"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -11036,7 +11037,7 @@
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A840" s="14"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -11048,7 +11049,7 @@
       <c r="I840" s="3"/>
       <c r="J840" s="3"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A841" s="14"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -11060,7 +11061,7 @@
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A842" s="14"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -11072,7 +11073,7 @@
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A843" s="14"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -11084,7 +11085,7 @@
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A844" s="14"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -11096,7 +11097,7 @@
       <c r="I844" s="3"/>
       <c r="J844" s="3"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A845" s="14"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -11108,7 +11109,7 @@
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A846" s="14"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -11120,7 +11121,7 @@
       <c r="I846" s="3"/>
       <c r="J846" s="3"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A847" s="14"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -11132,7 +11133,7 @@
       <c r="I847" s="3"/>
       <c r="J847" s="3"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A848" s="14"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -11144,7 +11145,7 @@
       <c r="I848" s="3"/>
       <c r="J848" s="3"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A849" s="14"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -11156,7 +11157,7 @@
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A850" s="14"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -11168,7 +11169,7 @@
       <c r="I850" s="3"/>
       <c r="J850" s="3"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A851" s="14"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -11180,7 +11181,7 @@
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A852" s="14"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -11192,7 +11193,7 @@
       <c r="I852" s="3"/>
       <c r="J852" s="3"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A853" s="14"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -11204,7 +11205,7 @@
       <c r="I853" s="3"/>
       <c r="J853" s="3"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A854" s="14"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -11216,7 +11217,7 @@
       <c r="I854" s="3"/>
       <c r="J854" s="3"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A855" s="14"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -11228,7 +11229,7 @@
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A856" s="14"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -11240,7 +11241,7 @@
       <c r="I856" s="3"/>
       <c r="J856" s="3"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A857" s="14"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -11252,7 +11253,7 @@
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A858" s="14"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -11264,7 +11265,7 @@
       <c r="I858" s="3"/>
       <c r="J858" s="3"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A859" s="14"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -11276,7 +11277,7 @@
       <c r="I859" s="3"/>
       <c r="J859" s="3"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A860" s="14"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -11288,7 +11289,7 @@
       <c r="I860" s="3"/>
       <c r="J860" s="3"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A861" s="14"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -11300,7 +11301,7 @@
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A862" s="14"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -11312,7 +11313,7 @@
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A863" s="14"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -11324,7 +11325,7 @@
       <c r="I863" s="3"/>
       <c r="J863" s="3"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A864" s="14"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -11336,7 +11337,7 @@
       <c r="I864" s="3"/>
       <c r="J864" s="3"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A865" s="14"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -11348,7 +11349,7 @@
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A866" s="14"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -11360,7 +11361,7 @@
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A867" s="14"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -11372,7 +11373,7 @@
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A868" s="14"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -11384,7 +11385,7 @@
       <c r="I868" s="3"/>
       <c r="J868" s="3"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A869" s="14"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -11396,7 +11397,7 @@
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A870" s="14"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -11408,7 +11409,7 @@
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A871" s="14"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -11420,7 +11421,7 @@
       <c r="I871" s="3"/>
       <c r="J871" s="3"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A872" s="14"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -11432,7 +11433,7 @@
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A873" s="14"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -11444,7 +11445,7 @@
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A874" s="14"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -11456,7 +11457,7 @@
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A875" s="14"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -11468,7 +11469,7 @@
       <c r="I875" s="3"/>
       <c r="J875" s="3"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A876" s="14"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -11480,7 +11481,7 @@
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A877" s="14"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -11492,7 +11493,7 @@
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A878" s="14"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -11504,7 +11505,7 @@
       <c r="I878" s="3"/>
       <c r="J878" s="3"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A879" s="14"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -11516,7 +11517,7 @@
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A880" s="14"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -11528,7 +11529,7 @@
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A881" s="14"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -11540,7 +11541,7 @@
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A882" s="14"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -11552,7 +11553,7 @@
       <c r="I882" s="3"/>
       <c r="J882" s="3"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A883" s="14"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -11564,7 +11565,7 @@
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A884" s="14"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -11576,7 +11577,7 @@
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A885" s="14"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -11588,7 +11589,7 @@
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A886" s="14"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -11600,7 +11601,7 @@
       <c r="I886" s="3"/>
       <c r="J886" s="3"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A887" s="14"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -11612,7 +11613,7 @@
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A888" s="14"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -11624,7 +11625,7 @@
       <c r="I888" s="3"/>
       <c r="J888" s="3"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A889" s="14"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -11636,7 +11637,7 @@
       <c r="I889" s="3"/>
       <c r="J889" s="3"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A890" s="14"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -11648,7 +11649,7 @@
       <c r="I890" s="3"/>
       <c r="J890" s="3"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A891" s="14"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -11660,7 +11661,7 @@
       <c r="I891" s="3"/>
       <c r="J891" s="3"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A892" s="14"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -11672,7 +11673,7 @@
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A893" s="14"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -11684,7 +11685,7 @@
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A894" s="14"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -11696,7 +11697,7 @@
       <c r="I894" s="3"/>
       <c r="J894" s="3"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A895" s="14"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -11708,7 +11709,7 @@
       <c r="I895" s="3"/>
       <c r="J895" s="3"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A896" s="14"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -11720,7 +11721,7 @@
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A897" s="14"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -11732,7 +11733,7 @@
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A898" s="14"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -11744,7 +11745,7 @@
       <c r="I898" s="3"/>
       <c r="J898" s="3"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A899" s="14"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -11756,7 +11757,7 @@
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A900" s="14"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -11768,7 +11769,7 @@
       <c r="I900" s="3"/>
       <c r="J900" s="3"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A901" s="14"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -11780,7 +11781,7 @@
       <c r="I901" s="3"/>
       <c r="J901" s="3"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A902" s="14"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -11792,7 +11793,7 @@
       <c r="I902" s="3"/>
       <c r="J902" s="3"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A903" s="14"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -11804,7 +11805,7 @@
       <c r="I903" s="3"/>
       <c r="J903" s="3"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A904" s="14"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -11816,7 +11817,7 @@
       <c r="I904" s="3"/>
       <c r="J904" s="3"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A905" s="14"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -11828,7 +11829,7 @@
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A906" s="14"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -11840,7 +11841,7 @@
       <c r="I906" s="3"/>
       <c r="J906" s="3"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A907" s="14"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -11852,7 +11853,7 @@
       <c r="I907" s="3"/>
       <c r="J907" s="3"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A908" s="14"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -11864,7 +11865,7 @@
       <c r="I908" s="3"/>
       <c r="J908" s="3"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A909" s="14"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -11876,7 +11877,7 @@
       <c r="I909" s="3"/>
       <c r="J909" s="3"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A910" s="14"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -11888,7 +11889,7 @@
       <c r="I910" s="3"/>
       <c r="J910" s="3"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A911" s="14"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -11900,7 +11901,7 @@
       <c r="I911" s="3"/>
       <c r="J911" s="3"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A912" s="14"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -11912,7 +11913,7 @@
       <c r="I912" s="3"/>
       <c r="J912" s="3"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A913" s="14"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -11924,7 +11925,7 @@
       <c r="I913" s="3"/>
       <c r="J913" s="3"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A914" s="14"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -11936,7 +11937,7 @@
       <c r="I914" s="3"/>
       <c r="J914" s="3"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A915" s="14"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -11948,7 +11949,7 @@
       <c r="I915" s="3"/>
       <c r="J915" s="3"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A916" s="14"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -11960,7 +11961,7 @@
       <c r="I916" s="3"/>
       <c r="J916" s="3"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A917" s="14"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -11972,7 +11973,7 @@
       <c r="I917" s="3"/>
       <c r="J917" s="3"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A918" s="14"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -11984,7 +11985,7 @@
       <c r="I918" s="3"/>
       <c r="J918" s="3"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A919" s="14"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -11996,7 +11997,7 @@
       <c r="I919" s="3"/>
       <c r="J919" s="3"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A920" s="14"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -12008,7 +12009,7 @@
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A921" s="14"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -12020,7 +12021,7 @@
       <c r="I921" s="3"/>
       <c r="J921" s="3"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A922" s="14"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -12032,7 +12033,7 @@
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A923" s="14"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -12044,7 +12045,7 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A924" s="14"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -12056,7 +12057,7 @@
       <c r="I924" s="3"/>
       <c r="J924" s="3"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A925" s="14"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -12068,7 +12069,7 @@
       <c r="I925" s="3"/>
       <c r="J925" s="3"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A926" s="14"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -12080,7 +12081,7 @@
       <c r="I926" s="3"/>
       <c r="J926" s="3"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A927" s="14"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -12092,7 +12093,7 @@
       <c r="I927" s="3"/>
       <c r="J927" s="3"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A928" s="14"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -12104,7 +12105,7 @@
       <c r="I928" s="3"/>
       <c r="J928" s="3"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A929" s="14"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -12116,7 +12117,7 @@
       <c r="I929" s="3"/>
       <c r="J929" s="3"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A930" s="14"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -12128,7 +12129,7 @@
       <c r="I930" s="3"/>
       <c r="J930" s="3"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A931" s="14"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -12140,7 +12141,7 @@
       <c r="I931" s="3"/>
       <c r="J931" s="3"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A932" s="14"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -12152,7 +12153,7 @@
       <c r="I932" s="3"/>
       <c r="J932" s="3"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A933" s="14"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -12164,7 +12165,7 @@
       <c r="I933" s="3"/>
       <c r="J933" s="3"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A934" s="14"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -12176,7 +12177,7 @@
       <c r="I934" s="3"/>
       <c r="J934" s="3"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A935" s="14"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -12188,7 +12189,7 @@
       <c r="I935" s="3"/>
       <c r="J935" s="3"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A936" s="14"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -12200,7 +12201,7 @@
       <c r="I936" s="3"/>
       <c r="J936" s="3"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A937" s="14"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -12212,7 +12213,7 @@
       <c r="I937" s="3"/>
       <c r="J937" s="3"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A938" s="14"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -12224,7 +12225,7 @@
       <c r="I938" s="3"/>
       <c r="J938" s="3"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A939" s="14"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -12236,7 +12237,7 @@
       <c r="I939" s="3"/>
       <c r="J939" s="3"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A940" s="14"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -12248,7 +12249,7 @@
       <c r="I940" s="3"/>
       <c r="J940" s="3"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A941" s="14"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -12260,7 +12261,7 @@
       <c r="I941" s="3"/>
       <c r="J941" s="3"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A942" s="14"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -12272,7 +12273,7 @@
       <c r="I942" s="3"/>
       <c r="J942" s="3"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A943" s="14"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -12284,7 +12285,7 @@
       <c r="I943" s="3"/>
       <c r="J943" s="3"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A944" s="14"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -12296,7 +12297,7 @@
       <c r="I944" s="3"/>
       <c r="J944" s="3"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A945" s="14"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -12308,7 +12309,7 @@
       <c r="I945" s="3"/>
       <c r="J945" s="3"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A946" s="14"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -12320,7 +12321,7 @@
       <c r="I946" s="3"/>
       <c r="J946" s="3"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A947" s="14"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -12332,7 +12333,7 @@
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A948" s="14"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -12344,7 +12345,7 @@
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A949" s="14"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -12356,7 +12357,7 @@
       <c r="I949" s="3"/>
       <c r="J949" s="3"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A950" s="14"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -12368,7 +12369,7 @@
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A951" s="14"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -12380,7 +12381,7 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A952" s="14"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -12392,7 +12393,7 @@
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A953" s="14"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -12404,7 +12405,7 @@
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A954" s="14"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -12416,7 +12417,7 @@
       <c r="I954" s="3"/>
       <c r="J954" s="3"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A955" s="14"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -12428,7 +12429,7 @@
       <c r="I955" s="3"/>
       <c r="J955" s="3"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A956" s="14"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5AA3E-8760-40D3-96C0-C89FFA2D31A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB3E27-BF38-4ED8-BC1D-766B7ABAD276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -223,6 +223,9 @@
   <si>
     <t>Go fastR – how to make R code fast(er) and run it on high performance compute (HPC) clusters</t>
   </si>
+  <si>
+    <t>Causal thinking in clinical trials</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +364,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -395,7 +398,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -695,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L956"/>
+  <dimension ref="A1:L957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,27 +752,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="str">
-        <f>"06.12.2023"</f>
-        <v>06.12.2023</v>
+        <f>"12.02.2024"</f>
+        <v>12.02.2024</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -784,200 +779,198 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="str">
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="str">
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="str">
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="10"/>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="str">
+    <row r="7" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
+      <c r="H7" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="str">
+      <c r="K9" s="17"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="str">
-        <f t="shared" ref="A10:A12" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>36</v>
@@ -986,17 +979,17 @@
         <v>9</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A13" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B11" s="4"/>
@@ -1004,7 +997,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>36</v>
@@ -1013,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="3"/>
@@ -1031,7 +1024,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>36</v>
@@ -1040,67 +1033,69 @@
         <v>9</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4">
-        <v>1</v>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>13</v>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>11</v>
+      <c r="I13" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
+      <c r="J13" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K13" s="17"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
+      <c r="G14" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>16</v>
+      <c r="I14" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1110,49 +1105,53 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="H16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
@@ -1161,38 +1160,47 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1271,11 +1279,11 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1286,8 +1294,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1303,6 +1311,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1314,7 +1323,6 @@
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1337,8 +1345,8 @@
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1349,7 +1357,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32"/>
     </row>
@@ -1360,9 +1368,9 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="16"/>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1372,8 +1380,8 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34"/>
     </row>
@@ -1386,7 +1394,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="6"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="6"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1408,9 +1416,9 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1422,7 +1430,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="16"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="6"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1432,34 +1440,34 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="4"/>
+      <c r="J40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="1"/>
-      <c r="J41"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
@@ -1519,7 +1527,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
@@ -1539,7 +1547,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="1"/>
@@ -1571,8 +1579,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2"/>
@@ -1619,8 +1627,8 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
@@ -1631,8 +1639,8 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
@@ -1727,8 +1735,8 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="13"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
@@ -3094,16 +3102,16 @@
       <c r="J177" s="1"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A178" s="14"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="3"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="2"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
@@ -12441,6 +12449,18 @@
       <c r="I956" s="3"/>
       <c r="J956" s="3"/>
     </row>
+    <row r="957" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A957" s="14"/>
+      <c r="B957" s="9"/>
+      <c r="C957" s="9"/>
+      <c r="D957" s="5"/>
+      <c r="E957" s="5"/>
+      <c r="F957" s="3"/>
+      <c r="G957" s="5"/>
+      <c r="H957" s="5"/>
+      <c r="I957" s="3"/>
+      <c r="J957" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\BBS\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB3E27-BF38-4ED8-BC1D-766B7ABAD276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A66771-BD1E-4DC3-8009-ACEEDD372677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -226,6 +226,9 @@
   <si>
     <t>Causal thinking in clinical trials</t>
   </si>
+  <si>
+    <t>Do you speak statistics? - How do you work as a statistician in a cross-functional team?</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +367,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -398,7 +401,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -698,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L957"/>
+  <dimension ref="A1:L958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,46 +753,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="str">
+        <f>"17.12.2024"</f>
+        <v>17.12.2024</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="str">
         <f>"12.02.2024"</f>
         <v>12.02.2024</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="str">
-        <f>"06.12.2023"</f>
-        <v>06.12.2023</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -804,200 +800,198 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="str">
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="str">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="1">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="str">
+    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10">
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="str">
+    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
+      <c r="I8" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="str">
+      <c r="K10" s="17"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="str">
-        <f t="shared" ref="A11:A13" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>36</v>
@@ -1006,17 +1000,17 @@
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A12:A14" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B12" s="4"/>
@@ -1024,7 +1018,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>36</v>
@@ -1033,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="3"/>
@@ -1051,7 +1045,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
@@ -1060,67 +1054,69 @@
         <v>9</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>4</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4">
-        <v>1</v>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>13</v>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>11</v>
+      <c r="I14" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>14</v>
+      <c r="J14" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K14" s="17"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
+      <c r="G15" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
+      <c r="I15" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1130,49 +1126,53 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="H17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1181,38 +1181,47 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1291,11 +1300,11 @@
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1306,8 +1315,8 @@
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1323,6 +1332,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1334,7 +1344,6 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1357,8 +1366,8 @@
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1369,7 +1378,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33"/>
     </row>
@@ -1380,9 +1389,9 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="16"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1392,8 +1401,8 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35"/>
     </row>
@@ -1406,7 +1415,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="6"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="6"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1428,9 +1437,9 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1442,7 +1451,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="16"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="6"/>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -1452,34 +1461,34 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="4"/>
+      <c r="J41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="1"/>
-      <c r="J42"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
@@ -1539,7 +1548,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
@@ -1559,7 +1568,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="1"/>
@@ -1591,8 +1600,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="2"/>
@@ -1639,8 +1648,8 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
@@ -1651,8 +1660,8 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="2"/>
@@ -1747,8 +1756,8 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
@@ -3114,16 +3123,16 @@
       <c r="J178" s="1"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A179" s="14"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="3"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="2"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
@@ -12461,6 +12470,18 @@
       <c r="I957" s="3"/>
       <c r="J957" s="3"/>
     </row>
+    <row r="958" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A958" s="14"/>
+      <c r="B958" s="9"/>
+      <c r="C958" s="9"/>
+      <c r="D958" s="5"/>
+      <c r="E958" s="5"/>
+      <c r="F958" s="3"/>
+      <c r="G958" s="5"/>
+      <c r="H958" s="5"/>
+      <c r="I958" s="3"/>
+      <c r="J958" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\BBS\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A66771-BD1E-4DC3-8009-ACEEDD372677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB75947-18CB-49DC-8EB3-94C4074A0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="4068" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>date</t>
   </si>
@@ -229,6 +229,9 @@
   <si>
     <t>Do you speak statistics? - How do you work as a statistician in a cross-functional team?</t>
   </si>
+  <si>
+    <t>Do You Speak Statistics</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +370,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -401,7 +404,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -701,27 +704,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L958"/>
+  <dimension ref="A1:L959"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="35.26953125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="40.81640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="38.54296875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="118.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="12" customWidth="1"/>
+    <col min="2" max="3" width="35.21875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="40.77734375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="118.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.453125" style="10"/>
+    <col min="11" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -753,67 +756,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
+        <f>"18.11.2025"</f>
+        <v>18.11.2025</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>"17.12.2024"</f>
         <v>17.12.2024</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="G3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="str">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="str">
         <f>"12.02.2024"</f>
         <v>12.02.2024</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="str">
-        <f>"06.12.2023"</f>
-        <v>06.12.2023</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>"06.12.2023"</f>
         <v>06.12.2023</v>
@@ -825,200 +820,198 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="str">
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="str">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="1">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="str">
+    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="10">
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="str">
+    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
+      <c r="H9" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="str">
+      <c r="K11" s="17"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="str">
-        <f t="shared" ref="A12:A14" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>36</v>
@@ -1027,17 +1020,17 @@
         <v>9</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A13:A15" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B13" s="4"/>
@@ -1045,7 +1038,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
@@ -1054,15 +1047,15 @@
         <v>9</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -1072,7 +1065,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
@@ -1081,67 +1074,69 @@
         <v>9</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>4</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4">
-        <v>1</v>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>13</v>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>11</v>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
+      <c r="J15" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="17"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
+      <c r="G16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
+      <c r="I16" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1151,49 +1146,53 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="H18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
@@ -1202,44 +1201,53 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1251,7 +1259,7 @@
       <c r="I22" s="6"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1263,7 +1271,7 @@
       <c r="I23" s="6"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1275,7 +1283,7 @@
       <c r="I24" s="6"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1287,7 +1295,7 @@
       <c r="I25" s="6"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1299,7 +1307,7 @@
       <c r="I26" s="6"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1311,31 +1319,31 @@
       <c r="I27" s="6"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1344,9 +1352,10 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1355,10 +1364,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1370,7 +1378,7 @@
       <c r="I32" s="6"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1378,11 +1386,11 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1390,35 +1398,35 @@
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="16"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1427,10 +1435,10 @@
       <c r="F37" s="4"/>
       <c r="G37" s="6"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="6"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1442,19 +1450,19 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1463,46 +1471,46 @@
       <c r="F40" s="4"/>
       <c r="G40" s="16"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="6"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G42" s="6"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="4"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1514,7 +1522,7 @@
       <c r="I44" s="1"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1526,7 +1534,7 @@
       <c r="I45" s="1"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1538,7 +1546,7 @@
       <c r="I46" s="1"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1550,7 +1558,7 @@
       <c r="I47" s="1"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1560,9 +1568,9 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1574,19 +1582,19 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1598,7 +1606,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1610,10 +1618,10 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="2"/>
@@ -1622,7 +1630,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1634,7 +1642,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1646,7 +1654,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1658,10 +1666,10 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="2"/>
@@ -1670,10 +1678,10 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
@@ -1682,7 +1690,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1694,7 +1702,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1706,7 +1714,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1718,7 +1726,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1730,7 +1738,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1742,7 +1750,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -1754,7 +1762,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -1766,10 +1774,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
@@ -1778,7 +1786,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1790,7 +1798,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1802,7 +1810,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1814,7 +1822,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1826,7 +1834,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1838,7 +1846,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1850,7 +1858,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1862,7 +1870,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1874,7 +1882,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1886,7 +1894,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1898,7 +1906,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1910,7 +1918,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1922,7 +1930,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1934,7 +1942,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1946,7 +1954,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1958,7 +1966,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1970,7 +1978,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1982,7 +1990,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1994,7 +2002,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2006,7 +2014,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2018,7 +2026,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2030,7 +2038,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2042,7 +2050,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2054,7 +2062,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2066,7 +2074,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2078,7 +2086,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2090,7 +2098,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2102,7 +2110,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2114,7 +2122,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2126,7 +2134,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2138,7 +2146,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2150,7 +2158,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2162,7 +2170,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2174,7 +2182,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2186,7 +2194,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2198,7 +2206,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2210,7 +2218,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2222,7 +2230,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2234,7 +2242,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2246,7 +2254,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2258,7 +2266,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2270,7 +2278,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2282,7 +2290,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2294,7 +2302,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2306,7 +2314,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2318,7 +2326,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2330,7 +2338,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2342,7 +2350,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2354,7 +2362,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2366,7 +2374,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2378,7 +2386,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2390,7 +2398,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2402,7 +2410,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2414,7 +2422,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2426,7 +2434,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2438,7 +2446,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2450,7 +2458,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2462,7 +2470,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2474,7 +2482,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2486,7 +2494,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2498,7 +2506,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2510,7 +2518,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2522,7 +2530,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2534,7 +2542,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2546,7 +2554,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2558,7 +2566,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2570,7 +2578,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2582,7 +2590,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2594,7 +2602,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2606,7 +2614,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2618,7 +2626,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2630,7 +2638,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2642,7 +2650,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2654,7 +2662,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2666,7 +2674,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2678,7 +2686,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2690,7 +2698,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2702,7 +2710,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2714,7 +2722,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2726,7 +2734,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2738,7 +2746,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2750,7 +2758,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2762,7 +2770,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2774,7 +2782,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2786,7 +2794,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2798,7 +2806,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2810,7 +2818,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2822,7 +2830,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2834,7 +2842,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2846,7 +2854,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2858,7 +2866,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2870,7 +2878,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2882,7 +2890,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2894,7 +2902,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2906,7 +2914,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2918,7 +2926,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2930,7 +2938,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2942,7 +2950,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2954,7 +2962,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2966,7 +2974,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2978,7 +2986,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2990,7 +2998,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -3002,7 +3010,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -3014,7 +3022,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -3026,7 +3034,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3038,7 +3046,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -3050,7 +3058,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -3062,7 +3070,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -3074,7 +3082,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -3086,7 +3094,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -3098,7 +3106,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -3110,7 +3118,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -3122,7 +3130,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -3134,19 +3142,19 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" s="14"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="3"/>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="2"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -3158,7 +3166,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3170,7 +3178,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -3182,7 +3190,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -3194,7 +3202,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="14"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -3206,7 +3214,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3218,7 +3226,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -3230,7 +3238,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="14"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -3242,7 +3250,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3254,7 +3262,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -3266,7 +3274,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3278,7 +3286,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -3290,7 +3298,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -3302,7 +3310,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -3314,7 +3322,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -3326,7 +3334,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3338,7 +3346,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3350,7 +3358,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -3362,7 +3370,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3374,7 +3382,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="14"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -3386,7 +3394,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="14"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -3398,7 +3406,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -3410,7 +3418,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="14"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -3422,7 +3430,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="14"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -3434,7 +3442,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="14"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -3446,7 +3454,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="14"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -3458,7 +3466,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="14"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -3470,7 +3478,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="14"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -3482,7 +3490,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="14"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -3494,7 +3502,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="14"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -3506,7 +3514,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="14"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -3518,7 +3526,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="14"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -3530,7 +3538,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="14"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -3542,7 +3550,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="14"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -3554,7 +3562,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="14"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -3566,7 +3574,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="14"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -3578,7 +3586,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="14"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -3590,7 +3598,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="14"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -3602,7 +3610,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="14"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -3614,7 +3622,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="14"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -3626,7 +3634,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -3638,7 +3646,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -3650,7 +3658,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="14"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -3662,7 +3670,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -3674,7 +3682,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -3686,7 +3694,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="14"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -3698,7 +3706,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="14"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -3710,7 +3718,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -3722,7 +3730,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -3734,7 +3742,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -3746,7 +3754,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -3758,7 +3766,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="14"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -3770,7 +3778,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="14"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -3782,7 +3790,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="14"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -3794,7 +3802,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="14"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -3806,7 +3814,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="14"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -3818,7 +3826,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="14"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -3830,7 +3838,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="14"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -3842,7 +3850,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -3854,7 +3862,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="14"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -3866,7 +3874,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -3878,7 +3886,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -3890,7 +3898,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -3902,7 +3910,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="14"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -3914,7 +3922,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="14"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -3926,7 +3934,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -3938,7 +3946,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="14"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -3950,7 +3958,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="14"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -3962,7 +3970,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -3974,7 +3982,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="14"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -3986,7 +3994,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -3998,7 +4006,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="14"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -4010,7 +4018,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -4022,7 +4030,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="14"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -4034,7 +4042,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="14"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -4046,7 +4054,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="14"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -4058,7 +4066,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="14"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -4070,7 +4078,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="14"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -4082,7 +4090,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="14"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -4094,7 +4102,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="14"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -4106,7 +4114,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="14"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -4118,7 +4126,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="14"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -4130,7 +4138,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="14"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -4142,7 +4150,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="14"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -4154,7 +4162,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="14"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -4166,7 +4174,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="14"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -4178,7 +4186,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="14"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -4190,7 +4198,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="14"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -4202,7 +4210,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="14"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -4214,7 +4222,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="14"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -4226,7 +4234,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="14"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -4238,7 +4246,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="14"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -4250,7 +4258,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="14"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -4262,7 +4270,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="14"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -4274,7 +4282,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="14"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -4286,7 +4294,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="14"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -4298,7 +4306,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="14"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -4310,7 +4318,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="14"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -4322,7 +4330,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="14"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -4334,7 +4342,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="14"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -4346,7 +4354,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="14"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -4358,7 +4366,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="14"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -4370,7 +4378,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="14"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -4382,7 +4390,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="14"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -4394,7 +4402,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="14"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -4406,7 +4414,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="14"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -4418,7 +4426,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="14"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -4430,7 +4438,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -4442,7 +4450,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="14"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -4454,7 +4462,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="14"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -4466,7 +4474,7 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="14"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -4478,7 +4486,7 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -4490,7 +4498,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="14"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -4502,7 +4510,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="14"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -4514,7 +4522,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="14"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -4526,7 +4534,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="14"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -4538,7 +4546,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="14"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -4550,7 +4558,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="14"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -4562,7 +4570,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="14"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -4574,7 +4582,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="14"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -4586,7 +4594,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="14"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -4598,7 +4606,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="14"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -4610,7 +4618,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="14"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -4622,7 +4630,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="14"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -4634,7 +4642,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="14"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -4646,7 +4654,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="14"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -4658,7 +4666,7 @@
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="14"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -4670,7 +4678,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="14"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -4682,7 +4690,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="14"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -4694,7 +4702,7 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -4706,7 +4714,7 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="14"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -4718,7 +4726,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -4730,7 +4738,7 @@
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="14"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -4742,7 +4750,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -4754,7 +4762,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="14"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -4766,7 +4774,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -4778,7 +4786,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="14"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -4790,7 +4798,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="14"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -4802,7 +4810,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="14"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -4814,7 +4822,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="14"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -4826,7 +4834,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="14"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -4838,7 +4846,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="14"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -4850,7 +4858,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="14"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -4862,7 +4870,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="14"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -4874,7 +4882,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="14"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -4886,7 +4894,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="14"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -4898,7 +4906,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -4910,7 +4918,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="14"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -4922,7 +4930,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="14"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -4934,7 +4942,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="14"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -4946,7 +4954,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="14"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -4958,7 +4966,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="14"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -4970,7 +4978,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="14"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -4982,7 +4990,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="14"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -4994,7 +5002,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="14"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -5006,7 +5014,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="14"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -5018,7 +5026,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="14"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -5030,7 +5038,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="14"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -5042,7 +5050,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="14"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -5054,7 +5062,7 @@
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="14"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -5066,7 +5074,7 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="14"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -5078,7 +5086,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="14"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -5090,7 +5098,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="14"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -5102,7 +5110,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="14"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -5114,7 +5122,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="14"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -5126,7 +5134,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="14"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -5138,7 +5146,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="14"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -5150,7 +5158,7 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="14"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -5162,7 +5170,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="14"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -5174,7 +5182,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="14"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -5186,7 +5194,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="14"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -5198,7 +5206,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="14"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -5210,7 +5218,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="14"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -5222,7 +5230,7 @@
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="14"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -5234,7 +5242,7 @@
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="14"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -5246,7 +5254,7 @@
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="14"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -5258,7 +5266,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="14"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -5270,7 +5278,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="14"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -5282,7 +5290,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="14"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -5294,7 +5302,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="14"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -5306,7 +5314,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="14"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -5318,7 +5326,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="14"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -5330,7 +5338,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="14"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -5342,7 +5350,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="14"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -5354,7 +5362,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="14"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -5366,7 +5374,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="14"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -5378,7 +5386,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="14"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -5390,7 +5398,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="14"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -5402,7 +5410,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="14"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -5414,7 +5422,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="14"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -5426,7 +5434,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="14"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -5438,7 +5446,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="14"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -5450,7 +5458,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="14"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -5462,7 +5470,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="14"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -5474,7 +5482,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="14"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -5486,7 +5494,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="14"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -5498,7 +5506,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="14"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -5510,7 +5518,7 @@
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="14"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -5522,7 +5530,7 @@
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="14"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -5534,7 +5542,7 @@
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="14"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -5546,7 +5554,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="14"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -5558,7 +5566,7 @@
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="14"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -5570,7 +5578,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="14"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -5582,7 +5590,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="14"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -5594,7 +5602,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="14"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -5606,7 +5614,7 @@
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="14"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -5618,7 +5626,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="14"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -5630,7 +5638,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="14"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -5642,7 +5650,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="14"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -5654,7 +5662,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="14"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -5666,7 +5674,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="14"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -5678,7 +5686,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="14"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -5690,7 +5698,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="14"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -5702,7 +5710,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="14"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -5714,7 +5722,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="14"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -5726,7 +5734,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="14"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -5738,7 +5746,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="14"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -5750,7 +5758,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="14"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -5762,7 +5770,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="14"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -5774,7 +5782,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="14"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -5786,7 +5794,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="14"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -5798,7 +5806,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="14"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -5810,7 +5818,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="14"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -5822,7 +5830,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="14"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -5834,7 +5842,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="14"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -5846,7 +5854,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="14"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -5858,7 +5866,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="14"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -5870,7 +5878,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="14"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -5882,7 +5890,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="14"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -5894,7 +5902,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="14"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -5906,7 +5914,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="14"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -5918,7 +5926,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="14"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -5930,7 +5938,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="14"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -5942,7 +5950,7 @@
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="14"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -5954,7 +5962,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="14"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -5966,7 +5974,7 @@
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="14"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -5978,7 +5986,7 @@
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="14"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -5990,7 +5998,7 @@
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="14"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -6002,7 +6010,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="14"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -6014,7 +6022,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="14"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -6026,7 +6034,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="14"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -6038,7 +6046,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="14"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -6050,7 +6058,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="14"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -6062,7 +6070,7 @@
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="14"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -6074,7 +6082,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="14"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -6086,7 +6094,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -6098,7 +6106,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -6110,7 +6118,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -6122,7 +6130,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -6134,7 +6142,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="14"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -6146,7 +6154,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="14"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -6158,7 +6166,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -6170,7 +6178,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -6182,7 +6190,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -6194,7 +6202,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -6206,7 +6214,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="14"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -6218,7 +6226,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="14"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -6230,7 +6238,7 @@
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="14"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -6242,7 +6250,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -6254,7 +6262,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="14"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -6266,7 +6274,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="14"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -6278,7 +6286,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="14"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -6290,7 +6298,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -6302,7 +6310,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -6314,7 +6322,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -6326,7 +6334,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="14"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -6338,7 +6346,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -6350,7 +6358,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="14"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -6362,7 +6370,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="14"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -6374,7 +6382,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="14"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -6386,7 +6394,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -6398,7 +6406,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="14"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -6410,7 +6418,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="14"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -6422,7 +6430,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="14"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -6434,7 +6442,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="14"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -6446,7 +6454,7 @@
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="14"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -6458,7 +6466,7 @@
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="14"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -6470,7 +6478,7 @@
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="14"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -6482,7 +6490,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="14"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -6494,7 +6502,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="14"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -6506,7 +6514,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -6518,7 +6526,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="14"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -6530,7 +6538,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="14"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -6542,7 +6550,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="14"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -6554,7 +6562,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="14"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -6566,7 +6574,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="14"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -6578,7 +6586,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="14"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -6590,7 +6598,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="14"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -6602,7 +6610,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="14"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -6614,7 +6622,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="14"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -6626,7 +6634,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="14"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -6638,7 +6646,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="14"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -6650,7 +6658,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="14"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -6662,7 +6670,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="14"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -6674,7 +6682,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="14"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -6686,7 +6694,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="14"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -6698,7 +6706,7 @@
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="14"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -6710,7 +6718,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="14"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -6722,7 +6730,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="14"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -6734,7 +6742,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="14"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -6746,7 +6754,7 @@
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="14"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -6758,7 +6766,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="14"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -6770,7 +6778,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="14"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -6782,7 +6790,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="14"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -6794,7 +6802,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="14"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -6806,7 +6814,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="14"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -6818,7 +6826,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="14"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -6830,7 +6838,7 @@
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="14"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -6842,7 +6850,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="14"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -6854,7 +6862,7 @@
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="14"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -6866,7 +6874,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="14"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -6878,7 +6886,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="14"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -6890,7 +6898,7 @@
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="14"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -6902,7 +6910,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="14"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -6914,7 +6922,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="14"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -6926,7 +6934,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="14"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -6938,7 +6946,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="14"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -6950,7 +6958,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="14"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -6962,7 +6970,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="14"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -6974,7 +6982,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="14"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -6986,7 +6994,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="14"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -6998,7 +7006,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="14"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -7010,7 +7018,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="14"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -7022,7 +7030,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="14"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -7034,7 +7042,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="14"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -7046,7 +7054,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="14"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -7058,7 +7066,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="14"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -7070,7 +7078,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="14"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -7082,7 +7090,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="14"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -7094,7 +7102,7 @@
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="14"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -7106,7 +7114,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="14"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -7118,7 +7126,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="14"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -7130,7 +7138,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="14"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -7142,7 +7150,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="14"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -7154,7 +7162,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="14"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -7166,7 +7174,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="14"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -7178,7 +7186,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="14"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -7190,7 +7198,7 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="14"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -7202,7 +7210,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="14"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -7214,7 +7222,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="14"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -7226,7 +7234,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="14"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -7238,7 +7246,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="14"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -7250,7 +7258,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="14"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -7262,7 +7270,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="14"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -7274,7 +7282,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="14"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -7286,7 +7294,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="14"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -7298,7 +7306,7 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="14"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -7310,7 +7318,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="14"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -7322,7 +7330,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="14"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -7334,7 +7342,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="14"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -7346,7 +7354,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="14"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -7358,7 +7366,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="14"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -7370,7 +7378,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="14"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -7382,7 +7390,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="14"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -7394,7 +7402,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="14"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -7406,7 +7414,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="14"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -7418,7 +7426,7 @@
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="14"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -7430,7 +7438,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="14"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -7442,7 +7450,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="14"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -7454,7 +7462,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="14"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -7466,7 +7474,7 @@
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="14"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -7478,7 +7486,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="14"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -7490,7 +7498,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="14"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -7502,7 +7510,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="14"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -7514,7 +7522,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="14"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -7526,7 +7534,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="14"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -7538,7 +7546,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="14"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -7550,7 +7558,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="14"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -7562,7 +7570,7 @@
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="14"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -7574,7 +7582,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="14"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -7586,7 +7594,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="14"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -7598,7 +7606,7 @@
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="14"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -7610,7 +7618,7 @@
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="14"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -7622,7 +7630,7 @@
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="14"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -7634,7 +7642,7 @@
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="14"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -7646,7 +7654,7 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="14"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -7658,7 +7666,7 @@
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="14"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -7670,7 +7678,7 @@
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="14"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -7682,7 +7690,7 @@
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="14"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -7694,7 +7702,7 @@
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="14"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -7706,7 +7714,7 @@
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="14"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -7718,7 +7726,7 @@
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="14"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -7730,7 +7738,7 @@
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="14"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -7742,7 +7750,7 @@
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="14"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -7754,7 +7762,7 @@
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="14"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -7766,7 +7774,7 @@
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="14"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -7778,7 +7786,7 @@
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="14"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -7790,7 +7798,7 @@
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="14"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -7802,7 +7810,7 @@
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="14"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -7814,7 +7822,7 @@
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="14"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -7826,7 +7834,7 @@
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="14"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -7838,7 +7846,7 @@
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="14"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -7850,7 +7858,7 @@
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="14"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -7862,7 +7870,7 @@
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="14"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -7874,7 +7882,7 @@
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="14"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -7886,7 +7894,7 @@
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="14"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -7898,7 +7906,7 @@
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="14"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -7910,7 +7918,7 @@
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="14"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -7922,7 +7930,7 @@
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="14"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -7934,7 +7942,7 @@
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="14"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -7946,7 +7954,7 @@
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="14"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -7958,7 +7966,7 @@
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="14"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -7970,7 +7978,7 @@
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="14"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -7982,7 +7990,7 @@
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="14"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -7994,7 +8002,7 @@
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="14"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -8006,7 +8014,7 @@
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="14"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -8018,7 +8026,7 @@
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="14"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -8030,7 +8038,7 @@
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="14"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -8042,7 +8050,7 @@
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="14"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -8054,7 +8062,7 @@
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="14"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -8066,7 +8074,7 @@
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="14"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -8078,7 +8086,7 @@
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="14"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -8090,7 +8098,7 @@
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="14"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -8102,7 +8110,7 @@
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="14"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -8114,7 +8122,7 @@
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="14"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -8126,7 +8134,7 @@
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="14"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -8138,7 +8146,7 @@
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="14"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -8150,7 +8158,7 @@
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="14"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -8162,7 +8170,7 @@
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="14"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -8174,7 +8182,7 @@
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="14"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -8186,7 +8194,7 @@
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="14"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -8198,7 +8206,7 @@
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="14"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -8210,7 +8218,7 @@
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="14"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -8222,7 +8230,7 @@
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="14"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -8234,7 +8242,7 @@
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="14"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -8246,7 +8254,7 @@
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="14"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -8258,7 +8266,7 @@
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="14"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -8270,7 +8278,7 @@
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="14"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -8282,7 +8290,7 @@
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="14"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -8294,7 +8302,7 @@
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="14"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -8306,7 +8314,7 @@
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="14"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -8318,7 +8326,7 @@
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="14"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -8330,7 +8338,7 @@
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="14"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -8342,7 +8350,7 @@
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="14"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -8354,7 +8362,7 @@
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="14"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -8366,7 +8374,7 @@
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="14"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -8378,7 +8386,7 @@
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="14"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -8390,7 +8398,7 @@
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="14"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -8402,7 +8410,7 @@
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="14"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -8414,7 +8422,7 @@
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="14"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -8426,7 +8434,7 @@
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="14"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -8438,7 +8446,7 @@
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="14"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -8450,7 +8458,7 @@
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="14"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -8462,7 +8470,7 @@
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="14"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -8474,7 +8482,7 @@
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="14"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -8486,7 +8494,7 @@
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="14"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -8498,7 +8506,7 @@
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="14"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -8510,7 +8518,7 @@
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="14"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -8522,7 +8530,7 @@
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="14"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -8534,7 +8542,7 @@
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="14"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -8546,7 +8554,7 @@
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="14"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -8558,7 +8566,7 @@
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="14"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -8570,7 +8578,7 @@
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="14"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -8582,7 +8590,7 @@
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="14"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -8594,7 +8602,7 @@
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="14"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -8606,7 +8614,7 @@
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="14"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -8618,7 +8626,7 @@
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="14"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -8630,7 +8638,7 @@
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="14"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -8642,7 +8650,7 @@
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="14"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -8654,7 +8662,7 @@
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="14"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -8666,7 +8674,7 @@
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="14"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -8678,7 +8686,7 @@
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="14"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -8690,7 +8698,7 @@
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="14"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -8702,7 +8710,7 @@
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="14"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -8714,7 +8722,7 @@
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="14"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -8726,7 +8734,7 @@
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="14"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -8738,7 +8746,7 @@
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="14"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -8750,7 +8758,7 @@
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="14"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -8762,7 +8770,7 @@
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="14"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -8774,7 +8782,7 @@
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="14"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -8786,7 +8794,7 @@
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="14"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -8798,7 +8806,7 @@
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="14"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -8810,7 +8818,7 @@
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="14"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -8822,7 +8830,7 @@
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="14"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -8834,7 +8842,7 @@
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="14"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -8846,7 +8854,7 @@
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="14"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -8858,7 +8866,7 @@
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="14"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -8870,7 +8878,7 @@
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="14"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -8882,7 +8890,7 @@
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="14"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -8894,7 +8902,7 @@
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="14"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -8906,7 +8914,7 @@
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="14"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -8918,7 +8926,7 @@
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="14"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -8930,7 +8938,7 @@
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="14"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -8942,7 +8950,7 @@
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="14"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -8954,7 +8962,7 @@
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="14"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -8966,7 +8974,7 @@
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="14"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -8978,7 +8986,7 @@
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="14"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -8990,7 +8998,7 @@
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="14"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -9002,7 +9010,7 @@
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="14"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -9014,7 +9022,7 @@
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="14"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -9026,7 +9034,7 @@
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="14"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -9038,7 +9046,7 @@
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="14"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -9050,7 +9058,7 @@
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="14"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -9062,7 +9070,7 @@
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="14"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -9074,7 +9082,7 @@
       <c r="I674" s="3"/>
       <c r="J674" s="3"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="14"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -9086,7 +9094,7 @@
       <c r="I675" s="3"/>
       <c r="J675" s="3"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="14"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -9098,7 +9106,7 @@
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="14"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -9110,7 +9118,7 @@
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="14"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -9122,7 +9130,7 @@
       <c r="I678" s="3"/>
       <c r="J678" s="3"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="14"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -9134,7 +9142,7 @@
       <c r="I679" s="3"/>
       <c r="J679" s="3"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="14"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -9146,7 +9154,7 @@
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="14"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -9158,7 +9166,7 @@
       <c r="I681" s="3"/>
       <c r="J681" s="3"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="14"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -9170,7 +9178,7 @@
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="14"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -9182,7 +9190,7 @@
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="14"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -9194,7 +9202,7 @@
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="14"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -9206,7 +9214,7 @@
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="14"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -9218,7 +9226,7 @@
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="14"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -9230,7 +9238,7 @@
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="14"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -9242,7 +9250,7 @@
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="14"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -9254,7 +9262,7 @@
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="14"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -9266,7 +9274,7 @@
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="14"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -9278,7 +9286,7 @@
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="14"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -9290,7 +9298,7 @@
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="14"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -9302,7 +9310,7 @@
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="14"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -9314,7 +9322,7 @@
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="14"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -9326,7 +9334,7 @@
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="14"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -9338,7 +9346,7 @@
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="14"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -9350,7 +9358,7 @@
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="14"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -9362,7 +9370,7 @@
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="14"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -9374,7 +9382,7 @@
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="14"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -9386,7 +9394,7 @@
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="14"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -9398,7 +9406,7 @@
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="14"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -9410,7 +9418,7 @@
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="14"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -9422,7 +9430,7 @@
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="14"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -9434,7 +9442,7 @@
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" s="14"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -9446,7 +9454,7 @@
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="14"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -9458,7 +9466,7 @@
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="14"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -9470,7 +9478,7 @@
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="14"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -9482,7 +9490,7 @@
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="14"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -9494,7 +9502,7 @@
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="14"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -9506,7 +9514,7 @@
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="14"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -9518,7 +9526,7 @@
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="14"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -9530,7 +9538,7 @@
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="14"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -9542,7 +9550,7 @@
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="14"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -9554,7 +9562,7 @@
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="14"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -9566,7 +9574,7 @@
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="14"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -9578,7 +9586,7 @@
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="14"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -9590,7 +9598,7 @@
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="14"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -9602,7 +9610,7 @@
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" s="14"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -9614,7 +9622,7 @@
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="14"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -9626,7 +9634,7 @@
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="14"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -9638,7 +9646,7 @@
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="14"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -9650,7 +9658,7 @@
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="14"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -9662,7 +9670,7 @@
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="14"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -9674,7 +9682,7 @@
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="14"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -9686,7 +9694,7 @@
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="14"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -9698,7 +9706,7 @@
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="14"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -9710,7 +9718,7 @@
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="14"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -9722,7 +9730,7 @@
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="14"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -9734,7 +9742,7 @@
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="14"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -9746,7 +9754,7 @@
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="14"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -9758,7 +9766,7 @@
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="14"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -9770,7 +9778,7 @@
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="14"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -9782,7 +9790,7 @@
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="14"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -9794,7 +9802,7 @@
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="14"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -9806,7 +9814,7 @@
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="14"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -9818,7 +9826,7 @@
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="14"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -9830,7 +9838,7 @@
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="14"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -9842,7 +9850,7 @@
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="14"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -9854,7 +9862,7 @@
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="14"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -9866,7 +9874,7 @@
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="14"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -9878,7 +9886,7 @@
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="14"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -9890,7 +9898,7 @@
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="14"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -9902,7 +9910,7 @@
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" s="14"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -9914,7 +9922,7 @@
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="14"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -9926,7 +9934,7 @@
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="14"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -9938,7 +9946,7 @@
       <c r="I746" s="3"/>
       <c r="J746" s="3"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" s="14"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -9950,7 +9958,7 @@
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" s="14"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -9962,7 +9970,7 @@
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" s="14"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -9974,7 +9982,7 @@
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" s="14"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -9986,7 +9994,7 @@
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" s="14"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -9998,7 +10006,7 @@
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" s="14"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -10010,7 +10018,7 @@
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" s="14"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -10022,7 +10030,7 @@
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" s="14"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -10034,7 +10042,7 @@
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" s="14"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -10046,7 +10054,7 @@
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" s="14"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -10058,7 +10066,7 @@
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" s="14"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -10070,7 +10078,7 @@
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" s="14"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -10082,7 +10090,7 @@
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" s="14"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -10094,7 +10102,7 @@
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" s="14"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -10106,7 +10114,7 @@
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" s="14"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -10118,7 +10126,7 @@
       <c r="I761" s="3"/>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" s="14"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -10130,7 +10138,7 @@
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" s="14"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -10142,7 +10150,7 @@
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" s="14"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -10154,7 +10162,7 @@
       <c r="I764" s="3"/>
       <c r="J764" s="3"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" s="14"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -10166,7 +10174,7 @@
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" s="14"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -10178,7 +10186,7 @@
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" s="14"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -10190,7 +10198,7 @@
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" s="14"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -10202,7 +10210,7 @@
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" s="14"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -10214,7 +10222,7 @@
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" s="14"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -10226,7 +10234,7 @@
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" s="14"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -10238,7 +10246,7 @@
       <c r="I771" s="3"/>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" s="14"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -10250,7 +10258,7 @@
       <c r="I772" s="3"/>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" s="14"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -10262,7 +10270,7 @@
       <c r="I773" s="3"/>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" s="14"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -10274,7 +10282,7 @@
       <c r="I774" s="3"/>
       <c r="J774" s="3"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" s="14"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -10286,7 +10294,7 @@
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" s="14"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -10298,7 +10306,7 @@
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" s="14"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -10310,7 +10318,7 @@
       <c r="I777" s="3"/>
       <c r="J777" s="3"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" s="14"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -10322,7 +10330,7 @@
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" s="14"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -10334,7 +10342,7 @@
       <c r="I779" s="3"/>
       <c r="J779" s="3"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" s="14"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -10346,7 +10354,7 @@
       <c r="I780" s="3"/>
       <c r="J780" s="3"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" s="14"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -10358,7 +10366,7 @@
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" s="14"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -10370,7 +10378,7 @@
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" s="14"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -10382,7 +10390,7 @@
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" s="14"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -10394,7 +10402,7 @@
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" s="14"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -10406,7 +10414,7 @@
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" s="14"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -10418,7 +10426,7 @@
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" s="14"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -10430,7 +10438,7 @@
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" s="14"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -10442,7 +10450,7 @@
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" s="14"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -10454,7 +10462,7 @@
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" s="14"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -10466,7 +10474,7 @@
       <c r="I790" s="3"/>
       <c r="J790" s="3"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" s="14"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -10478,7 +10486,7 @@
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" s="14"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -10490,7 +10498,7 @@
       <c r="I792" s="3"/>
       <c r="J792" s="3"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" s="14"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -10502,7 +10510,7 @@
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" s="14"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -10514,7 +10522,7 @@
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" s="14"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -10526,7 +10534,7 @@
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="14"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -10538,7 +10546,7 @@
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="14"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -10550,7 +10558,7 @@
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="14"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -10562,7 +10570,7 @@
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="14"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -10574,7 +10582,7 @@
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="14"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -10586,7 +10594,7 @@
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="14"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -10598,7 +10606,7 @@
       <c r="I801" s="3"/>
       <c r="J801" s="3"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="14"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -10610,7 +10618,7 @@
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="14"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -10622,7 +10630,7 @@
       <c r="I803" s="3"/>
       <c r="J803" s="3"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="14"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -10634,7 +10642,7 @@
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="14"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -10646,7 +10654,7 @@
       <c r="I805" s="3"/>
       <c r="J805" s="3"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="14"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -10658,7 +10666,7 @@
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="14"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -10670,7 +10678,7 @@
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="14"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -10682,7 +10690,7 @@
       <c r="I808" s="3"/>
       <c r="J808" s="3"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="14"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -10694,7 +10702,7 @@
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" s="14"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -10706,7 +10714,7 @@
       <c r="I810" s="3"/>
       <c r="J810" s="3"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="14"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -10718,7 +10726,7 @@
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="14"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -10730,7 +10738,7 @@
       <c r="I812" s="3"/>
       <c r="J812" s="3"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="14"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -10742,7 +10750,7 @@
       <c r="I813" s="3"/>
       <c r="J813" s="3"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="14"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -10754,7 +10762,7 @@
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" s="14"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -10766,7 +10774,7 @@
       <c r="I815" s="3"/>
       <c r="J815" s="3"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" s="14"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -10778,7 +10786,7 @@
       <c r="I816" s="3"/>
       <c r="J816" s="3"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" s="14"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -10790,7 +10798,7 @@
       <c r="I817" s="3"/>
       <c r="J817" s="3"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" s="14"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -10802,7 +10810,7 @@
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" s="14"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -10814,7 +10822,7 @@
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" s="14"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -10826,7 +10834,7 @@
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" s="14"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -10838,7 +10846,7 @@
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" s="14"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -10850,7 +10858,7 @@
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" s="14"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -10862,7 +10870,7 @@
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" s="14"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -10874,7 +10882,7 @@
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" s="14"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -10886,7 +10894,7 @@
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" s="14"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -10898,7 +10906,7 @@
       <c r="I826" s="3"/>
       <c r="J826" s="3"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" s="14"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -10910,7 +10918,7 @@
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" s="14"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -10922,7 +10930,7 @@
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" s="14"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -10934,7 +10942,7 @@
       <c r="I829" s="3"/>
       <c r="J829" s="3"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" s="14"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -10946,7 +10954,7 @@
       <c r="I830" s="3"/>
       <c r="J830" s="3"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" s="14"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -10958,7 +10966,7 @@
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" s="14"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -10970,7 +10978,7 @@
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" s="14"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -10982,7 +10990,7 @@
       <c r="I833" s="3"/>
       <c r="J833" s="3"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" s="14"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -10994,7 +11002,7 @@
       <c r="I834" s="3"/>
       <c r="J834" s="3"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" s="14"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -11006,7 +11014,7 @@
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" s="14"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -11018,7 +11026,7 @@
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" s="14"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -11030,7 +11038,7 @@
       <c r="I837" s="3"/>
       <c r="J837" s="3"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" s="14"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -11042,7 +11050,7 @@
       <c r="I838" s="3"/>
       <c r="J838" s="3"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" s="14"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -11054,7 +11062,7 @@
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" s="14"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -11066,7 +11074,7 @@
       <c r="I840" s="3"/>
       <c r="J840" s="3"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" s="14"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -11078,7 +11086,7 @@
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" s="14"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -11090,7 +11098,7 @@
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" s="14"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -11102,7 +11110,7 @@
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" s="14"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -11114,7 +11122,7 @@
       <c r="I844" s="3"/>
       <c r="J844" s="3"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" s="14"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -11126,7 +11134,7 @@
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" s="14"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -11138,7 +11146,7 @@
       <c r="I846" s="3"/>
       <c r="J846" s="3"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" s="14"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -11150,7 +11158,7 @@
       <c r="I847" s="3"/>
       <c r="J847" s="3"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" s="14"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -11162,7 +11170,7 @@
       <c r="I848" s="3"/>
       <c r="J848" s="3"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" s="14"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -11174,7 +11182,7 @@
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" s="14"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -11186,7 +11194,7 @@
       <c r="I850" s="3"/>
       <c r="J850" s="3"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" s="14"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -11198,7 +11206,7 @@
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" s="14"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -11210,7 +11218,7 @@
       <c r="I852" s="3"/>
       <c r="J852" s="3"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" s="14"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -11222,7 +11230,7 @@
       <c r="I853" s="3"/>
       <c r="J853" s="3"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" s="14"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -11234,7 +11242,7 @@
       <c r="I854" s="3"/>
       <c r="J854" s="3"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" s="14"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -11246,7 +11254,7 @@
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" s="14"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -11258,7 +11266,7 @@
       <c r="I856" s="3"/>
       <c r="J856" s="3"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" s="14"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -11270,7 +11278,7 @@
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" s="14"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -11282,7 +11290,7 @@
       <c r="I858" s="3"/>
       <c r="J858" s="3"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" s="14"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -11294,7 +11302,7 @@
       <c r="I859" s="3"/>
       <c r="J859" s="3"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" s="14"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -11306,7 +11314,7 @@
       <c r="I860" s="3"/>
       <c r="J860" s="3"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" s="14"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -11318,7 +11326,7 @@
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" s="14"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -11330,7 +11338,7 @@
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" s="14"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -11342,7 +11350,7 @@
       <c r="I863" s="3"/>
       <c r="J863" s="3"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" s="14"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -11354,7 +11362,7 @@
       <c r="I864" s="3"/>
       <c r="J864" s="3"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" s="14"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -11366,7 +11374,7 @@
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" s="14"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -11378,7 +11386,7 @@
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" s="14"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -11390,7 +11398,7 @@
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" s="14"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -11402,7 +11410,7 @@
       <c r="I868" s="3"/>
       <c r="J868" s="3"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" s="14"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -11414,7 +11422,7 @@
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" s="14"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -11426,7 +11434,7 @@
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" s="14"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -11438,7 +11446,7 @@
       <c r="I871" s="3"/>
       <c r="J871" s="3"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" s="14"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -11450,7 +11458,7 @@
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" s="14"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -11462,7 +11470,7 @@
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" s="14"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -11474,7 +11482,7 @@
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" s="14"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -11486,7 +11494,7 @@
       <c r="I875" s="3"/>
       <c r="J875" s="3"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" s="14"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -11498,7 +11506,7 @@
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" s="14"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -11510,7 +11518,7 @@
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" s="14"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -11522,7 +11530,7 @@
       <c r="I878" s="3"/>
       <c r="J878" s="3"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" s="14"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -11534,7 +11542,7 @@
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" s="14"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -11546,7 +11554,7 @@
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" s="14"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -11558,7 +11566,7 @@
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" s="14"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -11570,7 +11578,7 @@
       <c r="I882" s="3"/>
       <c r="J882" s="3"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" s="14"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -11582,7 +11590,7 @@
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" s="14"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -11594,7 +11602,7 @@
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" s="14"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -11606,7 +11614,7 @@
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" s="14"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -11618,7 +11626,7 @@
       <c r="I886" s="3"/>
       <c r="J886" s="3"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" s="14"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -11630,7 +11638,7 @@
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" s="14"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -11642,7 +11650,7 @@
       <c r="I888" s="3"/>
       <c r="J888" s="3"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" s="14"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -11654,7 +11662,7 @@
       <c r="I889" s="3"/>
       <c r="J889" s="3"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" s="14"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -11666,7 +11674,7 @@
       <c r="I890" s="3"/>
       <c r="J890" s="3"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" s="14"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -11678,7 +11686,7 @@
       <c r="I891" s="3"/>
       <c r="J891" s="3"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" s="14"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -11690,7 +11698,7 @@
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" s="14"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -11702,7 +11710,7 @@
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" s="14"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -11714,7 +11722,7 @@
       <c r="I894" s="3"/>
       <c r="J894" s="3"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" s="14"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -11726,7 +11734,7 @@
       <c r="I895" s="3"/>
       <c r="J895" s="3"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" s="14"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -11738,7 +11746,7 @@
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" s="14"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -11750,7 +11758,7 @@
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" s="14"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -11762,7 +11770,7 @@
       <c r="I898" s="3"/>
       <c r="J898" s="3"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" s="14"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -11774,7 +11782,7 @@
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" s="14"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -11786,7 +11794,7 @@
       <c r="I900" s="3"/>
       <c r="J900" s="3"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" s="14"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -11798,7 +11806,7 @@
       <c r="I901" s="3"/>
       <c r="J901" s="3"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" s="14"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -11810,7 +11818,7 @@
       <c r="I902" s="3"/>
       <c r="J902" s="3"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" s="14"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -11822,7 +11830,7 @@
       <c r="I903" s="3"/>
       <c r="J903" s="3"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" s="14"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -11834,7 +11842,7 @@
       <c r="I904" s="3"/>
       <c r="J904" s="3"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" s="14"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -11846,7 +11854,7 @@
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" s="14"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -11858,7 +11866,7 @@
       <c r="I906" s="3"/>
       <c r="J906" s="3"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" s="14"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -11870,7 +11878,7 @@
       <c r="I907" s="3"/>
       <c r="J907" s="3"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" s="14"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -11882,7 +11890,7 @@
       <c r="I908" s="3"/>
       <c r="J908" s="3"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" s="14"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -11894,7 +11902,7 @@
       <c r="I909" s="3"/>
       <c r="J909" s="3"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" s="14"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -11906,7 +11914,7 @@
       <c r="I910" s="3"/>
       <c r="J910" s="3"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911" s="14"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -11918,7 +11926,7 @@
       <c r="I911" s="3"/>
       <c r="J911" s="3"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" s="14"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -11930,7 +11938,7 @@
       <c r="I912" s="3"/>
       <c r="J912" s="3"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" s="14"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -11942,7 +11950,7 @@
       <c r="I913" s="3"/>
       <c r="J913" s="3"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914" s="14"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -11954,7 +11962,7 @@
       <c r="I914" s="3"/>
       <c r="J914" s="3"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" s="14"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -11966,7 +11974,7 @@
       <c r="I915" s="3"/>
       <c r="J915" s="3"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" s="14"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -11978,7 +11986,7 @@
       <c r="I916" s="3"/>
       <c r="J916" s="3"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" s="14"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -11990,7 +11998,7 @@
       <c r="I917" s="3"/>
       <c r="J917" s="3"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" s="14"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -12002,7 +12010,7 @@
       <c r="I918" s="3"/>
       <c r="J918" s="3"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" s="14"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -12014,7 +12022,7 @@
       <c r="I919" s="3"/>
       <c r="J919" s="3"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" s="14"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -12026,7 +12034,7 @@
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" s="14"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -12038,7 +12046,7 @@
       <c r="I921" s="3"/>
       <c r="J921" s="3"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" s="14"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -12050,7 +12058,7 @@
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923" s="14"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -12062,7 +12070,7 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" s="14"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -12074,7 +12082,7 @@
       <c r="I924" s="3"/>
       <c r="J924" s="3"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" s="14"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -12086,7 +12094,7 @@
       <c r="I925" s="3"/>
       <c r="J925" s="3"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" s="14"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -12098,7 +12106,7 @@
       <c r="I926" s="3"/>
       <c r="J926" s="3"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" s="14"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -12110,7 +12118,7 @@
       <c r="I927" s="3"/>
       <c r="J927" s="3"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" s="14"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -12122,7 +12130,7 @@
       <c r="I928" s="3"/>
       <c r="J928" s="3"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929" s="14"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -12134,7 +12142,7 @@
       <c r="I929" s="3"/>
       <c r="J929" s="3"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930" s="14"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -12146,7 +12154,7 @@
       <c r="I930" s="3"/>
       <c r="J930" s="3"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931" s="14"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -12158,7 +12166,7 @@
       <c r="I931" s="3"/>
       <c r="J931" s="3"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932" s="14"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -12170,7 +12178,7 @@
       <c r="I932" s="3"/>
       <c r="J932" s="3"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933" s="14"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -12182,7 +12190,7 @@
       <c r="I933" s="3"/>
       <c r="J933" s="3"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934" s="14"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -12194,7 +12202,7 @@
       <c r="I934" s="3"/>
       <c r="J934" s="3"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935" s="14"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -12206,7 +12214,7 @@
       <c r="I935" s="3"/>
       <c r="J935" s="3"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936" s="14"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -12218,7 +12226,7 @@
       <c r="I936" s="3"/>
       <c r="J936" s="3"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937" s="14"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -12230,7 +12238,7 @@
       <c r="I937" s="3"/>
       <c r="J937" s="3"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938" s="14"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -12242,7 +12250,7 @@
       <c r="I938" s="3"/>
       <c r="J938" s="3"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A939" s="14"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -12254,7 +12262,7 @@
       <c r="I939" s="3"/>
       <c r="J939" s="3"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940" s="14"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -12266,7 +12274,7 @@
       <c r="I940" s="3"/>
       <c r="J940" s="3"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A941" s="14"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -12278,7 +12286,7 @@
       <c r="I941" s="3"/>
       <c r="J941" s="3"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A942" s="14"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -12290,7 +12298,7 @@
       <c r="I942" s="3"/>
       <c r="J942" s="3"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A943" s="14"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -12302,7 +12310,7 @@
       <c r="I943" s="3"/>
       <c r="J943" s="3"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A944" s="14"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -12314,7 +12322,7 @@
       <c r="I944" s="3"/>
       <c r="J944" s="3"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945" s="14"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -12326,7 +12334,7 @@
       <c r="I945" s="3"/>
       <c r="J945" s="3"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946" s="14"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -12338,7 +12346,7 @@
       <c r="I946" s="3"/>
       <c r="J946" s="3"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947" s="14"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -12350,7 +12358,7 @@
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948" s="14"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -12362,7 +12370,7 @@
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949" s="14"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -12374,7 +12382,7 @@
       <c r="I949" s="3"/>
       <c r="J949" s="3"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950" s="14"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -12386,7 +12394,7 @@
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951" s="14"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -12398,7 +12406,7 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952" s="14"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -12410,7 +12418,7 @@
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953" s="14"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -12422,7 +12430,7 @@
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954" s="14"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -12434,7 +12442,7 @@
       <c r="I954" s="3"/>
       <c r="J954" s="3"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955" s="14"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -12446,7 +12454,7 @@
       <c r="I955" s="3"/>
       <c r="J955" s="3"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A956" s="14"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -12458,7 +12466,7 @@
       <c r="I956" s="3"/>
       <c r="J956" s="3"/>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957" s="14"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -12470,7 +12478,7 @@
       <c r="I957" s="3"/>
       <c r="J957" s="3"/>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958" s="14"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -12482,6 +12490,18 @@
       <c r="I958" s="3"/>
       <c r="J958" s="3"/>
     </row>
+    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A959" s="14"/>
+      <c r="B959" s="9"/>
+      <c r="C959" s="9"/>
+      <c r="D959" s="5"/>
+      <c r="E959" s="5"/>
+      <c r="F959" s="3"/>
+      <c r="G959" s="5"/>
+      <c r="H959" s="5"/>
+      <c r="I959" s="3"/>
+      <c r="J959" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/trainings.xlsx
+++ b/data/trainings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB75947-18CB-49DC-8EB3-94C4074A0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D97687-7841-4A07-BECA-B83E153962A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3828" yWindow="4068" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -232,6 +232,9 @@
   <si>
     <t>Do You Speak Statistics</t>
   </si>
+  <si>
+    <t>A critical introduction to causal mediation analysis for biostatistics</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +373,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -404,7 +407,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -704,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L959"/>
+  <dimension ref="A1:L960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,13 +759,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
-        <f>"18.11.2025"</f>
-        <v>18.11.2025</v>
+        <f>"11.12.2025"</f>
+        <v>11.12.2025</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -773,64 +776,56 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="str">
+        <f>"18.11.2025"</f>
+        <v>18.11.2025</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="str">
         <f>"17.12.2024"</f>
         <v>17.12.2024</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="G3" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="str">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="str">
         <f>"12.02.2024"</f>
         <v>12.02.2024</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
-        <f>"06.12.2023"</f>
-        <v>06.12.2023</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -845,200 +840,198 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
+        <f>"06.12.2023"</f>
+        <v>06.12.2023</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="str">
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="1">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="str">
+    <row r="9" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="str">
         <f>"10.02.2023"</f>
         <v>10.02.2023</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="str">
+    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="str">
         <f>"13.09.2022"</f>
         <v>13.09.2022</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="str">
+      <c r="K12" s="17"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="str">
-        <f t="shared" ref="A13:A15" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
@@ -1047,17 +1040,17 @@
         <v>9</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A14:A16" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B14" s="4"/>
@@ -1065,7 +1058,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
@@ -1074,10 +1067,10 @@
         <v>9</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="3"/>
@@ -1092,7 +1085,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -1101,67 +1094,69 @@
         <v>9</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>4</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4">
-        <v>1</v>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>13</v>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>11</v>
+      <c r="I16" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>14</v>
+      <c r="J16" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="17"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
+      <c r="I17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -1171,49 +1166,53 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -1222,38 +1221,47 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1332,11 +1340,11 @@
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1347,8 +1355,8 @@
       <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1364,6 +1372,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1375,7 +1384,6 @@
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1398,8 +1406,8 @@
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1410,7 +1418,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35"/>
     </row>
@@ -1421,9 +1429,9 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="16"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1433,8 +1441,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37"/>
     </row>
@@ -1447,7 +1455,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="6"/>
       <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="6"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1469,9 +1477,9 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1483,7 +1491,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="16"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="6"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1493,34 +1501,34 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="4"/>
+      <c r="J43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="1"/>
-      <c r="J44"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
@@ -1580,7 +1588,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
@@ -1600,7 +1608,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="1"/>
@@ -1632,8 +1640,8 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
@@ -1680,8 +1688,8 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
@@ -1692,8 +1700,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
@@ -1788,8 +1796,8 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
@@ -3155,16 +3163,16 @@
       <c r="J180" s="1"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="14"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="3"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="2"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
@@ -12502,6 +12510,18 @@
       <c r="I959" s="3"/>
       <c r="J959" s="3"/>
     </row>
+    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A960" s="14"/>
+      <c r="B960" s="9"/>
+      <c r="C960" s="9"/>
+      <c r="D960" s="5"/>
+      <c r="E960" s="5"/>
+      <c r="F960" s="3"/>
+      <c r="G960" s="5"/>
+      <c r="H960" s="5"/>
+      <c r="I960" s="3"/>
+      <c r="J960" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
